--- a/solutions/usb_cam/application/FaceEngine/ChangeLog/ChangeLog.xlsx
+++ b/solutions/usb_cam/application/FaceEngine/ChangeLog/ChangeLog.xlsx
@@ -5,23 +5,24 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Git\V3S\FaceEngine\ChangeLog\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Git\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="27870" windowHeight="13110"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12390" activeTab="2"/>
   </bookViews>
   <sheets>
-    <sheet name="V3S_JX_얼굴열쇠모듈" sheetId="14" r:id="rId1"/>
-    <sheet name="V3S_JX_색카메라_액정있는 방안" sheetId="16" r:id="rId2"/>
-    <sheet name="Sheet1" sheetId="15" r:id="rId3"/>
+    <sheet name="JX_얼굴열쇠모듈" sheetId="14" r:id="rId1"/>
+    <sheet name="SC_얼굴열쇠모듈" sheetId="17" r:id="rId2"/>
+    <sheet name="손바닥인식엔진" sheetId="18" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="15" r:id="rId4"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="405" uniqueCount="270">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="528" uniqueCount="361">
   <si>
     <t>No</t>
   </si>
@@ -41,7 +42,7 @@
     <t>엔진판본갱신리력</t>
   </si>
   <si>
-    <t>비고</t>
+    <t>내부리력</t>
   </si>
   <si>
     <t>해결되는 문제</t>
@@ -1753,149 +1754,13 @@
 git id:          6f7ba2bd</t>
   </si>
   <si>
-    <t>v3s_JX_Dual_Clr_1.0</t>
-  </si>
-  <si>
-    <t>발행목적:
-GC2145색카메라를 같이 리용하는 두카메라방안엔진의 초기판본으로 발행합니다.
-1. JX-H62카메라화상은 중심의 720*960부분을 리용합니다.
- 색카메라화상은 중심의 480*640부분을 리용합니다.
-2. 등록씨나리오는 일반얼굴인식모듈과 같은 방식으로 리용합니다. 
-v3s_JX_Dual_Clr_1.0에 결합된 부분엔진정보는 다음과 같습니다.
-가짜식별엔진: Live_JX-H62_1.10
-(2D가짜식별엔진 LiveIRS_JX-H62_1.12, 3D가짜식별엔진 Spoof3D_JX-H62_1.06)
-DNN특징추출엔진:mfn_r_ir01nq
-arm엔진: BalingEngineLib_720P_20200902
-H엔진:HEngineLib_720P_20190801</t>
-  </si>
-  <si>
-    <t>대만성풍에 적용</t>
-  </si>
-  <si>
-    <t>v3s_JX_Dual_Clr_1.1</t>
-  </si>
-  <si>
-    <t>H엔진</t>
-  </si>
-  <si>
-    <t>발행목적:
-엔진실행시간을 최적화하기 위하여 얼굴검출에 720*960해상도를 리용할수 있게 H엔진을 수정하는것입니다.
-1.H엔진을 변경하였습니다.
- HEngineLib_720P_20190801로부터 HEngineLib_720P_20200913로 변경하였습니다.
-v3s_JX_Dual_Clr_1.1에 결합된 부분엔진정보는 다음과 같습니다.
-가짜식별엔진: Live_JX-H62_1.10
-(2D가짜식별엔진 LiveIRS_JX-H62_1.12, 3D가짜식별엔진 Spoof3D_JX-H62_1.06)
-DNN특징추출엔진:mfn_r_ir01nq
-arm엔진: BalingEngineLib_720P_20200902
-H엔진:HEngineLib_720P_20200913</t>
-  </si>
-  <si>
-    <t>v3s_JX_Dual_t_6.01</t>
-  </si>
-  <si>
-    <t>git branch:   00_engine_jx_common_renthouse
-git id:          3a645a81</t>
-  </si>
-  <si>
-    <t>발행목적:
-동관동흔 임대집체계에 도입하기 위하여 색화상에 의한 등록기능과 색화상과 적외선화상과의 매칭기능을 추가하는것입니다.
-수정내용:
-1. 색화상에 의한 등록기능과 색화상과 적외선화상과의 매칭기능을 추가하였습니다.
-색화상에서의 얼굴검출을 위하여 Arm엔진 얼굴검출모듈을 결합하였습니다.
-색화상-적외선화상매칭을 위하여 DNN특징추출엔진을 mfns2_ir04nq로 교체하였습니다.
-v3s_JX_Dual_t_6.01에 결합된 부분엔진정보는 다음과 같습니다.
-가짜식별엔진: Live_JX-H62_1.18_en
-(2D가짜식별엔진 LiveIRS_JX-H62_1.18_en, 3D가짜식별엔진 Spoof3D_JX-H62_1.12_en)
-DNN특징추출엔진:mfns2_ir04nq
-DNN모델링엔진: vfl_1.00
-DNN얼굴검출엔진: Slim_lite_1.2.1
-H엔진:HEngineLib_720P_20210709
-Arm엔진:BalingEngineLib_720P_20211006
-감은눈판단엔진: esn_1.02
-가리움판단엔진:occ_1.02</t>
-  </si>
-  <si>
-    <t xml:space="preserve">기초엔진은 enn_1.00과 ennq_1.01입니다.
-</t>
-  </si>
-  <si>
-    <t>v3s_JX_Dual_t_5.19</t>
-  </si>
-  <si>
-    <t>git branch:   00_engine_jx_common
-git id:          f54183ec</t>
-  </si>
-  <si>
-    <t>v3s_JX_Dual_t_6.02</t>
-  </si>
-  <si>
-    <t>발행목적:
-v3s_JX_Dual_t_6.01의 시험에서 제기된 다음의 문제를 해결하는것입니다.
-1. 색 대 적외선성능시험에서 타인접수문제와 본인인증실패문제
-2. 얼굴검출엔진의 검출실패문제와 오검출문제
-수정내용:
-1. DNN특징추출엔진을 mfns2_ir04nq으로부터 mfnp_cir01nq로 갱신하였습니다.
-2. 색화상얼굴검출을 위하여 Slim_1.3을 결합하였습니다. Arm엔진 얼굴검출기는 없애였습니다.
-3. 가짜식별엔진 Live_JX-H62_2.00을 결합하였습니다.
-v3s_JX_Dual_t_6.02에 결합된 부분엔진정보는 다음과 같습니다.
-가짜식별엔진:  Live_JX-H62_2.00
-(Spoof2D_JX-H62_A_2.00 + Spoof2D_JX-H62_B_2.00 + Spoof3D_JX-H62_2.00)
-DNN특징추출엔진:mfnp_cir01nq
-DNN모델링엔진: vfl_1.00
-DNN얼굴검출엔진: Slim_lite_1.2.1(적외선화상), Slim_1.3(색화상)
-H엔진:HEngineLib_720P_20210709
-감은눈판단엔진: esn_1.02
-가리움판단엔진:occ_1.02</t>
-  </si>
-  <si>
-    <t xml:space="preserve">기초엔진은 enn_1.02과 ennq_1.02입니다.
-</t>
-  </si>
-  <si>
-    <t>git branch:   00_engine_jx_common_renthouse
-git id:          90ef5ea2</t>
-  </si>
-  <si>
-    <t>v3s_JX_Dual_t_5.20</t>
-  </si>
-  <si>
-    <t>git branch:   00_engine_jx_common
-git id:          27a038e6</t>
-  </si>
-  <si>
-    <t>발행목적:
-동관동흔회사시험에서 제기된 문제를 해결하기 위한 방안3을 구현하는것입니다.
-수정내용:
-1. DNN특징추출엔진의 검사합이 맞는가 맞지 않는가를 검사하여 그 결과를 상위에 돌려줍니다.
-2. DNN특징추출엔진을 제외한 각 부분엔진(얼굴검출엔진, 모델링엔진, 가짜식별엔진, 감은눈판단엔진, 가리움판단엔진)에 대하여 검사합검사기능을 추가하였습니다.
-3. 상위에서 복제기발을 세워주는 경우 가짜식별엔진에서 실패로 처리하게 하였습니다.
-v3s_JX_Dual_t_5.19에 결합된 부분엔진정보는 다음과 같습니다.
-가짜식별엔진:  Live_JX-H62_2.00
-(Spoof2D_JX-H62_A_2.00 + Spoof2D_JX-H62_B_2.00 + Spoof3D_JX-H62_2.00)
-DNN특징추출엔진:mfn_r_ir01nq
-DNN모델링엔진: vfl_1.00
-DNN얼굴검출엔진: Slim_lite_1.2.1
-H엔진:HEngineLib_720P_20210709
-감은눈판단엔진: esn_1.02
-가리움판단엔진:occ_1.02</t>
-  </si>
-  <si>
-    <t>발행목적:
-가짜식별엔진 Live_JX-H62_2.02를 결합하는것입니다.
-수정내용:
-1.가짜식별엔진 Live_JX-H62_2.02를 결합하였습니다.
-v3s_JX_Dual_t_5.20에 결합된 부분엔진정보는 다음과 같습니다.
-가짜식별엔진:  Live_JX-H62_2.02
-(Spoof2D_JX-H62_A_2.02 + Spoof2D_JX-H62_B_2.02 + Spoof3D_JX-H62_2.02)
-DNN특징추출엔진:mfn_r_ir01nq
-DNN모델링엔진: vfl_1.00
-DNN얼굴검출엔진: Slim_lite_1.2.1
-H엔진:HEngineLib_720P_20210709
-감은눈판단엔진: esn_1.02
-가리움판단엔진:occ_1.02</t>
-  </si>
-  <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="KP CheongPong"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">발행목적:
 다음의 문제를 해결하기 위하여 갱신된 가짜식별엔진 Live_JX-H62_2.00을 결합하는것입니다.
  - 심전부시에서 제기된 사진공격의 오판단문제 
@@ -1920,11 +1785,117 @@
         <sz val="11"/>
         <color rgb="FFFF0000"/>
         <rFont val="KP CheongPong"/>
+        <charset val="134"/>
       </rPr>
       <t>v3s_JX_Dual_t_5.17을 리용하지 말것(오유가 있음)
 오유를 퇴치하여 v3s_JX_Dual_t_5.18로 수정하고 발행내용을 반복함
 (중지기발에 의한 오유제거(가짜식별엔진, 특징추출엔진), TimeProfiling마크로를 막음)</t>
     </r>
+  </si>
+  <si>
+    <t>v3s_JX_Dual_t_6.01</t>
+  </si>
+  <si>
+    <t>git branch:   00_engine_jx_common_renthouse
+git id:          3a645a81</t>
+  </si>
+  <si>
+    <t>발행목적:
+동관동흔 임대집체계에 도입하기 위하여 색화상에 의한 등록기능과 색화상과 적외선화상과의 매칭기능을 추가하는것입니다.
+수정내용:
+1. 색화상에 의한 등록기능과 색화상과 적외선화상과의 매칭기능을 추가하였습니다.
+색화상에서의 얼굴검출을 위하여 Arm엔진 얼굴검출모듈을 결합하였습니다.
+색화상-적외선화상매칭을 위하여 DNN특징추출엔진을 mfns2_ir04nq로 교체하였습니다.
+v3s_JX_Dual_t_6.01에 결합된 부분엔진정보는 다음과 같습니다.
+가짜식별엔진: Live_JX-H62_1.18_en
+(2D가짜식별엔진 LiveIRS_JX-H62_1.18_en, 3D가짜식별엔진 Spoof3D_JX-H62_1.12_en)
+DNN특징추출엔진:mfns2_ir04nq
+DNN모델링엔진: vfl_1.00
+DNN얼굴검출엔진: Slim_lite_1.2.1
+H엔진:HEngineLib_720P_20210709
+Arm엔진:BalingEngineLib_720P_20211006
+감은눈판단엔진: esn_1.02
+가리움판단엔진:occ_1.02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">기초엔진은 enn_1.00과 ennq_1.01입니다.
+</t>
+  </si>
+  <si>
+    <t>v3s_JX_Dual_t_5.19</t>
+  </si>
+  <si>
+    <t>git branch:   00_engine_jx_common
+git id:          f54183ec</t>
+  </si>
+  <si>
+    <t>발행목적:
+동관동흔회사시험에서 제기된 문제를 해결하기 위한 방안3을 구현하는것입니다.
+수정내용:
+1. DNN특징추출엔진의 검사합이 맞는가 맞지 않는가를 검사하여 그 결과를 상위에 돌려줍니다.
+2. DNN특징추출엔진을 제외한 각 부분엔진(얼굴검출엔진, 모델링엔진, 가짜식별엔진, 감은눈판단엔진, 가리움판단엔진)에 대하여 검사합검사기능을 추가하였습니다.
+3. 상위에서 복제기발을 세워주는 경우 가짜식별엔진에서 실패로 처리하게 하였습니다.
+v3s_JX_Dual_t_5.19에 결합된 부분엔진정보는 다음과 같습니다.
+가짜식별엔진:  Live_JX-H62_2.00
+(Spoof2D_JX-H62_A_2.00 + Spoof2D_JX-H62_B_2.00 + Spoof3D_JX-H62_2.00)
+DNN특징추출엔진:mfn_r_ir01nq
+DNN모델링엔진: vfl_1.00
+DNN얼굴검출엔진: Slim_lite_1.2.1
+H엔진:HEngineLib_720P_20210709
+감은눈판단엔진: esn_1.02
+가리움판단엔진:occ_1.02</t>
+  </si>
+  <si>
+    <t>v3s_JX_Dual_t_6.02</t>
+  </si>
+  <si>
+    <t>git branch:   00_engine_jx_common_renthouse
+git id:          90ef5ea2</t>
+  </si>
+  <si>
+    <t>발행목적:
+v3s_JX_Dual_t_6.01의 시험에서 제기된 다음의 문제를 해결하는것입니다.
+1. 색 대 적외선성능시험에서 타인접수문제와 본인인증실패문제
+2. 얼굴검출엔진의 검출실패문제와 오검출문제
+수정내용:
+1. DNN특징추출엔진을 mfns2_ir04nq으로부터 mfnp_cir01nq로 갱신하였습니다.
+2. 색화상얼굴검출을 위하여 Slim_1.3을 결합하였습니다. Arm엔진 얼굴검출기는 없애였습니다.
+3. 가짜식별엔진 Live_JX-H62_2.00을 결합하였습니다.
+v3s_JX_Dual_t_6.02에 결합된 부분엔진정보는 다음과 같습니다.
+가짜식별엔진:  Live_JX-H62_2.00
+(Spoof2D_JX-H62_A_2.00 + Spoof2D_JX-H62_B_2.00 + Spoof3D_JX-H62_2.00)
+DNN특징추출엔진:mfnp_cir01nq
+DNN모델링엔진: vfl_1.00
+DNN얼굴검출엔진: Slim_lite_1.2.1(적외선화상), Slim_1.3(색화상)
+H엔진:HEngineLib_720P_20210709
+감은눈판단엔진: esn_1.02
+가리움판단엔진:occ_1.02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">기초엔진은 enn_1.02과 ennq_1.02입니다.
+</t>
+  </si>
+  <si>
+    <t>v3s_JX_Dual_t_5.20</t>
+  </si>
+  <si>
+    <t>git branch:   00_engine_jx_common
+git id:          27a038e6</t>
+  </si>
+  <si>
+    <t>발행목적:
+가짜식별엔진 Live_JX-H62_2.02를 결합하는것입니다.
+수정내용:
+1.가짜식별엔진 Live_JX-H62_2.02를 결합하였습니다.
+v3s_JX_Dual_t_5.20에 결합된 부분엔진정보는 다음과 같습니다.
+가짜식별엔진:  Live_JX-H62_2.02
+(Spoof2D_JX-H62_A_2.02 + Spoof2D_JX-H62_B_2.02 + Spoof3D_JX-H62_2.02)
+DNN특징추출엔진:mfn_r_ir01nq
+DNN모델링엔진: vfl_1.00
+DNN얼굴검출엔진: Slim_lite_1.2.1
+H엔진:HEngineLib_720P_20210709
+감은눈판단엔진: esn_1.02
+가리움판단엔진:occ_1.02</t>
   </si>
   <si>
     <t>v3s_JX_Dual_t_5.21</t>
@@ -1951,11 +1922,11 @@
 가리움판단엔진:occ_1.02</t>
   </si>
   <si>
+    <t>JX_Dual_t_5.22</t>
+  </si>
+  <si>
     <t>git branch:   00_engine_jx_common
 git id:          34f597f4</t>
-  </si>
-  <si>
-    <t>JX_Dual_t_5.22</t>
   </si>
   <si>
     <t>발행목적:
@@ -1993,17 +1964,6 @@
 git id:          ad884a48</t>
   </si>
   <si>
-    <t>JX_Dual_t_5.22_A에 결합된 부분엔진정보는 다음과 같습니다.
-가짜식별엔진:  Live_JX-H62_2.04
-(Spoof2D_JX-H62_A_2.04 + Spoof2D_JX-H62_B_2.04 + Spoof3D_JX-H62_2.02)
-DNN특징추출엔진: mfns2_ir04nq
-DNN모델링엔진: vfl_1.00
-DNN얼굴검출엔진: Slim_lite_1.2.1
-H엔진:HEngineLib_720P_20210709
-감은눈판단엔진: esn_1.02
-가리움판단엔진:occ_1.02</t>
-  </si>
-  <si>
     <t>발행목적:
 1. 중산순휘회사에서 제기된 타인접수문제를 해결하는것입니다.
 수정내용:
@@ -2020,11 +1980,22 @@
 가리움판단엔진:occ_1.02</t>
   </si>
   <si>
+    <t>JX_Dual_t_5.22_A에 결합된 부분엔진정보는 다음과 같습니다.
+가짜식별엔진:  Live_JX-H62_2.04
+(Spoof2D_JX-H62_A_2.04 + Spoof2D_JX-H62_B_2.04 + Spoof3D_JX-H62_2.02)
+DNN특징추출엔진: mfns2_ir04nq
+DNN모델링엔진: vfl_1.00
+DNN얼굴검출엔진: Slim_lite_1.2.1
+H엔진:HEngineLib_720P_20210709
+감은눈판단엔진: esn_1.02
+가리움판단엔진:occ_1.02</t>
+  </si>
+  <si>
+    <t>JX_Dual_t_6.03</t>
+  </si>
+  <si>
     <t>git branch:   00_engine_jx_common_renthouse
 git id:          68230a58</t>
-  </si>
-  <si>
-    <t>JX_Dual_t_6.03</t>
   </si>
   <si>
     <t>발행목적:
@@ -2055,15 +2026,8 @@
     <t>JX_Dual_t_5.23</t>
   </si>
   <si>
-    <t>JX_Dual_t_5.23에 결합된 부분엔진정보는 다음과 같습니다.
-가짜식별엔진:  Live_JX-H62_2.04
-(Spoof2D_JX-H62_A_2.04 + Spoof2D_JX-H62_B_2.04 + Spoof3D_JX-H62_2.02)
-DNN특징추출엔진:mfn_r_ir01nq
-DNN모델링엔진: vfl_1.00
-DNN얼굴검출엔진: Slim_lite_1.2.1
-H엔진:HEngineLib_720P_20210709
-감은눈판단엔진: esn_1.02
-가리움판단엔진:occ_1.02</t>
+    <t>git branch:   00_engine_jx_common
+git id:          c80dc8eb</t>
   </si>
   <si>
     <t>발행목적:
@@ -2081,8 +2045,15 @@
 가리움판단엔진:occ_1.02</t>
   </si>
   <si>
-    <t>git branch:   00_engine_jx_common
-git id:          c80dc8eb</t>
+    <t>JX_Dual_t_5.23에 결합된 부분엔진정보는 다음과 같습니다.
+가짜식별엔진:  Live_JX-H62_2.04
+(Spoof2D_JX-H62_A_2.04 + Spoof2D_JX-H62_B_2.04 + Spoof3D_JX-H62_2.02)
+DNN특징추출엔진:mfn_r_ir01nq
+DNN모델링엔진: vfl_1.00
+DNN얼굴검출엔진: Slim_lite_1.2.1
+H엔진:HEngineLib_720P_20210709
+감은눈판단엔진: esn_1.02
+가리움판단엔진:occ_1.02</t>
   </si>
   <si>
     <t>JX_Dual_t_5.24</t>
@@ -2191,6 +2162,10 @@
     <t>JX_Dual_t_5.27</t>
   </si>
   <si>
+    <t>git branch:   00_engine_jx_common
+git id:          0359bedc</t>
+  </si>
+  <si>
     <t>발행목적:
 1. 2021/11/4일 중산황력회사에서 제기된 얼굴인식가능한 거리가 상탕모듈보다 짧은 문제의 원인중 하나인 얼굴검출률문제를 대책하기 위하여 개발한 얼굴검출엔진 fdir_1.0을 결합하는것입니다.
 2. 모델링정확도를 높인 모델링엔진 vfl_1.10을 결합하는것입니다.
@@ -2220,8 +2195,745 @@
 가리움판단엔진:occ_1.02</t>
   </si>
   <si>
+    <t>JX_Dual_t_5.28</t>
+  </si>
+  <si>
     <t>git branch:   00_engine_jx_common
-git id:          0359bedc</t>
+git id:          d8490f25</t>
+  </si>
+  <si>
+    <t xml:space="preserve">발행목적:
+1. 2022/7/18일 아태천능회사에서 제기된 문제 "협박경보기능을 구현해달라고 합니다. 입을 크게 벌리면 -3을 돌려달라고 합니다."에 따라 입을 크게 벌렸는가를 판단하는 기능을 추가하는것입니다.
+수정내용:
+1.  입을 크게 벌렸는가를 판단하는 기능을 추가하였습니다.
+</t>
+  </si>
+  <si>
+    <t>SEngineResult구조체의 nMouthOpeness변수에 입을 벌렸는가를 판단한 결과를 넣었습니다. 이 변수의 값이 0이면 입을 벌리지 않은 상태, 1이면 입을 벌린 상태입니다.
+JX_Dual_t_5.28에 결합된 부분엔진정보는 다음과 같습니다.
+가짜식별엔진:  Live_JX-H62_2.04
+(Spoof2D_JX-H62_A_2.04 + Spoof2D_JX-H62_B_2.04 + Spoof3D_JX-H62_2.02)
+DNN특징추출엔진:mfnp_ir01nq
+DNN모델링엔진: vfl_1.10
+DNN얼굴검출엔진: fdir_1.0
+H엔진:HEngineLib_720P_20210709
+감은눈판단엔진: esn_1.02
+가리움판단엔진:occ_1.02</t>
+  </si>
+  <si>
+    <t>JX_Dual_t_6.04</t>
+  </si>
+  <si>
+    <t>git branch:   00_engine_jx_common_renthouse
+git id:          373a3de5</t>
+  </si>
+  <si>
+    <t>발행목적:
+임대집체계 인식엔진에 다음의 수정을 진행하는것입니다.
+1. 갱신된 얼굴검출엔진 fdir_1.0, 모델링엔진 vfl_1.10을 결합하였습니다.
+2. 절강금백복회사에서 제기된 체험감문제해결을 위하여 두개의 카메라의 초기Exp를 서로 다른 값으로 설정하고 조종하는 방식을 구현하는것입니다.
+수정내용:
+1.  얼굴검출엔진 fdir_1.0, 모델링엔진 vfl_1.10을 결합하였습니다.
+2. 두개의 카메라의 초기Exp를 서로 다른 값으로 설정하고 조종하는 방식을 구현하는것입니다.
+JX_Dual_t_6.04에 결합된 부분엔진정보는 다음과 같습니다.
+가짜식별엔진:  Live_JX-H62_2.04
+(Spoof2D_JX-H62_A_2.04 + Spoof2D_JX-H62_B_2.04 + Spoof3D_JX-H62_2.02)
+DNN특징추출엔진:mfnp_cir01nq
+DNN모델링엔진: vfl_1.10
+DNN얼굴검출엔진: fdir_1.0(적외선화상), Slim_1.3(색화상)
+H엔진:HEngineLib_720P_20210709
+감은눈판단엔진: esn_1.02
+가리움판단엔진:occ_1.02</t>
+  </si>
+  <si>
+    <t>JX_Dual_t_6.04에 결합된 부분엔진정보는 다음과 같습니다.
+가짜식별엔진:  Live_JX-H62_2.04
+(Spoof2D_JX-H62_A_2.04 + Spoof2D_JX-H62_B_2.04 + Spoof3D_JX-H62_2.02)
+DNN특징추출엔진:mfnp_cir01nq
+DNN모델링엔진: vfl_1.10
+DNN얼굴검출엔진: fdir_1.0
+H엔진:HEngineLib_720P_20210709
+감은눈판단엔진: esn_1.02
+가리움판단엔진:occ_1.02</t>
+  </si>
+  <si>
+    <t>SC_Dual_1.0</t>
+  </si>
+  <si>
+    <t>git branch:   01_engine_sc_common
+git id:          8b1cf406</t>
+  </si>
+  <si>
+    <t>발행목적:
+SC2355를 리용하는 두카메라방안 얼굴인식엔진의 초기판본을 발행하는것입니다.
+수정내용:
+1. 인식엔진을 1600*900해상도의 입력화상을 처리할수 있도록 수정하였으며 그에 맞게 기억기최적화를 진행하였습니다.
+2. 얼굴검출엔진, 모델링엔진, 가짜식별엔진을 갱신하였습니다.
+3. SC2355에 맞게 카메라조종모듈을 수정하였습니다. 
+SC_Dual_1.0에 결합된 부분엔진정보는 다음과 같습니다.
+가짜식별엔진: Live_SC_1.00 
+(SpoofA_SC_1.00 + SpoofB_SC_1.00 + SpoofC_SC_1.00)
+DNN특징추출엔진:mfnp_ir01nq
+DNN모델링엔진: vfl_1.10
+DNN얼굴검출엔진: fdir_1.0
+H엔진:HEngineLib_720P_20210709
+감은눈판단엔진: esn_1.02
+가리움판단엔진:occ_1.02</t>
+  </si>
+  <si>
+    <t>JX-H62를 리용한 인식엔진과 Bayer-&gt;Y변환방식이 차이가 있습니다.
+카메라의 시야각과 해상도가 수정된데 맞게 얼굴크기에 대한 제한이 달라지고 모델링엔진이 수정된데 맞게 등록시 각도의 제한기준이 달라졌습니다.
+SC_Dual_1.0에 결합된 부분엔진정보는 다음과 같습니다.
+가짜식별엔진: Live_SC_1.00 
+(SpoofA_SC_1.00 + SpoofB_SC_1.00 + SpoofC_SC_1.00)
+DNN특징추출엔진:mfnp_ir01nq
+DNN모델링엔진: vfl_1.10
+DNN얼굴검출엔진: fdir_1.0
+H엔진:HEngineLib_720P_20210709
+감은눈판단엔진: esn_1.02
+가리움판단엔진:occ_1.02</t>
+  </si>
+  <si>
+    <t>SC_Dual_1.1</t>
+  </si>
+  <si>
+    <t>git branch:   01_engine_sc_common
+git id:          117350e7</t>
+  </si>
+  <si>
+    <t>발행목적:
+1. SC_Dual_1.0의 품질검사에서 제기된 야외환경에서 등록 및 인증이 잘 안되는 문제를 대책하는것입니다.
+수정내용:
+1. 야외환경에서 환경판단을 잘못하여 얼굴검출이 실패하던 문제를 대책하였습니다.</t>
+  </si>
+  <si>
+    <t>SC_Dual_1.1에 결합된 부분엔진정보는 다음과 같습니다.
+가짜식별엔진: Live_SC_1.00 
+(SpoofA_SC_1.00 + SpoofB_SC_1.00 + SpoofC_SC_1.00)
+DNN특징추출엔진:mfnp_ir01nq
+DNN모델링엔진: vfl_1.10
+DNN얼굴검출엔진: fdir_1.0
+H엔진:HEngineLib_720P_20210709
+감은눈판단엔진: esn_1.02
+가리움판단엔진:occ_1.02</t>
+  </si>
+  <si>
+    <t>SC_Dual_1.2</t>
+  </si>
+  <si>
+    <t>git branch:   01_engine_sc_common
+git id:          525d3bfe</t>
+  </si>
+  <si>
+    <t xml:space="preserve">발행목적:
+1. 가짜식별엔진 Live_SC_1.02를 결합하는것입니다.
+수정내용:
+1. 가짜식별엔진 Live_SC_1.02을 결합하였습니다.
+SC_Dual_1.2에 결합된 부분엔진정보는 다음과 같습니다.
+가짜식별엔진: Live_SC_1.02
+(SpoofA_SC_1.02 + SpoofB_SC_1.02 + SpoofC_SC_1.02)
+DNN특징추출엔진:mfnp_ir01nq
+DNN모델링엔진: vfl_1.10
+DNN얼굴검출엔진: fdir_1.0
+H엔진:HEngineLib_720P_20210709
+감은눈판단엔진: esn_1.02
+가리움판단엔진:occ_1.02
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SC_Dual_1.2에 결합된 부분엔진정보는 다음과 같습니다.
+가짜식별엔진: Live_SC_1.02
+(SpoofA_SC_1.02 + SpoofB_SC_1.02 + SpoofC_SC_1.02)
+DNN특징추출엔진:mfnp_ir01nq
+DNN모델링엔진: vfl_1.10
+DNN얼굴검출엔진: fdir_1.0
+H엔진:HEngineLib_720P_20210709
+감은눈판단엔진: esn_1.02
+가리움판단엔진:occ_1.02
+</t>
+  </si>
+  <si>
+    <t>SC_Dual_1.3</t>
+  </si>
+  <si>
+    <t>git branch:   01_engine_sc_common
+git id:          748d8ff8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">발행목적:
+1. 한개의 적외선카메라를 리용하여 인식을 진행할수 있는 기능을 추가하였습니다.
+수정내용:
+1. 한개의 적외선카메라를 리용하여 인식을 진행할수 있는 기능을 추가하였습니다.
+마크로설정에 따라 두개의 적외선카메라를 리용하는 방식과 한개의 카메라를 리용하는 방식을 절환할수 있게 하였습니다.
+</t>
+  </si>
+  <si>
+    <t>SC_Dual_1.3에 결합된 부분엔진정보는 다음과 같습니다.
+가짜식별엔진: Live_SC_1.02
+(SpoofA_SC_1.02 + SpoofB_SC_1.02 + SpoofC_SC_1.02)
+DNN특징추출엔진:mfnp_ir01nq
+DNN모델링엔진: vfl_1.10
+DNN얼굴검출엔진: fdir_1.0
+H엔진:HEngineLib_720P_20210709
+감은눈판단엔진: esn_1.02
+가리움판단엔진:occ_1.02
+(appdef.h에서 ENGINE_USE_TWO_CAM마크로를 1로 설정하면 두개의 카메라, 0으로 설정하면 한개의 카메라를 리용할수 있습니다.)</t>
+  </si>
+  <si>
+    <t>SC_Dual_1.4</t>
+  </si>
+  <si>
+    <t>git branch:   01_engine_sc_common
+git id:          2510a2b8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">발행목적:
+1. 가짜식별엔진 Live_SC_1.04를 결합하는것입니다.
+수정내용:
+1. 가짜식별엔진 Live_SC_1.04를 결합하였습니다.
+SC_Dual_1.4에 결합된 부분엔진정보는 다음과 같습니다.
+가짜식별엔진: Live_SC_1.04
+(SpoofA_SC_1.04 + SpoofB_SC_1.04 + SpoofC_SC_1.04)
+DNN특징추출엔진:mfnp_ir01nq
+DNN모델링엔진: vfl_1.10
+DNN얼굴검출엔진: fdir_1.0
+H엔진:HEngineLib_720P_20210709
+감은눈판단엔진: esn_1.02
+가리움판단엔진:occ_1.02
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SC_Dual_1.4에 결합된 부분엔진정보는 다음과 같습니다.
+가짜식별엔진: Live_SC_1.04
+(SpoofA_SC_1.04 + SpoofB_SC_1.04 + SpoofC_SC_1.04)
+DNN특징추출엔진:mfnp_ir01nq
+DNN모델링엔진: vfl_1.10
+DNN얼굴검출엔진: fdir_1.0
+H엔진:HEngineLib_720P_20210709
+감은눈판단엔진: esn_1.02
+가리움판단엔진:occ_1.02
+</t>
+  </si>
+  <si>
+    <t>SC_One_1.0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">발행목적:
+1. 한개의 적외선카메라를 리용하는 인식엔진의 초판으로 발행합니다.
+수정내용:
+1. 한개의 카메라를 리용하여 인식엔진이 동작할수 있게 수정하였습니다.
+2. 가짜식별엔진을 A엔진과 C엔진만을 리용하도록 수정하였습니다.
+SC_One_1.0에 결합된 부분엔진정보는 다음과 같습니다.
+가짜식별엔진: Live_SC_1.04(B엔진을 제거)
+(SpoofA_SC_1.04 + SpoofC_SC_1.04)
+DNN특징추출엔진:mfnp_ir01nq
+DNN모델링엔진: vfl_1.10
+DNN얼굴검출엔진: fdir_1.0
+H엔진:HEngineLib_720P_20210709
+감은눈판단엔진: esn_1.02
+가리움판단엔진:occ_1.02
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+SC_One_1.0에 결합된 부분엔진정보는 다음과 같습니다.
+가짜식별엔진: Live_SC_1.04(B엔진을 제거)
+(SpoofA_SC_1.04 + SpoofC_SC_1.04)
+DNN특징추출엔진:mfnp_ir01nq
+DNN모델링엔진: vfl_1.10
+DNN얼굴검출엔진: fdir_1.0
+H엔진:HEngineLib_720P_20210709
+감은눈판단엔진: esn_1.02
+가리움판단엔진:occ_1.02</t>
+  </si>
+  <si>
+    <t>SC_Dual_1.5</t>
+  </si>
+  <si>
+    <t>git branch:   01_engine_sc_common
+git id:          df2de0c0</t>
+  </si>
+  <si>
+    <t>발행목적:
+1. 적외선카메라 1개, 색카메라 1개를 리용하는 방안에 리용하기 위하여 색카메라화상에서의 얼굴유무판단기능을 추가하는것입니다.
+수정내용:
+1. 색카메라화상에서의 얼굴유무판단기능을 추가하였습니다.
+마크로설정으로 색카메라화상에서의 얼굴유무판단기능을 열기/막기할수 있습니다.
+2. 적외선카메라경통을 M277-2450을 결합하여 시야각이 달라진데 맞게 얼굴의 크기제한, 작은사진얼굴판단기준을 수정하였습니다.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SC_Dual_1.5에 결합된 부분엔진정보는 다음과 같습니다.
+가짜식별엔진: Live_SC_1.04
+(SpoofA_SC_1.04 + SpoofB_SC_1.04 + SpoofC_SC_1.04)
+DNN특징추출엔진:mfnp_ir01nq
+DNN모델링엔진: vfl_1.10
+DNN얼굴검출엔진: fdir_1.0
+H엔진:HEngineLib_720P_20210709
+감은눈판단엔진: esn_1.02
+가리움판단엔진:occ_1.02
+</t>
+  </si>
+  <si>
+    <t>SC_Dual_2.0</t>
+  </si>
+  <si>
+    <t>git branch:   01_engine_sc_renthouse
+git id:          957b1cb0</t>
+  </si>
+  <si>
+    <t>발행목적:
+1. SC2355적외선카메라를 리용하는 임대집체계의 초기판본으로 발행하는것입니다.
+수정내용:
+1. 색카메라화상을 리용한 등록론리와 색화상특징과 적외선화상특징의 매칭론리를 구현하였습니다.
+2. 색화상에서의 얼굴검출을 위하여 얼굴검출엔진 Slim_1.3을 결합하였습니다.
+3. DNN특징추출엔진을 mfnp_ir01nq로부터 mfnp_cir01nq로 수정하였습니다.
+SC_Dual_2.0에 결합된 부분엔진정보는 다음과 같습니다.
+가짜식별엔진: Live_SC_1.04
+(SpoofA_SC_1.04 + SpoofB_SC_1.04 + SpoofC_SC_1.04)
+DNN특징추출엔진:mfnp_cir01nq
+DNN모델링엔진: vfl_1.10
+DNN얼굴검출엔진: fdir_1.0(적외선화상), Slim_1.3(색화상)
+감은눈판단엔진: esn_1.02
+가리움판단엔진:occ_1.02</t>
+  </si>
+  <si>
+    <t>SC_Dual_2.0에 결합된 부분엔진정보는 다음과 같습니다.
+가짜식별엔진: Live_SC_1.04
+(SpoofA_SC_1.04 + SpoofB_SC_1.04 + SpoofC_SC_1.04)
+DNN특징추출엔진:mfnp_cir01nq
+DNN모델링엔진: vfl_1.10
+DNN얼굴검출엔진: fdir_1.0(적외선화상), Slim_1.3(색화상)
+감은눈판단엔진: esn_1.02
+가리움판단엔진:occ_1.02</t>
+  </si>
+  <si>
+    <t>SC_Dual_t_1.0</t>
+  </si>
+  <si>
+    <t>git branch:   01_engine_sc_common_1.06
+git id:          48ef223a</t>
+  </si>
+  <si>
+    <t xml:space="preserve">발행목적:
+1. 가짜식별엔진 Live_SC_1.06를 결합하는것입니다.
+수정내용:
+1. 가짜식별엔진 Live_SC_1.06를 결합하였습니다.
+SC_Dual_t_1.0에 결합된 부분엔진정보는 다음과 같습니다.
+가짜식별엔진: Live_SC_1.06
+(SpoofA_SC_1.06 + SpoofB_SC_1.06 + SpoofC_SC_1.06)
+DNN특징추출엔진:mfnp_ir01nq
+DNN모델링엔진: vfl_1.10
+DNN얼굴검출엔진: fdir_1.0
+감은눈판단엔진: esn_1.02
+가리움판단엔진:occ_1.02
+</t>
+  </si>
+  <si>
+    <t>SC_Dual_t_1.0에 결합된 부분엔진정보는 다음과 같습니다.
+가짜식별엔진: Live_SC_1.06
+(SpoofA_SC_1.06 + SpoofB_SC_1.06 + SpoofC_SC_1.06)
+DNN특징추출엔진:mfnp_ir01nq
+DNN모델링엔진: vfl_1.10
+DNN얼굴검출엔진: fdir_1.0
+감은눈판단엔진: esn_1.02
+가리움판단엔진:occ_1.02</t>
+  </si>
+  <si>
+    <t>SC_Dual_1.6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">발행목적:
+1. 사전용량을 절반으로 줄인 DNN처리부분을 결합하는것입니다.
+수정내용:
+1. float무게를 리용하는 얼굴검출엔진 fdir_1.0의 사전용량을 0.2Mbyte로부터 0.1Mbyte로 줄여 fdir_1.0_q로 변경하였습니다.
+2. float무게를 리용하는 얼굴모델링엔진 vfl_1.10의 사전용량을 1.2Mbyte로부터 0.6Mbyte로 줄여 vfl_1.10_q로 변경하였습니다.
+3. float무게를 리용하는 가짜식별엔진 Live_SC_1.04의 사전용량을 3.2Mbyte로부터 1.6Mbyte로 줄여 Live_SC_1.04_q로 변경하였습니다.
+SC_Dual_1.6에 결합된 부분엔진정보는 다음과 같습니다.
+가짜식별엔진: Live_SC_1.04_q
+(SpoofA_SC_1.04_q + SpoofB_SC_1.04_q + SpoofC_SC_1.04_q)
+DNN특징추출엔진:mfnp_ir01nq
+DNN모델링엔진: vfl_1.10_q
+DNN얼굴검출엔진: fdir_1.0_q
+H엔진:HEngineLib_720P_20210709
+감은눈판단엔진: esn_1.02
+가리움판단엔진:occ_1.02
+</t>
+  </si>
+  <si>
+    <t>SC_Dual_1.6에 결합된 부분엔진정보는 다음과 같습니다.
+가짜식별엔진: Live_SC_1.04_q
+(SpoofA_SC_1.04_q + SpoofB_SC_1.04_q + SpoofC_SC_1.04_q)
+DNN특징추출엔진:mfnp_ir01nq
+DNN모델링엔진: vfl_1.10_q
+DNN얼굴검출엔진: fdir_1.0_q
+H엔진:HEngineLib_720P_20210709
+감은눈판단엔진: esn_1.02
+가리움판단엔진:occ_1.02</t>
+  </si>
+  <si>
+    <t>SC_Dual_1.7</t>
+  </si>
+  <si>
+    <t>git branch:   01_engine_sc_common
+git id:          cf873ec2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">발행목적:
+1. 동관동흔에서 제기된 M277-2450을 결합한 모듈에서 등록이 이전 경통보다 잘 안되는 문제를 해결하기 위한것입니다.
+수정내용:
+1. 방향별등록시 얼굴의 방향이 맞으면 즉시 다음 방향등록에로 넘어가도록 수정하였습니다.
+SC_Dual_1.7에 결합된 부분엔진정보는 다음과 같습니다.
+가짜식별엔진: Live_SC_1.04
+(SpoofA_SC_1.04 + SpoofB_SC_1.04 + SpoofC_SC_1.04)
+DNN특징추출엔진:mfnp_ir01nq
+DNN모델링엔진: vfl_1.10
+DNN얼굴검출엔진: fdir_1.0
+H엔진:HEngineLib_720P_20210709
+감은눈판단엔진: esn_1.02
+가리움판단엔진:occ_1.02
+</t>
+  </si>
+  <si>
+    <t>SC_Dual_1.7에 결합된 부분엔진정보는 다음과 같습니다.
+가짜식별엔진: Live_SC_1.04
+(SpoofA_SC_1.04 + SpoofB_SC_1.04 + SpoofC_SC_1.04)
+DNN특징추출엔진:mfnp_ir01nq
+DNN모델링엔진: vfl_1.10
+DNN얼굴검출엔진: fdir_1.0
+H엔진:HEngineLib_720P_20210709
+감은눈판단엔진: esn_1.02
+가리움판단엔진:occ_1.02</t>
+  </si>
+  <si>
+    <t>SC_Dual_1.7_t</t>
+  </si>
+  <si>
+    <t>git branch:   01_engine_sc_common_fp16
+git id:          17fc764e</t>
+  </si>
+  <si>
+    <t>발행목적:
+1. 사전용량을 절반으로 줄인 DNN처리부분을 결합하는것입니다.
+수정내용:
+1. float무게를 리용하는 얼굴검출엔진 fdir_1.0의 사전용량을 0.2Mbyte로부터 0.1Mbyte로 줄여 fdir_1.0_q로 변경하였습니다.
+2. float무게를 리용하는 얼굴모델링엔진 vfl_1.10의 사전용량을 1.2Mbyte로부터 0.6Mbyte로 줄여 vfl_1.10_q로 변경하였습니다.
+3. float무게를 리용하는 가짜식별엔진 Live_SC_1.04의 사전용량을 3.2Mbyte로부터 1.6Mbyte로 줄여 Live_SC_1.04_q로 변경하였습니다.
+SC_Dual_1.7_t에 결합된 부분엔진정보는 다음과 같습니다.
+가짜식별엔진: Live_SC_1.04_q
+(SpoofA_SC_1.04_q + SpoofB_SC_1.04_q + SpoofC_SC_1.04_q)
+DNN특징추출엔진:mfnp_ir01nq
+DNN모델링엔진: vfl_1.10_q
+DNN얼굴검출엔진: fdir_1.0_q
+H엔진:HEngineLib_720P_20210709
+감은눈판단엔진: esn_1.02
+가리움판단엔진:occ_1.02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SC_Dual_1.7_t에 결합된 부분엔진정보는 다음과 같습니다.
+가짜식별엔진: Live_SC_1.04_q
+(SpoofA_SC_1.04_q + SpoofB_SC_1.04_q + SpoofC_SC_1.04_q)
+DNN특징추출엔진:mfnp_ir01nq
+DNN모델링엔진: vfl_1.10_q
+DNN얼굴검출엔진: fdir_1.0_q
+H엔진:HEngineLib_720P_20210709
+감은눈판단엔진: esn_1.02
+가리움판단엔진:occ_1.02
+</t>
+  </si>
+  <si>
+    <t>SC_Dual_1.8</t>
+  </si>
+  <si>
+    <t>git branch:   01_engine_sc_common
+git id:          45607514</t>
+  </si>
+  <si>
+    <t xml:space="preserve">발행목적:
+1. 가짜식별엔진 Live_SC_1.08를 결합하는것입니다.
+수정내용:
+1. 가짜식별엔진 Live_SC_1.08를 결합하였습니다.
+SC_Dual_1.8에 결합된 부분엔진정보는 다음과 같습니다.
+가짜식별엔진: Live_SC_1.08
+(SpoofA_SC_1.04 + SpoofB_SC_1.08 + SpoofC_SC_1.08)
+DNN특징추출엔진:mfnp_ir01nq
+DNN모델링엔진: vfl_1.10
+DNN얼굴검출엔진: fdir_1.0
+감은눈판단엔진: esn_1.02
+가리움판단엔진:occ_1.02
+H엔진:HEngineLib_720P_20210709
+</t>
+  </si>
+  <si>
+    <t>SC_Dual_1.8에 결합된 부분엔진정보는 다음과 같습니다.
+가짜식별엔진: Live_SC_1.08
+(SpoofA_SC_1.04 + SpoofB_SC_1.08 + SpoofC_SC_1.08)
+DNN특징추출엔진:mfnp_ir01nq
+DNN모델링엔진: vfl_1.10
+DNN얼굴검출엔진: fdir_1.0
+감은눈판단엔진: esn_1.02
+가리움판단엔진:occ_1.02
+H엔진:HEngineLib_720P_20210709</t>
+  </si>
+  <si>
+    <t>SC_Dual_1.9</t>
+  </si>
+  <si>
+    <t>git branch:   01_engine_sc_common
+git id:          9d36a48c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">발행목적:
+1. 얼굴인식엔진과 손바닥인식엔진을 통합하기 위하여 인식론리와 API정리를 진행하는것입니다.
+수정내용:
+1. 얼굴인식엔진과 손바닥인식엔진을 통합하기 위하여 인식론리와 API정리를 진행였습니다.
+</t>
+  </si>
+  <si>
+    <t>SC_Dual_1.9에 결합된 부분엔진정보는 다음과 같습니다.
+가짜식별엔진: Live_SC_1.08q
+DNN특징추출엔진:mfnp_ir01nq
+DNN모델링엔진: vfl_1.10_q
+DNN얼굴검출엔진: fdir_1.0_q
+감은눈판단엔진: esn_1.02
+가리움판단엔진:occ_1.02
+H엔진:HEngineLib_720P_20210709</t>
+  </si>
+  <si>
+    <t>SC_Dual_1.9_t</t>
+  </si>
+  <si>
+    <t>git branch:   01_engine_sc_common
+git id:          2b05fdee</t>
+  </si>
+  <si>
+    <t>발행목적:
+1. 가짜식별엔진 Live_SC_1.10을 결합하는것입니다.
+수정내용:
+1. 가짜식별엔진 Live_SC_1.10을 결합하였습니다.
+SC_Dual_1.9_t에 결합된 부분엔진정보는 다음과 같습니다.
+가짜식별엔진: Live_SC_1.10
+(SpoofA_SC_1.10 + SpoofB_SC_1.10 + SpoofC_SC_1.10)
+DNN특징추출엔진:mfnp_ir01nq
+DNN모델링엔진: vfl_1.10
+DNN얼굴검출엔진: fdir_1.0
+감은눈판단엔진: esn_1.02
+가리움판단엔진:occ_1.02
+H엔진:HEngineLib_720P_20210709</t>
+  </si>
+  <si>
+    <t>SC_Dual_1.9_t에 결합된 부분엔진정보는 다음과 같습니다.
+가짜식별엔진: Live_SC_1.10
+(SpoofA_SC_1.10 + SpoofB_SC_1.10 + SpoofC_SC_1.10)
+DNN특징추출엔진:mfnp_ir01nq
+DNN모델링엔진: vfl_1.10
+DNN얼굴검출엔진: fdir_1.0
+감은눈판단엔진: esn_1.02
+가리움판단엔진:occ_1.02
+H엔진:HEngineLib_720P_20210709</t>
+  </si>
+  <si>
+    <t>SC_Dual_1.10</t>
+  </si>
+  <si>
+    <t>git branch:
+01_engine_sc_common_submodule
+git id:      aa97fed7</t>
+  </si>
+  <si>
+    <t>발행목적:
+1. SC2355적외선카메라를 리용하는 인식엔진에 쌍둥이인식기능을 결합하는것입니다.
+수정내용:
+1. 인식엔진에 쌍둥이인식기능을 결합하였습니다.
+SC_Dual_1.10에 결합된 부분엔진정보는 다음과 같습니다.
+가짜식별엔진: Live_SC_1.08
+DNN특징추출엔진:mfnp_ir01n
+DNN모델링엔진: vfl_1.10
+DNN얼굴검출엔진: fdir_1.0
+감은눈판단엔진: esn_1.02
+가리움판단엔진:occ_1.02
+H엔진:HEngineLib_720P_20210709</t>
+  </si>
+  <si>
+    <t>SC_Dual_1.10에 결합된 부분엔진정보는 다음과 같습니다.
+가짜식별엔진: Live_SC_1.08
+DNN특징추출엔진:mfnp_ir01n
+DNN모델링엔진: vfl_1.10
+DNN얼굴검출엔진: fdir_1.0
+감은눈판단엔진: esn_1.02
+가리움판단엔진:occ_1.02
+H엔진:HEngineLib_720P_20210709
+가짜식별엔진, 검출, 모델링, 특징추출엔진은 fp16량자화한 판본입니다.</t>
+  </si>
+  <si>
+    <t>SC_Dual_1.11</t>
+  </si>
+  <si>
+    <t>git branch:
+01_engine_sc_common_submodule
+git id:      9dfd9150</t>
+  </si>
+  <si>
+    <t>발행목적:
+1. 색카메라경통으로 M030-1450을 리용하는데 맞게 색카메라화상에서의 얼굴유무판단기능부분을 수정하는것입니다.
+수정내용:
+1. 색카메라경통으로 M030-1450을 리용하는 경우에 색카메라의 시야각이 달라지는데 맞게 색화상에서의 얼굴령역추정부분을 수정하였습니다.</t>
+  </si>
+  <si>
+    <t>SC_Dual_1.11에 결합된 부분엔진정보는 다음과 같습니다.
+가짜식별엔진: Live_SC_1.08
+DNN특징추출엔진:mfnp_ir01n
+DNN모델링엔진: vfl_1.10
+DNN얼굴검출엔진: fdir_1.0
+감은눈판단엔진: esn_1.02
+가리움판단엔진:occ_1.02
+H엔진:HEngineLib_720P_20210709
+가짜식별엔진, 검출, 모델링, 특징추출엔진은 fp16량자화한 판본입니다.</t>
+  </si>
+  <si>
+    <t>SC_Dual_1.12</t>
+  </si>
+  <si>
+    <t>git branch:
+01_engine_sc_common_submodule
+git id:      1bdbd1eb</t>
+  </si>
+  <si>
+    <t>발행목적:
+1. 가짜식별엔진 Live_SC_1.10을 결합하는것입니다.
+수정내용:
+1. 가짜식별엔진 Live_SC_1.10을 결합하였습니다.
+SC_Dual_1.12에 결합된 부분엔진정보는 다음과 같습니다.
+가짜식별엔진: Live_SC_1.10
+(SpoofA_SC_1.10 + SpoofB_SC_1.10 + SpoofC_SC_1.10)
+DNN특징추출엔진:mfnp_ir01nq
+DNN모델링엔진: vfl_1.10
+DNN얼굴검출엔진: fdir_1.0
+감은눈판단엔진: esn_1.02
+가리움판단엔진:occ_1.02
+H엔진:HEngineLib_720P_20210709</t>
+  </si>
+  <si>
+    <t>SC_Dual_1.12에 결합된 부분엔진정보는 다음과 같습니다.
+가짜식별엔진: Live_SC_1.10
+(SpoofA_SC_1.10 + SpoofB_SC_1.10 + SpoofC_SC_1.10)
+DNN특징추출엔진:mfnp_ir01nq
+DNN모델링엔진: vfl_1.10
+DNN얼굴검출엔진: fdir_1.0
+감은눈판단엔진: esn_1.02
+가리움판단엔진:occ_1.02
+H엔진:HEngineLib_720P_20210709
+가짜식별엔진, 검출, 모델링, 특징추출엔진은 fp16량자화한 판본입니다.</t>
+  </si>
+  <si>
+    <t>SC_Dual_1.13</t>
+  </si>
+  <si>
+    <t>git branch:
+01_engine_sc_common_submodule
+git id:      35385e2d</t>
+  </si>
+  <si>
+    <t>발행목적:
+1. 동관비부에서 제기된 요구사항에 따라  등록시 정면에 비하여 10도이상 돌려야 다음방향으로 넘어가도록 하는 기능을 추가하는것입니다.
+수정내용:
+1. 등록시 정면에 비하여 10도이상 돌려야 다음방향으로 넘어가도록 하는 기능을 추가하고 마크로에 의하여 관리할수 있도록 하였습니다.</t>
+  </si>
+  <si>
+    <t>SC_Dual_1.13에 결합된 부분엔진정보는 다음과 같습니다.
+가짜식별엔진: Live_SC_1.10
+(SpoofA_SC_1.10 + SpoofB_SC_1.10 + SpoofC_SC_1.10)
+DNN특징추출엔진:mfnp_ir01nq
+DNN모델링엔진: vfl_1.10
+DNN얼굴검출엔진: fdir_1.0
+감은눈판단엔진: esn_1.02
+가리움판단엔진:occ_1.02
+H엔진:HEngineLib_720P_20210709
+가짜식별엔진, 검출, 모델링, 특징추출엔진은 fp16량자화한 판본입니다.
+ENROLL_ANGLE_MODE를 0으로 설정하면 SC_Dual_1.12이전과 동일하게 동작합니다.
+ENROLL_ANGLE_MODE를 1과 2로 수정하면 동관비부에서 제기한 요구사항을 고려한 방식으로 동작합니다.
+1은 정면등록각도범위를 이전과 동일하게 한 방식, 2는 정면등록각도범위를 이전보다 축소한 방식입니다.
+동관비부에서는 ENROLL_ANGLE_MODE를 1로 한 방식을 선택하였습니다.</t>
+  </si>
+  <si>
+    <t>SC_Hand_1.0</t>
+  </si>
+  <si>
+    <t>GC_Hand_V3.4</t>
+  </si>
+  <si>
+    <t>git branch:   01_engine_sc_hand
+git id:          9c160d74</t>
+  </si>
+  <si>
+    <t>발행목적:
+중산황력에서 손바닥인식엔진을 결합한 견본을 요구한것으로 하여 손바닥인식엔진을 1600*900크기의 입력화상을 리용할수 있게 수정하는것입니다.
+수정내용:
+1. 손바닥인식엔진에서 1600*900크기의 입력화상을 640*360크기의 축소화상으로 변환하여 리용하도록 수정하였습니다.</t>
+  </si>
+  <si>
+    <t>SC_Hand_1.1</t>
+  </si>
+  <si>
+    <t>git branch:   01_engine_sc_hand
+git id:          95d1b1d8</t>
+  </si>
+  <si>
+    <t>발행목적:
+SC_Hand_1.0의 품질조검사에서 제기된 다음의 문제를 해결하는것입니다.
+1. 손바닥을 중복등록시도한후 손바닥인증을 하면 인증실패가 되고 얼굴인식모듈이 동작하지 않습니다.
+2. 손바닥등록시간이 오래며 손바닥의 자세와 위치를 조금 변경해도 등록이 잘 안되는 경우가 있습니다.
+수정내용:
+1. 손바닥검출실패경우를 줄이기 위한 수정을 진행하였습니다.
+2. 검출이 성공한후 등록이 실패하는 경우를 줄이기 위한 수정을 진행하였습니아.
+3. 손바닥중복등록한 후 인식에서 처리가 중지되던 오유를 퇴치하였습니다.</t>
+  </si>
+  <si>
+    <t>SC_Hand_2.0</t>
+  </si>
+  <si>
+    <t>git branch:   01_engine_sc_common
+git id:          7c673f81</t>
+  </si>
+  <si>
+    <t>발행목적:
+새로 개발한 DNN기반 손바닥검출, 모델링, 특징추출엔진을 결합한 손바닥인식엔진의 초기판본을 발행하는것입니다.
+수정내용:
+1. 손바닥검출엔진 hdir_1.0, 손바닥모델링엔진 hmir_1.0, 손바닥특징추출엔진 hfir_1.0를 결합하였습니다.
+SC_Hand_2.0에 결합된 부분엔진정보는 다음과 같습니다.
+DNN손바닥검출엔진:hdir_1.0
+DNN손바닥모델링엔진:hmir_1.0
+DNN손바닥특징추출엔진:hfir_1.0</t>
+  </si>
+  <si>
+    <t>SC_Hand_2.0에 결합된 부분엔진정보는 다음과 같습니다.
+DNN손바닥검출엔진:hdir_1.0
+DNN손바닥모델링엔진:hmir_1.0
+DNN손바닥특징추출엔진:hfir_1.0</t>
+  </si>
+  <si>
+    <t>SC_Hand_2.1</t>
+  </si>
+  <si>
+    <t>git branch:
+01_engine_sc_common_submodule
+git id:      2de49eb0</t>
+  </si>
+  <si>
+    <t>SC_Hand_2.1에 결합된 부분엔진정보는 다음과 같습니다.
+DNN손바닥검출엔진:hdir_1.0
+DNN손바닥모델링엔진:hmir_1.0
+DNN손바닥특징추출엔진:hfir_1.0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">발행목적:
+1. 얼굴과 손바닥의 혼합등록론리를 추가하는것입니다.
+2. 손바닥과 얼굴이 함께 있는 경우 손바닥인식론리를 수정하는것입니다.
+3. 등록실패률을 줄이기 위하여 손바닥등록시 타인검사를 하지 않도록 수정하는것입니다.
+수정내용:
+1. 얼굴과 손바닥을 혼합등록하는 기능을 추가하고 마크로에 의하여 관리할수 있도록 하였습니다.
+2. 손바닥과 얼굴이 함께 있는 경우 먼저 얼굴인증이 성공이면 성공으로 처리하고 얼굴인증이 실패하는 경우 손바닥인증을 시도하여 그 결과를 인식결과로 하도록 수정하였습니다.
+3. 손바닥등록시 타인검사를 하지 않도록 수정하였습니다.
+</t>
   </si>
 </sst>
 </file>
@@ -2231,7 +2943,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="yyyy&quot;/&quot;m&quot;/&quot;d;@"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2249,30 +2961,14 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="PRK P Gothic"/>
+      <name val="KP CheongPong"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="PRK P Gothic"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="KP CheongPong"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="KP CheongPong"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="KP CheongPong"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="3">
@@ -2351,7 +3047,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -2390,124 +3086,64 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2815,11 +3451,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I94"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="D80" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="3" ySplit="2" topLeftCell="D82" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="F80" sqref="F80"/>
+      <selection pane="bottomRight" activeCell="D82" sqref="D82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.25"/>
@@ -2847,2078 +3483,2102 @@
     </row>
     <row r="2" spans="1:9">
       <c r="A2" s="6"/>
-      <c r="B2" s="32" t="s">
+      <c r="B2" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="33" t="s">
+      <c r="C2" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="32" t="s">
+      <c r="D2" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="32" t="s">
+      <c r="E2" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="34" t="s">
+      <c r="F2" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="32" t="s">
+      <c r="G2" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="35" t="s">
+      <c r="H2" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="I2" s="35" t="s">
+      <c r="I2" s="14" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="242.25">
       <c r="A3" s="6"/>
-      <c r="B3" s="36">
+      <c r="B3" s="15">
         <v>1</v>
       </c>
-      <c r="C3" s="37">
+      <c r="C3" s="16">
         <v>44109</v>
       </c>
-      <c r="D3" s="37" t="s">
+      <c r="D3" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="E3" s="37" t="s">
+      <c r="E3" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="F3" s="38" t="s">
+      <c r="F3" s="32" t="s">
         <v>10</v>
       </c>
-      <c r="G3" s="39" t="s">
+      <c r="G3" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="H3" s="40"/>
-      <c r="I3" s="41"/>
+      <c r="H3" s="19"/>
+      <c r="I3" s="26"/>
     </row>
     <row r="4" spans="1:9" ht="213.75">
       <c r="A4" s="6"/>
-      <c r="B4" s="36">
+      <c r="B4" s="15">
         <v>2</v>
       </c>
-      <c r="C4" s="37">
+      <c r="C4" s="16">
         <v>44119</v>
       </c>
-      <c r="D4" s="37" t="s">
+      <c r="D4" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="E4" s="37" t="s">
+      <c r="E4" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="F4" s="38" t="s">
+      <c r="F4" s="32" t="s">
         <v>13</v>
       </c>
-      <c r="G4" s="39" t="s">
+      <c r="G4" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="H4" s="40"/>
-      <c r="I4" s="41"/>
+      <c r="H4" s="19"/>
+      <c r="I4" s="26"/>
     </row>
     <row r="5" spans="1:9" ht="213.75">
       <c r="A5" s="6"/>
-      <c r="B5" s="36">
+      <c r="B5" s="15">
         <v>3</v>
       </c>
-      <c r="C5" s="37">
+      <c r="C5" s="16">
         <v>44133</v>
       </c>
-      <c r="D5" s="37" t="s">
+      <c r="D5" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="E5" s="37" t="s">
+      <c r="E5" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="F5" s="38" t="s">
+      <c r="F5" s="32" t="s">
         <v>16</v>
       </c>
-      <c r="G5" s="39" t="s">
+      <c r="G5" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="H5" s="40"/>
-      <c r="I5" s="41"/>
+      <c r="H5" s="19"/>
+      <c r="I5" s="26"/>
     </row>
     <row r="6" spans="1:9" ht="199.5">
       <c r="A6" s="6"/>
-      <c r="B6" s="36">
+      <c r="B6" s="15">
         <v>4</v>
       </c>
-      <c r="C6" s="37">
+      <c r="C6" s="16">
         <v>44147</v>
       </c>
-      <c r="D6" s="37" t="s">
+      <c r="D6" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="E6" s="37" t="s">
+      <c r="E6" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="F6" s="38" t="s">
+      <c r="F6" s="32" t="s">
         <v>19</v>
       </c>
-      <c r="G6" s="42" t="s">
+      <c r="G6" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="H6" s="40"/>
-      <c r="I6" s="41"/>
+      <c r="H6" s="19"/>
+      <c r="I6" s="26"/>
     </row>
     <row r="7" spans="1:9" ht="409.5">
       <c r="A7" s="6"/>
-      <c r="B7" s="36">
+      <c r="B7" s="15">
         <v>5</v>
       </c>
-      <c r="C7" s="37">
+      <c r="C7" s="16">
         <v>44151</v>
       </c>
-      <c r="D7" s="37" t="s">
+      <c r="D7" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="E7" s="37" t="s">
+      <c r="E7" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="F7" s="39" t="s">
+      <c r="F7" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="G7" s="42" t="s">
+      <c r="G7" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="H7" s="43"/>
-      <c r="I7" s="41"/>
+      <c r="H7" s="17"/>
+      <c r="I7" s="26"/>
     </row>
     <row r="8" spans="1:9" ht="285">
-      <c r="A8" s="22"/>
-      <c r="B8" s="36">
+      <c r="A8" s="21"/>
+      <c r="B8" s="15">
         <v>6</v>
       </c>
-      <c r="C8" s="44">
+      <c r="C8" s="22">
         <v>44154</v>
       </c>
-      <c r="D8" s="37" t="s">
+      <c r="D8" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="E8" s="37" t="s">
+      <c r="E8" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="F8" s="39" t="s">
+      <c r="F8" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="G8" s="42" t="s">
+      <c r="G8" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="H8" s="43"/>
-      <c r="I8" s="41"/>
+      <c r="H8" s="17"/>
+      <c r="I8" s="26"/>
     </row>
     <row r="9" spans="1:9" ht="336.75" customHeight="1">
       <c r="A9" s="6"/>
-      <c r="B9" s="36">
+      <c r="B9" s="15">
         <v>7</v>
       </c>
-      <c r="C9" s="44">
+      <c r="C9" s="22">
         <v>44154</v>
       </c>
-      <c r="D9" s="37" t="s">
+      <c r="D9" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="E9" s="37" t="s">
+      <c r="E9" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="F9" s="39" t="s">
+      <c r="F9" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="G9" s="45" t="s">
+      <c r="G9" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="H9" s="43"/>
-      <c r="I9" s="41"/>
+      <c r="H9" s="17"/>
+      <c r="I9" s="26"/>
     </row>
     <row r="10" spans="1:9" ht="270.75">
       <c r="A10" s="6"/>
-      <c r="B10" s="36">
+      <c r="B10" s="15">
         <v>8</v>
       </c>
-      <c r="C10" s="44">
+      <c r="C10" s="22">
         <v>44156</v>
       </c>
-      <c r="D10" s="37" t="s">
+      <c r="D10" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="E10" s="37" t="s">
+      <c r="E10" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="F10" s="39" t="s">
+      <c r="F10" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="G10" s="42" t="s">
+      <c r="G10" s="23" t="s">
         <v>31</v>
       </c>
-      <c r="H10" s="43"/>
-      <c r="I10" s="41"/>
+      <c r="H10" s="17"/>
+      <c r="I10" s="26"/>
     </row>
     <row r="11" spans="1:9" ht="228">
       <c r="A11" s="6"/>
-      <c r="B11" s="36">
+      <c r="B11" s="15">
         <v>9</v>
       </c>
-      <c r="C11" s="44">
+      <c r="C11" s="22">
         <v>44156</v>
       </c>
-      <c r="D11" s="37" t="s">
+      <c r="D11" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="E11" s="37" t="s">
+      <c r="E11" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="F11" s="39" t="s">
+      <c r="F11" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="G11" s="42" t="s">
+      <c r="G11" s="23" t="s">
         <v>34</v>
       </c>
-      <c r="H11" s="43"/>
-      <c r="I11" s="41"/>
+      <c r="H11" s="17"/>
+      <c r="I11" s="26"/>
     </row>
     <row r="12" spans="1:9" ht="256.5">
       <c r="A12" s="6"/>
-      <c r="B12" s="36">
+      <c r="B12" s="15">
         <v>10</v>
       </c>
-      <c r="C12" s="44">
+      <c r="C12" s="22">
         <v>44156</v>
       </c>
-      <c r="D12" s="37" t="s">
+      <c r="D12" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="E12" s="37" t="s">
+      <c r="E12" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="F12" s="39" t="s">
+      <c r="F12" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="G12" s="45" t="s">
+      <c r="G12" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="H12" s="43"/>
-      <c r="I12" s="41"/>
+      <c r="H12" s="17"/>
+      <c r="I12" s="26"/>
     </row>
     <row r="13" spans="1:9" ht="228">
-      <c r="B13" s="36">
+      <c r="B13" s="15">
         <v>11</v>
       </c>
-      <c r="C13" s="44">
+      <c r="C13" s="22">
         <v>44164</v>
       </c>
-      <c r="D13" s="46" t="s">
+      <c r="D13" s="24" t="s">
         <v>37</v>
       </c>
-      <c r="E13" s="46" t="s">
+      <c r="E13" s="24" t="s">
         <v>29</v>
       </c>
-      <c r="F13" s="47" t="s">
+      <c r="F13" s="25" t="s">
         <v>38</v>
       </c>
-      <c r="G13" s="41" t="s">
+      <c r="G13" s="26" t="s">
         <v>39</v>
       </c>
-      <c r="H13" s="47"/>
-      <c r="I13" s="41"/>
+      <c r="H13" s="25"/>
+      <c r="I13" s="26"/>
     </row>
     <row r="14" spans="1:9" ht="242.25">
-      <c r="B14" s="36">
+      <c r="B14" s="15">
         <v>12</v>
       </c>
-      <c r="C14" s="44">
+      <c r="C14" s="22">
         <v>44174</v>
       </c>
-      <c r="D14" s="46" t="s">
+      <c r="D14" s="24" t="s">
         <v>40</v>
       </c>
-      <c r="E14" s="46" t="s">
+      <c r="E14" s="24" t="s">
         <v>37</v>
       </c>
-      <c r="F14" s="47" t="s">
+      <c r="F14" s="25" t="s">
         <v>41</v>
       </c>
-      <c r="G14" s="41" t="s">
+      <c r="G14" s="26" t="s">
         <v>42</v>
       </c>
-      <c r="H14" s="43" t="s">
+      <c r="H14" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="I14" s="41"/>
+      <c r="I14" s="26"/>
     </row>
     <row r="15" spans="1:9" ht="242.25">
-      <c r="B15" s="36">
+      <c r="B15" s="15">
         <v>13</v>
       </c>
-      <c r="C15" s="44">
+      <c r="C15" s="22">
         <v>44182</v>
       </c>
-      <c r="D15" s="37" t="s">
+      <c r="D15" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="E15" s="37" t="s">
+      <c r="E15" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="F15" s="39" t="s">
+      <c r="F15" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="G15" s="42" t="s">
+      <c r="G15" s="23" t="s">
         <v>46</v>
       </c>
-      <c r="H15" s="43"/>
-      <c r="I15" s="41"/>
+      <c r="H15" s="17"/>
+      <c r="I15" s="26"/>
     </row>
     <row r="16" spans="1:9" ht="228">
-      <c r="B16" s="36">
+      <c r="B16" s="15">
         <v>14</v>
       </c>
-      <c r="C16" s="44">
+      <c r="C16" s="22">
         <v>44182</v>
       </c>
-      <c r="D16" s="46" t="s">
+      <c r="D16" s="24" t="s">
         <v>47</v>
       </c>
-      <c r="E16" s="46" t="s">
+      <c r="E16" s="24" t="s">
         <v>32</v>
       </c>
-      <c r="F16" s="39" t="s">
+      <c r="F16" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="G16" s="42" t="s">
+      <c r="G16" s="23" t="s">
         <v>48</v>
       </c>
-      <c r="H16" s="47" t="s">
+      <c r="H16" s="25" t="s">
         <v>49</v>
       </c>
-      <c r="I16" s="41"/>
+      <c r="I16" s="26"/>
     </row>
     <row r="17" spans="2:9" ht="199.5">
-      <c r="B17" s="36">
+      <c r="B17" s="15">
         <v>15</v>
       </c>
-      <c r="C17" s="44">
+      <c r="C17" s="22">
         <v>44190</v>
       </c>
-      <c r="D17" s="37" t="s">
+      <c r="D17" s="16" t="s">
         <v>50</v>
       </c>
-      <c r="E17" s="37" t="s">
+      <c r="E17" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="F17" s="39" t="s">
+      <c r="F17" s="18" t="s">
         <v>51</v>
       </c>
-      <c r="G17" s="42" t="s">
+      <c r="G17" s="23" t="s">
         <v>52</v>
       </c>
-      <c r="H17" s="47"/>
-      <c r="I17" s="41"/>
+      <c r="H17" s="25"/>
+      <c r="I17" s="26"/>
     </row>
     <row r="18" spans="2:9" ht="185.25">
-      <c r="B18" s="36">
+      <c r="B18" s="15">
         <v>16</v>
       </c>
-      <c r="C18" s="44">
+      <c r="C18" s="22">
         <v>44190</v>
       </c>
-      <c r="D18" s="46" t="s">
+      <c r="D18" s="24" t="s">
         <v>53</v>
       </c>
-      <c r="E18" s="46" t="s">
+      <c r="E18" s="24" t="s">
         <v>47</v>
       </c>
-      <c r="F18" s="47" t="s">
+      <c r="F18" s="25" t="s">
         <v>51</v>
       </c>
-      <c r="G18" s="41" t="s">
+      <c r="G18" s="26" t="s">
         <v>54</v>
       </c>
-      <c r="H18" s="47"/>
-      <c r="I18" s="41"/>
+      <c r="H18" s="25"/>
+      <c r="I18" s="26"/>
     </row>
     <row r="19" spans="2:9" ht="242.25">
-      <c r="B19" s="36">
+      <c r="B19" s="15">
         <v>17</v>
       </c>
-      <c r="C19" s="44">
+      <c r="C19" s="22">
         <v>44194</v>
       </c>
-      <c r="D19" s="36" t="s">
+      <c r="D19" s="15" t="s">
         <v>55</v>
       </c>
-      <c r="E19" s="36" t="s">
+      <c r="E19" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="F19" s="43" t="s">
+      <c r="F19" s="17" t="s">
         <v>56</v>
       </c>
-      <c r="G19" s="41" t="s">
+      <c r="G19" s="26" t="s">
         <v>57</v>
       </c>
-      <c r="H19" s="47"/>
-      <c r="I19" s="41"/>
+      <c r="H19" s="25"/>
+      <c r="I19" s="26"/>
     </row>
     <row r="20" spans="2:9" ht="256.5">
-      <c r="B20" s="36">
+      <c r="B20" s="15">
         <v>18</v>
       </c>
-      <c r="C20" s="48">
+      <c r="C20" s="27">
         <v>44194</v>
       </c>
-      <c r="D20" s="37" t="s">
+      <c r="D20" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="E20" s="37" t="s">
+      <c r="E20" s="16" t="s">
         <v>50</v>
       </c>
-      <c r="F20" s="43" t="s">
+      <c r="F20" s="17" t="s">
         <v>56</v>
       </c>
-      <c r="G20" s="49" t="s">
+      <c r="G20" s="28" t="s">
         <v>59</v>
       </c>
-      <c r="H20" s="49"/>
-      <c r="I20" s="41"/>
+      <c r="H20" s="28"/>
+      <c r="I20" s="26"/>
     </row>
     <row r="21" spans="2:9" ht="256.5">
-      <c r="B21" s="36">
+      <c r="B21" s="15">
         <v>19</v>
       </c>
-      <c r="C21" s="44">
+      <c r="C21" s="22">
         <v>44195</v>
       </c>
-      <c r="D21" s="36" t="s">
+      <c r="D21" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="E21" s="36" t="s">
+      <c r="E21" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="F21" s="43" t="s">
+      <c r="F21" s="17" t="s">
         <v>61</v>
       </c>
-      <c r="G21" s="41" t="s">
+      <c r="G21" s="26" t="s">
         <v>62</v>
       </c>
-      <c r="H21" s="47" t="s">
+      <c r="H21" s="25" t="s">
         <v>63</v>
       </c>
-      <c r="I21" s="41"/>
+      <c r="I21" s="26"/>
     </row>
     <row r="22" spans="2:9" ht="228">
-      <c r="B22" s="36">
+      <c r="B22" s="15">
         <v>20</v>
       </c>
-      <c r="C22" s="48">
+      <c r="C22" s="27">
         <v>44196</v>
       </c>
-      <c r="D22" s="37" t="s">
+      <c r="D22" s="16" t="s">
         <v>64</v>
       </c>
-      <c r="E22" s="37" t="s">
+      <c r="E22" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="F22" s="43" t="s">
+      <c r="F22" s="17" t="s">
         <v>56</v>
       </c>
-      <c r="G22" s="49" t="s">
+      <c r="G22" s="28" t="s">
         <v>65</v>
       </c>
-      <c r="H22" s="47"/>
-      <c r="I22" s="41"/>
+      <c r="H22" s="25"/>
+      <c r="I22" s="26"/>
     </row>
     <row r="23" spans="2:9" ht="213.75">
-      <c r="B23" s="36">
+      <c r="B23" s="15">
         <v>21</v>
       </c>
-      <c r="C23" s="44">
+      <c r="C23" s="22">
         <v>44196</v>
       </c>
-      <c r="D23" s="36" t="s">
+      <c r="D23" s="15" t="s">
         <v>66</v>
       </c>
-      <c r="E23" s="36" t="s">
+      <c r="E23" s="15" t="s">
         <v>55</v>
       </c>
-      <c r="F23" s="43" t="s">
+      <c r="F23" s="17" t="s">
         <v>56</v>
       </c>
-      <c r="G23" s="49" t="s">
+      <c r="G23" s="28" t="s">
         <v>67</v>
       </c>
-      <c r="H23" s="47"/>
-      <c r="I23" s="41"/>
+      <c r="H23" s="25"/>
+      <c r="I23" s="26"/>
     </row>
     <row r="24" spans="2:9" ht="313.5">
-      <c r="B24" s="36">
+      <c r="B24" s="15">
         <v>22</v>
       </c>
-      <c r="C24" s="44">
+      <c r="C24" s="22">
         <v>44199</v>
       </c>
-      <c r="D24" s="37" t="s">
+      <c r="D24" s="16" t="s">
         <v>68</v>
       </c>
-      <c r="E24" s="37" t="s">
+      <c r="E24" s="16" t="s">
         <v>64</v>
       </c>
-      <c r="F24" s="43" t="s">
+      <c r="F24" s="17" t="s">
         <v>56</v>
       </c>
-      <c r="G24" s="50" t="s">
+      <c r="G24" s="29" t="s">
         <v>69</v>
       </c>
-      <c r="H24" s="47"/>
-      <c r="I24" s="41"/>
+      <c r="H24" s="25"/>
+      <c r="I24" s="26"/>
     </row>
     <row r="25" spans="2:9" ht="285">
-      <c r="B25" s="36">
+      <c r="B25" s="15">
         <v>23</v>
       </c>
-      <c r="C25" s="44">
+      <c r="C25" s="22">
         <v>44199</v>
       </c>
-      <c r="D25" s="36" t="s">
+      <c r="D25" s="15" t="s">
         <v>70</v>
       </c>
-      <c r="E25" s="36" t="s">
+      <c r="E25" s="15" t="s">
         <v>66</v>
       </c>
-      <c r="F25" s="43" t="s">
+      <c r="F25" s="17" t="s">
         <v>56</v>
       </c>
-      <c r="G25" s="41" t="s">
+      <c r="G25" s="26" t="s">
         <v>71</v>
       </c>
-      <c r="H25" s="47"/>
-      <c r="I25" s="41"/>
+      <c r="H25" s="25"/>
+      <c r="I25" s="26"/>
     </row>
     <row r="26" spans="2:9" ht="384.75">
-      <c r="B26" s="36">
+      <c r="B26" s="15">
         <v>24</v>
       </c>
-      <c r="C26" s="44">
+      <c r="C26" s="22">
         <v>44216</v>
       </c>
-      <c r="D26" s="37" t="s">
+      <c r="D26" s="16" t="s">
         <v>72</v>
       </c>
-      <c r="E26" s="37" t="s">
+      <c r="E26" s="16" t="s">
         <v>68</v>
       </c>
-      <c r="F26" s="43" t="s">
+      <c r="F26" s="17" t="s">
         <v>73</v>
       </c>
-      <c r="G26" s="41" t="s">
+      <c r="G26" s="26" t="s">
         <v>74</v>
       </c>
-      <c r="H26" s="43" t="s">
+      <c r="H26" s="17" t="s">
         <v>75</v>
       </c>
-      <c r="I26" s="41"/>
+      <c r="I26" s="26"/>
     </row>
     <row r="27" spans="2:9" ht="228">
-      <c r="B27" s="36">
+      <c r="B27" s="15">
         <v>25</v>
       </c>
-      <c r="C27" s="44">
+      <c r="C27" s="22">
         <v>44248</v>
       </c>
-      <c r="D27" s="37" t="s">
+      <c r="D27" s="16" t="s">
         <v>76</v>
       </c>
-      <c r="E27" s="37" t="s">
+      <c r="E27" s="16" t="s">
         <v>72</v>
       </c>
-      <c r="F27" s="43" t="s">
+      <c r="F27" s="17" t="s">
         <v>77</v>
       </c>
-      <c r="G27" s="41" t="s">
+      <c r="G27" s="26" t="s">
         <v>78</v>
       </c>
-      <c r="H27" s="47"/>
-      <c r="I27" s="41"/>
+      <c r="H27" s="25"/>
+      <c r="I27" s="26"/>
     </row>
     <row r="28" spans="2:9" ht="213.75">
-      <c r="B28" s="36">
+      <c r="B28" s="15">
         <v>26</v>
       </c>
-      <c r="C28" s="44">
+      <c r="C28" s="22">
         <v>44248</v>
       </c>
-      <c r="D28" s="36" t="s">
+      <c r="D28" s="15" t="s">
         <v>79</v>
       </c>
-      <c r="E28" s="36" t="s">
+      <c r="E28" s="15" t="s">
         <v>70</v>
       </c>
-      <c r="F28" s="43" t="s">
+      <c r="F28" s="17" t="s">
         <v>77</v>
       </c>
-      <c r="G28" s="41" t="s">
+      <c r="G28" s="26" t="s">
         <v>80</v>
       </c>
-      <c r="H28" s="47"/>
-      <c r="I28" s="41"/>
+      <c r="H28" s="25"/>
+      <c r="I28" s="26"/>
     </row>
     <row r="29" spans="2:9" ht="399">
-      <c r="B29" s="36">
+      <c r="B29" s="15">
         <v>27</v>
       </c>
-      <c r="C29" s="44">
+      <c r="C29" s="22">
         <v>44254</v>
       </c>
-      <c r="D29" s="36" t="s">
+      <c r="D29" s="15" t="s">
         <v>81</v>
       </c>
-      <c r="E29" s="36" t="s">
+      <c r="E29" s="15" t="s">
         <v>76</v>
       </c>
-      <c r="F29" s="43" t="s">
+      <c r="F29" s="17" t="s">
         <v>82</v>
       </c>
-      <c r="G29" s="50" t="s">
+      <c r="G29" s="29" t="s">
         <v>83</v>
       </c>
-      <c r="H29" s="43" t="s">
+      <c r="H29" s="17" t="s">
         <v>84</v>
       </c>
-      <c r="I29" s="41"/>
+      <c r="I29" s="26"/>
     </row>
     <row r="30" spans="2:9" ht="399">
-      <c r="B30" s="36">
+      <c r="B30" s="15">
         <v>28</v>
       </c>
-      <c r="C30" s="44">
+      <c r="C30" s="22">
         <v>44257</v>
       </c>
-      <c r="D30" s="36" t="s">
+      <c r="D30" s="15" t="s">
         <v>85</v>
       </c>
-      <c r="E30" s="36" t="s">
+      <c r="E30" s="15" t="s">
         <v>79</v>
       </c>
-      <c r="F30" s="43" t="s">
+      <c r="F30" s="17" t="s">
         <v>86</v>
       </c>
-      <c r="G30" s="50" t="s">
+      <c r="G30" s="29" t="s">
         <v>87</v>
       </c>
-      <c r="H30" s="47" t="s">
+      <c r="H30" s="25" t="s">
         <v>88</v>
       </c>
-      <c r="I30" s="41"/>
+      <c r="I30" s="26"/>
     </row>
     <row r="31" spans="2:9" ht="270.75">
-      <c r="B31" s="36">
+      <c r="B31" s="15">
         <v>29</v>
       </c>
-      <c r="C31" s="44">
+      <c r="C31" s="22">
         <v>44258</v>
       </c>
-      <c r="D31" s="36" t="s">
+      <c r="D31" s="15" t="s">
         <v>89</v>
       </c>
-      <c r="E31" s="36" t="s">
+      <c r="E31" s="15" t="s">
         <v>81</v>
       </c>
-      <c r="F31" s="43" t="s">
+      <c r="F31" s="17" t="s">
         <v>90</v>
       </c>
-      <c r="G31" s="50" t="s">
+      <c r="G31" s="29" t="s">
         <v>91</v>
       </c>
-      <c r="H31" s="47"/>
-      <c r="I31" s="41"/>
+      <c r="H31" s="25"/>
+      <c r="I31" s="26"/>
     </row>
     <row r="32" spans="2:9" ht="270.75">
-      <c r="B32" s="36">
+      <c r="B32" s="15">
         <v>30</v>
       </c>
-      <c r="C32" s="44">
+      <c r="C32" s="22">
         <v>44258</v>
       </c>
-      <c r="D32" s="36" t="s">
+      <c r="D32" s="15" t="s">
         <v>92</v>
       </c>
-      <c r="E32" s="36" t="s">
+      <c r="E32" s="15" t="s">
         <v>81</v>
       </c>
-      <c r="F32" s="43" t="s">
+      <c r="F32" s="17" t="s">
         <v>93</v>
       </c>
-      <c r="G32" s="41" t="s">
+      <c r="G32" s="26" t="s">
         <v>94</v>
       </c>
-      <c r="H32" s="43" t="s">
+      <c r="H32" s="17" t="s">
         <v>95</v>
       </c>
-      <c r="I32" s="41"/>
+      <c r="I32" s="26"/>
     </row>
     <row r="33" spans="2:9" ht="270.75">
-      <c r="B33" s="36">
+      <c r="B33" s="15">
         <v>31</v>
       </c>
-      <c r="C33" s="44">
+      <c r="C33" s="22">
         <v>44258</v>
       </c>
-      <c r="D33" s="36" t="s">
+      <c r="D33" s="15" t="s">
         <v>96</v>
       </c>
-      <c r="E33" s="36" t="s">
+      <c r="E33" s="15" t="s">
         <v>85</v>
       </c>
-      <c r="F33" s="43" t="s">
+      <c r="F33" s="17" t="s">
         <v>97</v>
       </c>
-      <c r="G33" s="41" t="s">
+      <c r="G33" s="26" t="s">
         <v>98</v>
       </c>
-      <c r="H33" s="43" t="s">
+      <c r="H33" s="17" t="s">
         <v>95</v>
       </c>
-      <c r="I33" s="41"/>
+      <c r="I33" s="26"/>
     </row>
     <row r="34" spans="2:9" ht="299.25">
-      <c r="B34" s="36">
+      <c r="B34" s="15">
         <v>32</v>
       </c>
-      <c r="C34" s="44">
+      <c r="C34" s="22">
         <v>44259</v>
       </c>
-      <c r="D34" s="36" t="s">
+      <c r="D34" s="15" t="s">
         <v>99</v>
       </c>
-      <c r="E34" s="36" t="s">
+      <c r="E34" s="15" t="s">
         <v>92</v>
       </c>
-      <c r="F34" s="43" t="s">
+      <c r="F34" s="17" t="s">
         <v>100</v>
       </c>
-      <c r="G34" s="41" t="s">
+      <c r="G34" s="26" t="s">
         <v>101</v>
       </c>
-      <c r="H34" s="43" t="s">
+      <c r="H34" s="17" t="s">
         <v>102</v>
       </c>
-      <c r="I34" s="41"/>
+      <c r="I34" s="26"/>
     </row>
     <row r="35" spans="2:9" ht="270.75">
-      <c r="B35" s="36">
+      <c r="B35" s="15">
         <v>33</v>
       </c>
-      <c r="C35" s="44">
+      <c r="C35" s="22">
         <v>44264</v>
       </c>
-      <c r="D35" s="36" t="s">
+      <c r="D35" s="15" t="s">
         <v>103</v>
       </c>
-      <c r="E35" s="36" t="s">
+      <c r="E35" s="15" t="s">
         <v>99</v>
       </c>
-      <c r="F35" s="43" t="s">
+      <c r="F35" s="17" t="s">
         <v>104</v>
       </c>
-      <c r="G35" s="41" t="s">
+      <c r="G35" s="26" t="s">
         <v>105</v>
       </c>
-      <c r="H35" s="43" t="s">
+      <c r="H35" s="17" t="s">
         <v>95</v>
       </c>
-      <c r="I35" s="41"/>
+      <c r="I35" s="26"/>
     </row>
     <row r="36" spans="2:9" ht="285">
-      <c r="B36" s="36">
+      <c r="B36" s="15">
         <v>34</v>
       </c>
-      <c r="C36" s="44">
+      <c r="C36" s="22">
         <v>44264</v>
       </c>
-      <c r="D36" s="43" t="s">
+      <c r="D36" s="17" t="s">
         <v>106</v>
       </c>
-      <c r="E36" s="43" t="s">
+      <c r="E36" s="17" t="s">
         <v>96</v>
       </c>
-      <c r="F36" s="43" t="s">
+      <c r="F36" s="17" t="s">
         <v>107</v>
       </c>
-      <c r="G36" s="43" t="s">
+      <c r="G36" s="17" t="s">
         <v>108</v>
       </c>
-      <c r="H36" s="43" t="s">
+      <c r="H36" s="17" t="s">
         <v>102</v>
       </c>
-      <c r="I36" s="41"/>
+      <c r="I36" s="26"/>
     </row>
     <row r="37" spans="2:9" ht="384.75">
-      <c r="B37" s="36">
+      <c r="B37" s="15">
         <v>35</v>
       </c>
-      <c r="C37" s="44">
+      <c r="C37" s="22">
         <v>44267</v>
       </c>
-      <c r="D37" s="36" t="s">
+      <c r="D37" s="15" t="s">
         <v>109</v>
       </c>
-      <c r="E37" s="36" t="s">
+      <c r="E37" s="15" t="s">
         <v>103</v>
       </c>
-      <c r="F37" s="43" t="s">
+      <c r="F37" s="17" t="s">
         <v>110</v>
       </c>
-      <c r="G37" s="41" t="s">
+      <c r="G37" s="26" t="s">
         <v>111</v>
       </c>
-      <c r="H37" s="43" t="s">
+      <c r="H37" s="17" t="s">
         <v>95</v>
       </c>
-      <c r="I37" s="43" t="s">
+      <c r="I37" s="17" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="38" spans="2:9" ht="356.25">
-      <c r="B38" s="36">
+      <c r="B38" s="15">
         <v>36</v>
       </c>
-      <c r="C38" s="44">
+      <c r="C38" s="22">
         <v>44267</v>
       </c>
-      <c r="D38" s="36" t="s">
+      <c r="D38" s="15" t="s">
         <v>113</v>
       </c>
-      <c r="E38" s="36" t="s">
+      <c r="E38" s="15" t="s">
         <v>106</v>
       </c>
-      <c r="F38" s="43" t="s">
+      <c r="F38" s="17" t="s">
         <v>110</v>
       </c>
-      <c r="G38" s="50" t="s">
+      <c r="G38" s="29" t="s">
         <v>114</v>
       </c>
-      <c r="H38" s="43" t="s">
+      <c r="H38" s="17" t="s">
         <v>95</v>
       </c>
-      <c r="I38" s="43" t="s">
+      <c r="I38" s="17" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="39" spans="2:9" ht="228">
-      <c r="B39" s="36">
+      <c r="B39" s="15">
         <v>37</v>
       </c>
-      <c r="C39" s="44">
+      <c r="C39" s="22">
         <v>44274</v>
       </c>
-      <c r="D39" s="36" t="s">
+      <c r="D39" s="15" t="s">
         <v>116</v>
       </c>
-      <c r="E39" s="36" t="s">
+      <c r="E39" s="15" t="s">
         <v>109</v>
       </c>
-      <c r="F39" s="43" t="s">
+      <c r="F39" s="17" t="s">
         <v>97</v>
       </c>
-      <c r="G39" s="41" t="s">
+      <c r="G39" s="26" t="s">
         <v>117</v>
       </c>
-      <c r="H39" s="43" t="s">
+      <c r="H39" s="17" t="s">
         <v>95</v>
       </c>
-      <c r="I39" s="43" t="s">
+      <c r="I39" s="17" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="40" spans="2:9" ht="256.5">
-      <c r="B40" s="36">
+      <c r="B40" s="15">
         <v>38</v>
       </c>
-      <c r="C40" s="44">
+      <c r="C40" s="22">
         <v>44274</v>
       </c>
-      <c r="D40" s="36" t="s">
+      <c r="D40" s="15" t="s">
         <v>119</v>
       </c>
-      <c r="E40" s="36" t="s">
+      <c r="E40" s="15" t="s">
         <v>113</v>
       </c>
-      <c r="F40" s="43" t="s">
+      <c r="F40" s="17" t="s">
         <v>97</v>
       </c>
-      <c r="G40" s="41" t="s">
+      <c r="G40" s="26" t="s">
         <v>120</v>
       </c>
-      <c r="H40" s="43" t="s">
+      <c r="H40" s="17" t="s">
         <v>95</v>
       </c>
-      <c r="I40" s="43" t="s">
+      <c r="I40" s="17" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="41" spans="2:9" ht="277.5" customHeight="1">
-      <c r="B41" s="36">
+      <c r="B41" s="15">
         <v>39</v>
       </c>
-      <c r="C41" s="44">
+      <c r="C41" s="22">
         <v>44285</v>
       </c>
-      <c r="D41" s="36" t="s">
+      <c r="D41" s="15" t="s">
         <v>121</v>
       </c>
-      <c r="E41" s="36" t="s">
+      <c r="E41" s="15" t="s">
         <v>116</v>
       </c>
-      <c r="F41" s="43" t="s">
+      <c r="F41" s="17" t="s">
         <v>122</v>
       </c>
-      <c r="G41" s="50" t="s">
+      <c r="G41" s="29" t="s">
         <v>123</v>
       </c>
-      <c r="H41" s="43" t="s">
+      <c r="H41" s="17" t="s">
         <v>95</v>
       </c>
-      <c r="I41" s="43" t="s">
+      <c r="I41" s="17" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="42" spans="2:9" ht="228">
-      <c r="B42" s="36">
+      <c r="B42" s="15">
         <v>40</v>
       </c>
-      <c r="C42" s="44">
+      <c r="C42" s="22">
         <v>44289</v>
       </c>
-      <c r="D42" s="36" t="s">
+      <c r="D42" s="15" t="s">
         <v>125</v>
       </c>
-      <c r="E42" s="36" t="s">
+      <c r="E42" s="15" t="s">
         <v>121</v>
       </c>
-      <c r="F42" s="43" t="s">
+      <c r="F42" s="17" t="s">
         <v>126</v>
       </c>
-      <c r="G42" s="50" t="s">
+      <c r="G42" s="29" t="s">
         <v>127</v>
       </c>
-      <c r="H42" s="43" t="s">
+      <c r="H42" s="17" t="s">
         <v>95</v>
       </c>
-      <c r="I42" s="41"/>
+      <c r="I42" s="26"/>
     </row>
     <row r="43" spans="2:9" ht="327.75">
-      <c r="B43" s="36">
+      <c r="B43" s="15">
         <v>41</v>
       </c>
-      <c r="C43" s="44">
+      <c r="C43" s="22">
         <v>44291</v>
       </c>
-      <c r="D43" s="36" t="s">
+      <c r="D43" s="15" t="s">
         <v>128</v>
       </c>
-      <c r="E43" s="36" t="s">
+      <c r="E43" s="15" t="s">
         <v>119</v>
       </c>
-      <c r="F43" s="43" t="s">
+      <c r="F43" s="17" t="s">
         <v>129</v>
       </c>
-      <c r="G43" s="50" t="s">
+      <c r="G43" s="29" t="s">
         <v>130</v>
       </c>
-      <c r="H43" s="43" t="s">
+      <c r="H43" s="17" t="s">
         <v>95</v>
       </c>
-      <c r="I43" s="43" t="s">
+      <c r="I43" s="17" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="44" spans="2:9" ht="199.5">
-      <c r="B44" s="36">
+      <c r="B44" s="15">
         <v>42</v>
       </c>
-      <c r="C44" s="44">
+      <c r="C44" s="22">
         <v>44294</v>
       </c>
-      <c r="D44" s="36" t="s">
+      <c r="D44" s="15" t="s">
         <v>132</v>
       </c>
-      <c r="E44" s="36" t="s">
+      <c r="E44" s="15" t="s">
         <v>125</v>
       </c>
-      <c r="F44" s="43" t="s">
+      <c r="F44" s="17" t="s">
         <v>133</v>
       </c>
-      <c r="G44" s="50" t="s">
+      <c r="G44" s="29" t="s">
         <v>134</v>
       </c>
-      <c r="H44" s="43" t="s">
+      <c r="H44" s="17" t="s">
         <v>95</v>
       </c>
-      <c r="I44" s="41"/>
+      <c r="I44" s="26"/>
     </row>
     <row r="45" spans="2:9" ht="213.75">
-      <c r="B45" s="36">
+      <c r="B45" s="15">
         <v>43</v>
       </c>
-      <c r="C45" s="44">
+      <c r="C45" s="22">
         <v>44299</v>
       </c>
-      <c r="D45" s="36" t="s">
+      <c r="D45" s="15" t="s">
         <v>135</v>
       </c>
-      <c r="E45" s="36" t="s">
+      <c r="E45" s="15" t="s">
         <v>132</v>
       </c>
-      <c r="F45" s="43" t="s">
+      <c r="F45" s="17" t="s">
         <v>136</v>
       </c>
-      <c r="G45" s="41" t="s">
+      <c r="G45" s="26" t="s">
         <v>137</v>
       </c>
-      <c r="H45" s="43" t="s">
+      <c r="H45" s="17" t="s">
         <v>95</v>
       </c>
-      <c r="I45" s="41"/>
+      <c r="I45" s="26"/>
     </row>
     <row r="46" spans="2:9" ht="242.25">
-      <c r="B46" s="36">
+      <c r="B46" s="15">
         <v>44</v>
       </c>
-      <c r="C46" s="44">
+      <c r="C46" s="22">
         <v>44334</v>
       </c>
-      <c r="D46" s="36" t="s">
+      <c r="D46" s="15" t="s">
         <v>138</v>
       </c>
-      <c r="E46" s="36" t="s">
+      <c r="E46" s="15" t="s">
         <v>125</v>
       </c>
-      <c r="F46" s="50" t="s">
+      <c r="F46" s="29" t="s">
         <v>136</v>
       </c>
-      <c r="G46" s="50" t="s">
+      <c r="G46" s="29" t="s">
         <v>139</v>
       </c>
-      <c r="H46" s="43" t="s">
+      <c r="H46" s="17" t="s">
         <v>95</v>
       </c>
-      <c r="I46" s="40" t="s">
+      <c r="I46" s="19" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="47" spans="2:9" ht="228">
-      <c r="B47" s="36">
+      <c r="B47" s="15">
         <v>45</v>
       </c>
-      <c r="C47" s="44">
+      <c r="C47" s="22">
         <v>44341</v>
       </c>
-      <c r="D47" s="36" t="s">
+      <c r="D47" s="15" t="s">
         <v>141</v>
       </c>
-      <c r="E47" s="36" t="s">
+      <c r="E47" s="15" t="s">
         <v>135</v>
       </c>
-      <c r="F47" s="43" t="s">
+      <c r="F47" s="17" t="s">
         <v>142</v>
       </c>
-      <c r="G47" s="41" t="s">
+      <c r="G47" s="26" t="s">
         <v>143</v>
       </c>
-      <c r="H47" s="43" t="s">
+      <c r="H47" s="17" t="s">
         <v>95</v>
       </c>
-      <c r="I47" s="41"/>
+      <c r="I47" s="26"/>
     </row>
     <row r="48" spans="2:9" ht="256.5">
-      <c r="B48" s="36">
+      <c r="B48" s="15">
         <v>46</v>
       </c>
-      <c r="C48" s="44">
+      <c r="C48" s="22">
         <v>44351</v>
       </c>
-      <c r="D48" s="36" t="s">
+      <c r="D48" s="15" t="s">
         <v>144</v>
       </c>
-      <c r="E48" s="36" t="s">
+      <c r="E48" s="15" t="s">
         <v>141</v>
       </c>
-      <c r="F48" s="43" t="s">
+      <c r="F48" s="17" t="s">
         <v>145</v>
       </c>
-      <c r="G48" s="43" t="s">
+      <c r="G48" s="17" t="s">
         <v>146</v>
       </c>
-      <c r="H48" s="43" t="s">
+      <c r="H48" s="17" t="s">
         <v>147</v>
       </c>
-      <c r="I48" s="41"/>
+      <c r="I48" s="26"/>
     </row>
     <row r="49" spans="2:9" ht="228">
-      <c r="B49" s="36">
+      <c r="B49" s="15">
         <v>47</v>
       </c>
-      <c r="C49" s="44">
+      <c r="C49" s="22">
         <v>44357</v>
       </c>
-      <c r="D49" s="36" t="s">
+      <c r="D49" s="15" t="s">
         <v>148</v>
       </c>
-      <c r="E49" s="36" t="s">
+      <c r="E49" s="15" t="s">
         <v>138</v>
       </c>
-      <c r="F49" s="43" t="s">
+      <c r="F49" s="17" t="s">
         <v>149</v>
       </c>
-      <c r="G49" s="43" t="s">
+      <c r="G49" s="17" t="s">
         <v>150</v>
       </c>
-      <c r="H49" s="43" t="s">
+      <c r="H49" s="17" t="s">
         <v>151</v>
       </c>
-      <c r="I49" s="43" t="s">
+      <c r="I49" s="17" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="50" spans="2:9" ht="242.25">
-      <c r="B50" s="36">
+      <c r="B50" s="15">
         <v>48</v>
       </c>
-      <c r="C50" s="44">
+      <c r="C50" s="22">
         <v>44357</v>
       </c>
-      <c r="D50" s="36" t="s">
+      <c r="D50" s="15" t="s">
         <v>153</v>
       </c>
-      <c r="E50" s="36" t="s">
+      <c r="E50" s="15" t="s">
         <v>148</v>
       </c>
-      <c r="F50" s="43" t="s">
+      <c r="F50" s="17" t="s">
         <v>154</v>
       </c>
-      <c r="G50" s="43" t="s">
+      <c r="G50" s="17" t="s">
         <v>155</v>
       </c>
-      <c r="H50" s="43" t="s">
+      <c r="H50" s="17" t="s">
         <v>156</v>
       </c>
-      <c r="I50" s="43" t="s">
+      <c r="I50" s="17" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="51" spans="2:9" ht="199.5">
-      <c r="B51" s="36">
+      <c r="B51" s="15">
         <v>49</v>
       </c>
-      <c r="C51" s="44">
+      <c r="C51" s="22">
         <v>44357</v>
       </c>
-      <c r="D51" s="36" t="s">
+      <c r="D51" s="15" t="s">
         <v>158</v>
       </c>
-      <c r="E51" s="36" t="s">
+      <c r="E51" s="15" t="s">
         <v>144</v>
       </c>
-      <c r="F51" s="43" t="s">
+      <c r="F51" s="17" t="s">
         <v>154</v>
       </c>
-      <c r="G51" s="43" t="s">
+      <c r="G51" s="17" t="s">
         <v>159</v>
       </c>
-      <c r="H51" s="43" t="s">
+      <c r="H51" s="17" t="s">
         <v>160</v>
       </c>
-      <c r="I51" s="41"/>
+      <c r="I51" s="26"/>
     </row>
     <row r="52" spans="2:9" ht="213.75">
-      <c r="B52" s="36">
+      <c r="B52" s="15">
         <v>50</v>
       </c>
-      <c r="C52" s="44">
+      <c r="C52" s="22">
         <v>44361</v>
       </c>
-      <c r="D52" s="36" t="s">
+      <c r="D52" s="15" t="s">
         <v>161</v>
       </c>
-      <c r="E52" s="36" t="s">
+      <c r="E52" s="15" t="s">
         <v>158</v>
       </c>
-      <c r="F52" s="43" t="s">
+      <c r="F52" s="17" t="s">
         <v>162</v>
       </c>
-      <c r="G52" s="43" t="s">
+      <c r="G52" s="17" t="s">
         <v>163</v>
       </c>
-      <c r="H52" s="43" t="s">
+      <c r="H52" s="17" t="s">
         <v>151</v>
       </c>
-      <c r="I52" s="43" t="s">
+      <c r="I52" s="17" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="53" spans="2:9" ht="285">
-      <c r="B53" s="36">
+      <c r="B53" s="15">
         <v>51</v>
       </c>
-      <c r="C53" s="44">
+      <c r="C53" s="22">
         <v>44368</v>
       </c>
-      <c r="D53" s="36" t="s">
+      <c r="D53" s="15" t="s">
         <v>164</v>
       </c>
-      <c r="E53" s="36" t="s">
+      <c r="E53" s="15" t="s">
         <v>153</v>
       </c>
-      <c r="F53" s="43" t="s">
+      <c r="F53" s="17" t="s">
         <v>165</v>
       </c>
-      <c r="G53" s="43" t="s">
+      <c r="G53" s="17" t="s">
         <v>166</v>
       </c>
-      <c r="H53" s="43" t="s">
+      <c r="H53" s="17" t="s">
         <v>160</v>
       </c>
-      <c r="I53" s="43" t="s">
+      <c r="I53" s="17" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="54" spans="2:9" ht="313.5">
-      <c r="B54" s="36">
+      <c r="B54" s="15">
         <v>52</v>
       </c>
-      <c r="C54" s="44">
+      <c r="C54" s="22">
         <v>44386</v>
       </c>
-      <c r="D54" s="36" t="s">
+      <c r="D54" s="15" t="s">
         <v>168</v>
       </c>
-      <c r="E54" s="36" t="s">
+      <c r="E54" s="15" t="s">
         <v>161</v>
       </c>
-      <c r="F54" s="43" t="s">
+      <c r="F54" s="17" t="s">
         <v>169</v>
       </c>
-      <c r="G54" s="43" t="s">
+      <c r="G54" s="17" t="s">
         <v>170</v>
       </c>
-      <c r="H54" s="43" t="s">
+      <c r="H54" s="17" t="s">
         <v>171</v>
       </c>
-      <c r="I54" s="43" t="s">
+      <c r="I54" s="17" t="s">
         <v>172</v>
       </c>
     </row>
     <row r="55" spans="2:9" ht="228">
-      <c r="B55" s="36">
+      <c r="B55" s="15">
         <v>53</v>
       </c>
-      <c r="C55" s="44">
+      <c r="C55" s="22">
         <v>44388</v>
       </c>
-      <c r="D55" s="36" t="s">
+      <c r="D55" s="15" t="s">
         <v>173</v>
       </c>
-      <c r="E55" s="36" t="s">
+      <c r="E55" s="15" t="s">
         <v>164</v>
       </c>
-      <c r="F55" s="43" t="s">
+      <c r="F55" s="17" t="s">
         <v>174</v>
       </c>
-      <c r="G55" s="43" t="s">
+      <c r="G55" s="17" t="s">
         <v>175</v>
       </c>
-      <c r="H55" s="43" t="s">
+      <c r="H55" s="17" t="s">
         <v>160</v>
       </c>
-      <c r="I55" s="43" t="s">
+      <c r="I55" s="17" t="s">
         <v>176</v>
       </c>
     </row>
     <row r="56" spans="2:9" ht="185.25">
-      <c r="B56" s="36">
+      <c r="B56" s="15">
         <v>54</v>
       </c>
-      <c r="C56" s="44">
+      <c r="C56" s="22">
         <v>44398</v>
       </c>
-      <c r="D56" s="36" t="s">
+      <c r="D56" s="15" t="s">
         <v>177</v>
       </c>
-      <c r="E56" s="36" t="s">
+      <c r="E56" s="15" t="s">
         <v>168</v>
       </c>
-      <c r="F56" s="43" t="s">
+      <c r="F56" s="17" t="s">
         <v>178</v>
       </c>
-      <c r="G56" s="43" t="s">
+      <c r="G56" s="17" t="s">
         <v>179</v>
       </c>
-      <c r="H56" s="43" t="s">
+      <c r="H56" s="17" t="s">
         <v>160</v>
       </c>
-      <c r="I56" s="41"/>
+      <c r="I56" s="26"/>
     </row>
     <row r="57" spans="2:9" ht="213.75">
-      <c r="B57" s="36">
+      <c r="B57" s="15">
         <v>55</v>
       </c>
-      <c r="C57" s="44">
+      <c r="C57" s="22">
         <v>44410</v>
       </c>
-      <c r="D57" s="36" t="s">
+      <c r="D57" s="15" t="s">
         <v>180</v>
       </c>
-      <c r="E57" s="36" t="s">
+      <c r="E57" s="15" t="s">
         <v>177</v>
       </c>
-      <c r="F57" s="43" t="s">
+      <c r="F57" s="17" t="s">
         <v>181</v>
       </c>
-      <c r="G57" s="43" t="s">
+      <c r="G57" s="17" t="s">
         <v>182</v>
       </c>
-      <c r="H57" s="43" t="s">
+      <c r="H57" s="17" t="s">
         <v>160</v>
       </c>
-      <c r="I57" s="41"/>
+      <c r="I57" s="26"/>
     </row>
     <row r="58" spans="2:9" ht="285">
-      <c r="B58" s="36">
+      <c r="B58" s="15">
         <v>56</v>
       </c>
-      <c r="C58" s="44">
+      <c r="C58" s="22">
         <v>44412</v>
       </c>
-      <c r="D58" s="36" t="s">
+      <c r="D58" s="15" t="s">
         <v>183</v>
       </c>
-      <c r="E58" s="36" t="s">
+      <c r="E58" s="15" t="s">
         <v>180</v>
       </c>
-      <c r="F58" s="43" t="s">
+      <c r="F58" s="17" t="s">
         <v>184</v>
       </c>
-      <c r="G58" s="43" t="s">
+      <c r="G58" s="17" t="s">
         <v>185</v>
       </c>
-      <c r="H58" s="43" t="s">
+      <c r="H58" s="17" t="s">
         <v>160</v>
       </c>
-      <c r="I58" s="41"/>
+      <c r="I58" s="26"/>
     </row>
     <row r="59" spans="2:9" ht="213.75">
-      <c r="B59" s="36">
+      <c r="B59" s="15">
         <v>57</v>
       </c>
-      <c r="C59" s="44">
+      <c r="C59" s="22">
         <v>44417</v>
       </c>
-      <c r="D59" s="36" t="s">
+      <c r="D59" s="15" t="s">
         <v>186</v>
       </c>
-      <c r="E59" s="36" t="s">
+      <c r="E59" s="15" t="s">
         <v>177</v>
       </c>
-      <c r="F59" s="43" t="s">
+      <c r="F59" s="17" t="s">
         <v>174</v>
       </c>
-      <c r="G59" s="43" t="s">
+      <c r="G59" s="17" t="s">
         <v>187</v>
       </c>
-      <c r="H59" s="43" t="s">
+      <c r="H59" s="17" t="s">
         <v>160</v>
       </c>
-      <c r="I59" s="41"/>
+      <c r="I59" s="26"/>
     </row>
     <row r="60" spans="2:9" ht="213.75">
-      <c r="B60" s="36">
+      <c r="B60" s="15">
         <v>58</v>
       </c>
-      <c r="C60" s="44">
+      <c r="C60" s="22">
         <v>44418</v>
       </c>
-      <c r="D60" s="36" t="s">
+      <c r="D60" s="15" t="s">
         <v>188</v>
       </c>
-      <c r="E60" s="36" t="s">
+      <c r="E60" s="15" t="s">
         <v>183</v>
       </c>
-      <c r="F60" s="43" t="s">
+      <c r="F60" s="17" t="s">
         <v>189</v>
       </c>
-      <c r="G60" s="43" t="s">
+      <c r="G60" s="17" t="s">
         <v>190</v>
       </c>
-      <c r="H60" s="43" t="s">
+      <c r="H60" s="17" t="s">
         <v>160</v>
       </c>
-      <c r="I60" s="41"/>
+      <c r="I60" s="26"/>
     </row>
     <row r="61" spans="2:9" ht="199.5">
-      <c r="B61" s="36">
+      <c r="B61" s="15">
         <v>59</v>
       </c>
-      <c r="C61" s="44">
+      <c r="C61" s="22">
         <v>44418</v>
       </c>
-      <c r="D61" s="36" t="s">
+      <c r="D61" s="15" t="s">
         <v>191</v>
       </c>
-      <c r="E61" s="36" t="s">
+      <c r="E61" s="15" t="s">
         <v>188</v>
       </c>
-      <c r="F61" s="43" t="s">
+      <c r="F61" s="17" t="s">
         <v>192</v>
       </c>
-      <c r="G61" s="43" t="s">
+      <c r="G61" s="17" t="s">
         <v>193</v>
       </c>
-      <c r="H61" s="43" t="s">
+      <c r="H61" s="17" t="s">
         <v>160</v>
       </c>
-      <c r="I61" s="41"/>
+      <c r="I61" s="26"/>
     </row>
     <row r="62" spans="2:9" ht="228">
-      <c r="B62" s="36">
+      <c r="B62" s="15">
         <v>60</v>
       </c>
-      <c r="C62" s="44">
+      <c r="C62" s="22">
         <v>44419</v>
       </c>
-      <c r="D62" s="36" t="s">
+      <c r="D62" s="15" t="s">
         <v>194</v>
       </c>
-      <c r="E62" s="36" t="s">
+      <c r="E62" s="15" t="s">
         <v>191</v>
       </c>
-      <c r="F62" s="43" t="s">
+      <c r="F62" s="17" t="s">
         <v>195</v>
       </c>
-      <c r="G62" s="43" t="s">
+      <c r="G62" s="17" t="s">
         <v>196</v>
       </c>
-      <c r="H62" s="43" t="s">
+      <c r="H62" s="17" t="s">
         <v>197</v>
       </c>
-      <c r="I62" s="41"/>
+      <c r="I62" s="26"/>
     </row>
     <row r="63" spans="2:9" ht="213.75">
-      <c r="B63" s="36">
+      <c r="B63" s="15">
         <v>61</v>
       </c>
-      <c r="C63" s="44">
+      <c r="C63" s="22">
         <v>44420</v>
       </c>
-      <c r="D63" s="36" t="s">
+      <c r="D63" s="15" t="s">
         <v>198</v>
       </c>
-      <c r="E63" s="36" t="s">
+      <c r="E63" s="15" t="s">
         <v>194</v>
       </c>
-      <c r="F63" s="43" t="s">
+      <c r="F63" s="17" t="s">
         <v>199</v>
       </c>
-      <c r="G63" s="43" t="s">
+      <c r="G63" s="17" t="s">
         <v>200</v>
       </c>
-      <c r="H63" s="43" t="s">
+      <c r="H63" s="17" t="s">
         <v>160</v>
       </c>
-      <c r="I63" s="41"/>
+      <c r="I63" s="26"/>
     </row>
     <row r="64" spans="2:9" ht="228">
-      <c r="B64" s="36">
+      <c r="B64" s="15">
         <v>62</v>
       </c>
-      <c r="C64" s="44">
+      <c r="C64" s="22">
         <v>44420</v>
       </c>
-      <c r="D64" s="36" t="s">
+      <c r="D64" s="15" t="s">
         <v>201</v>
       </c>
-      <c r="E64" s="36" t="s">
+      <c r="E64" s="15" t="s">
         <v>198</v>
       </c>
-      <c r="F64" s="43" t="s">
+      <c r="F64" s="17" t="s">
         <v>202</v>
       </c>
-      <c r="G64" s="43" t="s">
+      <c r="G64" s="17" t="s">
         <v>203</v>
       </c>
-      <c r="H64" s="43" t="s">
+      <c r="H64" s="17" t="s">
         <v>160</v>
       </c>
-      <c r="I64" s="41"/>
+      <c r="I64" s="26"/>
     </row>
     <row r="65" spans="2:9" ht="256.5">
-      <c r="B65" s="36">
+      <c r="B65" s="15">
         <v>63</v>
       </c>
-      <c r="C65" s="44">
+      <c r="C65" s="22">
         <v>44463</v>
       </c>
-      <c r="D65" s="36" t="s">
+      <c r="D65" s="15" t="s">
         <v>204</v>
       </c>
-      <c r="E65" s="36" t="s">
+      <c r="E65" s="15" t="s">
         <v>201</v>
       </c>
-      <c r="F65" s="43" t="s">
+      <c r="F65" s="17" t="s">
         <v>205</v>
       </c>
-      <c r="G65" s="43" t="s">
+      <c r="G65" s="17" t="s">
         <v>206</v>
       </c>
-      <c r="H65" s="43" t="s">
+      <c r="H65" s="17" t="s">
         <v>160</v>
       </c>
-      <c r="I65" s="43" t="s">
+      <c r="I65" s="17" t="s">
         <v>207</v>
       </c>
     </row>
     <row r="66" spans="2:9" ht="299.25">
-      <c r="B66" s="36">
+      <c r="B66" s="15">
         <v>64</v>
       </c>
-      <c r="C66" s="44">
+      <c r="C66" s="22">
         <v>44469</v>
       </c>
-      <c r="D66" s="36" t="s">
+      <c r="D66" s="15" t="s">
         <v>208</v>
       </c>
-      <c r="E66" s="36" t="s">
+      <c r="E66" s="15" t="s">
         <v>204</v>
       </c>
-      <c r="F66" s="43" t="s">
+      <c r="F66" s="17" t="s">
         <v>209</v>
       </c>
-      <c r="G66" s="43" t="s">
+      <c r="G66" s="17" t="s">
         <v>210</v>
       </c>
-      <c r="H66" s="43" t="s">
+      <c r="H66" s="17" t="s">
         <v>211</v>
       </c>
-      <c r="I66" s="41"/>
+      <c r="I66" s="26"/>
     </row>
     <row r="67" spans="2:9" ht="356.25">
-      <c r="B67" s="36">
+      <c r="B67" s="15">
         <v>65</v>
       </c>
-      <c r="C67" s="44">
+      <c r="C67" s="22">
         <v>44470</v>
       </c>
-      <c r="D67" s="36" t="s">
+      <c r="D67" s="15" t="s">
         <v>212</v>
       </c>
-      <c r="E67" s="36" t="s">
+      <c r="E67" s="15" t="s">
         <v>204</v>
       </c>
-      <c r="F67" s="43" t="s">
+      <c r="F67" s="17" t="s">
         <v>213</v>
       </c>
-      <c r="G67" s="43" t="s">
+      <c r="G67" s="17" t="s">
+        <v>214</v>
+      </c>
+      <c r="H67" s="17" t="s">
+        <v>211</v>
+      </c>
+      <c r="I67" s="26"/>
+    </row>
+    <row r="68" spans="2:9" ht="270.75">
+      <c r="B68" s="15">
+        <v>66</v>
+      </c>
+      <c r="C68" s="22">
+        <v>44476</v>
+      </c>
+      <c r="D68" s="15" t="s">
+        <v>215</v>
+      </c>
+      <c r="E68" s="15" t="s">
+        <v>204</v>
+      </c>
+      <c r="F68" s="17" t="s">
+        <v>216</v>
+      </c>
+      <c r="G68" s="26" t="s">
+        <v>217</v>
+      </c>
+      <c r="H68" s="17" t="s">
+        <v>218</v>
+      </c>
+      <c r="I68" s="26"/>
+    </row>
+    <row r="69" spans="2:9" ht="256.5">
+      <c r="B69" s="15">
+        <v>67</v>
+      </c>
+      <c r="C69" s="22">
+        <v>44525</v>
+      </c>
+      <c r="D69" s="15" t="s">
+        <v>219</v>
+      </c>
+      <c r="E69" s="15" t="s">
+        <v>212</v>
+      </c>
+      <c r="F69" s="17" t="s">
+        <v>220</v>
+      </c>
+      <c r="G69" s="26" t="s">
+        <v>221</v>
+      </c>
+      <c r="H69" s="17" t="s">
+        <v>218</v>
+      </c>
+      <c r="I69" s="26"/>
+    </row>
+    <row r="70" spans="2:9" ht="270.75">
+      <c r="B70" s="15">
+        <v>68</v>
+      </c>
+      <c r="C70" s="22">
+        <v>44529</v>
+      </c>
+      <c r="D70" s="15" t="s">
+        <v>222</v>
+      </c>
+      <c r="E70" s="15" t="s">
+        <v>215</v>
+      </c>
+      <c r="F70" s="17" t="s">
+        <v>223</v>
+      </c>
+      <c r="G70" s="26" t="s">
+        <v>224</v>
+      </c>
+      <c r="H70" s="17" t="s">
+        <v>225</v>
+      </c>
+      <c r="I70" s="26"/>
+    </row>
+    <row r="71" spans="2:9" ht="213.75">
+      <c r="B71" s="15">
+        <v>69</v>
+      </c>
+      <c r="C71" s="22">
+        <v>44538</v>
+      </c>
+      <c r="D71" s="15" t="s">
+        <v>226</v>
+      </c>
+      <c r="E71" s="15" t="s">
+        <v>219</v>
+      </c>
+      <c r="F71" s="17" t="s">
+        <v>227</v>
+      </c>
+      <c r="G71" s="26" t="s">
+        <v>228</v>
+      </c>
+      <c r="H71" s="17" t="s">
+        <v>225</v>
+      </c>
+      <c r="I71" s="26"/>
+    </row>
+    <row r="72" spans="2:9" ht="256.5">
+      <c r="B72" s="15">
+        <v>70</v>
+      </c>
+      <c r="C72" s="22">
+        <v>44559</v>
+      </c>
+      <c r="D72" s="15" t="s">
+        <v>229</v>
+      </c>
+      <c r="E72" s="15" t="s">
+        <v>226</v>
+      </c>
+      <c r="F72" s="17" t="s">
+        <v>230</v>
+      </c>
+      <c r="G72" s="26" t="s">
+        <v>231</v>
+      </c>
+      <c r="H72" s="17" t="s">
+        <v>225</v>
+      </c>
+      <c r="I72" s="26"/>
+    </row>
+    <row r="73" spans="2:9" ht="242.25">
+      <c r="B73" s="15">
+        <v>71</v>
+      </c>
+      <c r="C73" s="22">
+        <v>44606</v>
+      </c>
+      <c r="D73" s="15" t="s">
+        <v>232</v>
+      </c>
+      <c r="E73" s="15" t="s">
+        <v>229</v>
+      </c>
+      <c r="F73" s="17" t="s">
+        <v>233</v>
+      </c>
+      <c r="G73" s="26" t="s">
         <v>234</v>
       </c>
-      <c r="H67" s="43" t="s">
-        <v>211</v>
-      </c>
-      <c r="I67" s="41"/>
-    </row>
-    <row r="68" spans="2:9" ht="270.75">
-      <c r="B68" s="36">
-        <v>66</v>
-      </c>
-      <c r="C68" s="44">
-        <v>44476</v>
-      </c>
-      <c r="D68" s="36" t="s">
-        <v>220</v>
-      </c>
-      <c r="E68" s="36" t="s">
-        <v>204</v>
-      </c>
-      <c r="F68" s="43" t="s">
-        <v>221</v>
-      </c>
-      <c r="G68" s="41" t="s">
+      <c r="H73" s="17" t="s">
+        <v>235</v>
+      </c>
+      <c r="I73" s="26"/>
+    </row>
+    <row r="74" spans="2:9" ht="228">
+      <c r="B74" s="15">
+        <v>72</v>
+      </c>
+      <c r="C74" s="22">
+        <v>44614</v>
+      </c>
+      <c r="D74" s="15" t="s">
+        <v>236</v>
+      </c>
+      <c r="E74" s="15" t="s">
+        <v>232</v>
+      </c>
+      <c r="F74" s="17" t="s">
+        <v>237</v>
+      </c>
+      <c r="G74" s="26" t="s">
+        <v>238</v>
+      </c>
+      <c r="H74" s="17" t="s">
+        <v>239</v>
+      </c>
+      <c r="I74" s="26"/>
+    </row>
+    <row r="75" spans="2:9" ht="256.5">
+      <c r="B75" s="15">
+        <v>73</v>
+      </c>
+      <c r="C75" s="22">
+        <v>44616</v>
+      </c>
+      <c r="D75" s="15" t="s">
+        <v>240</v>
+      </c>
+      <c r="E75" s="15" t="s">
         <v>222</v>
       </c>
-      <c r="H68" s="43" t="s">
-        <v>223</v>
-      </c>
-      <c r="I68" s="41"/>
-    </row>
-    <row r="69" spans="2:9" ht="256.5">
-      <c r="B69" s="36">
-        <v>67</v>
-      </c>
-      <c r="C69" s="44">
-        <v>44525</v>
-      </c>
-      <c r="D69" s="36" t="s">
-        <v>224</v>
-      </c>
-      <c r="E69" s="36" t="s">
-        <v>212</v>
-      </c>
-      <c r="F69" s="43" t="s">
-        <v>225</v>
-      </c>
-      <c r="G69" s="41" t="s">
+      <c r="F75" s="17" t="s">
+        <v>241</v>
+      </c>
+      <c r="G75" s="26" t="s">
+        <v>242</v>
+      </c>
+      <c r="H75" s="17" t="s">
+        <v>243</v>
+      </c>
+      <c r="I75" s="26"/>
+    </row>
+    <row r="76" spans="2:9" ht="213.75">
+      <c r="B76" s="15">
+        <v>74</v>
+      </c>
+      <c r="C76" s="22">
+        <v>44622</v>
+      </c>
+      <c r="D76" s="15" t="s">
+        <v>244</v>
+      </c>
+      <c r="E76" s="15" t="s">
         <v>232</v>
       </c>
-      <c r="H69" s="43" t="s">
-        <v>223</v>
-      </c>
-      <c r="I69" s="41"/>
-    </row>
-    <row r="70" spans="2:9" ht="270.75">
-      <c r="B70" s="36">
-        <v>68</v>
-      </c>
-      <c r="C70" s="44">
-        <v>44529</v>
-      </c>
-      <c r="D70" s="36" t="s">
-        <v>226</v>
-      </c>
-      <c r="E70" s="36" t="s">
-        <v>220</v>
-      </c>
-      <c r="F70" s="43" t="s">
-        <v>229</v>
-      </c>
-      <c r="G70" s="41" t="s">
-        <v>227</v>
-      </c>
-      <c r="H70" s="43" t="s">
-        <v>228</v>
-      </c>
-      <c r="I70" s="41"/>
-    </row>
-    <row r="71" spans="2:9" ht="213.75">
-      <c r="B71" s="36">
-        <v>69</v>
-      </c>
-      <c r="C71" s="44">
-        <v>44538</v>
-      </c>
-      <c r="D71" s="36" t="s">
-        <v>230</v>
-      </c>
-      <c r="E71" s="36" t="s">
-        <v>224</v>
-      </c>
-      <c r="F71" s="43" t="s">
-        <v>231</v>
-      </c>
-      <c r="G71" s="41" t="s">
-        <v>233</v>
-      </c>
-      <c r="H71" s="43" t="s">
-        <v>228</v>
-      </c>
-      <c r="I71" s="41"/>
-    </row>
-    <row r="72" spans="2:9" ht="256.5">
-      <c r="B72" s="36">
-        <v>70</v>
-      </c>
-      <c r="C72" s="44">
-        <v>44559</v>
-      </c>
-      <c r="D72" s="36" t="s">
-        <v>235</v>
-      </c>
-      <c r="E72" s="36" t="s">
-        <v>230</v>
-      </c>
-      <c r="F72" s="43" t="s">
-        <v>236</v>
-      </c>
-      <c r="G72" s="41" t="s">
-        <v>237</v>
-      </c>
-      <c r="H72" s="43" t="s">
-        <v>228</v>
-      </c>
-      <c r="I72" s="41"/>
-    </row>
-    <row r="73" spans="2:9" ht="242.25">
-      <c r="B73" s="36">
-        <v>71</v>
-      </c>
-      <c r="C73" s="44">
-        <v>44606</v>
-      </c>
-      <c r="D73" s="36" t="s">
-        <v>239</v>
-      </c>
-      <c r="E73" s="36" t="s">
-        <v>235</v>
-      </c>
-      <c r="F73" s="43" t="s">
-        <v>238</v>
-      </c>
-      <c r="G73" s="41" t="s">
+      <c r="F76" s="17" t="s">
+        <v>245</v>
+      </c>
+      <c r="G76" s="29" t="s">
+        <v>246</v>
+      </c>
+      <c r="H76" s="17" t="s">
+        <v>247</v>
+      </c>
+      <c r="I76" s="26"/>
+    </row>
+    <row r="77" spans="2:9" ht="242.25">
+      <c r="B77" s="15">
+        <v>75</v>
+      </c>
+      <c r="C77" s="22">
+        <v>44657</v>
+      </c>
+      <c r="D77" s="15" t="s">
+        <v>248</v>
+      </c>
+      <c r="E77" s="15" t="s">
+        <v>244</v>
+      </c>
+      <c r="F77" s="17" t="s">
+        <v>249</v>
+      </c>
+      <c r="G77" s="26" t="s">
+        <v>250</v>
+      </c>
+      <c r="H77" s="25" t="s">
+        <v>251</v>
+      </c>
+      <c r="I77" s="26"/>
+    </row>
+    <row r="78" spans="2:9" ht="313.5">
+      <c r="B78" s="15">
+        <v>76</v>
+      </c>
+      <c r="C78" s="22">
+        <v>44683</v>
+      </c>
+      <c r="D78" s="15" t="s">
+        <v>252</v>
+      </c>
+      <c r="E78" s="15" t="s">
+        <v>248</v>
+      </c>
+      <c r="F78" s="17" t="s">
+        <v>253</v>
+      </c>
+      <c r="G78" s="26" t="s">
+        <v>254</v>
+      </c>
+      <c r="H78" s="25" t="s">
+        <v>255</v>
+      </c>
+      <c r="I78" s="26"/>
+    </row>
+    <row r="79" spans="2:9" ht="228">
+      <c r="B79" s="15">
+        <v>77</v>
+      </c>
+      <c r="C79" s="22">
+        <v>44703</v>
+      </c>
+      <c r="D79" s="15" t="s">
+        <v>256</v>
+      </c>
+      <c r="E79" s="15" t="s">
+        <v>252</v>
+      </c>
+      <c r="F79" s="17" t="s">
+        <v>257</v>
+      </c>
+      <c r="G79" s="26" t="s">
+        <v>258</v>
+      </c>
+      <c r="H79" s="25" t="s">
+        <v>259</v>
+      </c>
+      <c r="I79" s="26"/>
+    </row>
+    <row r="80" spans="2:9" ht="242.25">
+      <c r="B80" s="15">
+        <v>78</v>
+      </c>
+      <c r="C80" s="22">
+        <v>44747</v>
+      </c>
+      <c r="D80" s="15" t="s">
+        <v>260</v>
+      </c>
+      <c r="E80" s="15" t="s">
+        <v>256</v>
+      </c>
+      <c r="F80" s="17" t="s">
+        <v>261</v>
+      </c>
+      <c r="G80" s="26" t="s">
+        <v>262</v>
+      </c>
+      <c r="H80" s="25" t="s">
+        <v>263</v>
+      </c>
+      <c r="I80" s="26"/>
+    </row>
+    <row r="81" spans="2:9" ht="228">
+      <c r="B81" s="15">
+        <v>79</v>
+      </c>
+      <c r="C81" s="22">
+        <v>44760</v>
+      </c>
+      <c r="D81" s="15" t="s">
+        <v>264</v>
+      </c>
+      <c r="E81" s="15" t="s">
+        <v>260</v>
+      </c>
+      <c r="F81" s="17" t="s">
+        <v>265</v>
+      </c>
+      <c r="G81" s="29" t="s">
+        <v>266</v>
+      </c>
+      <c r="H81" s="17" t="s">
+        <v>267</v>
+      </c>
+      <c r="I81" s="26"/>
+    </row>
+    <row r="82" spans="2:9" ht="270.75">
+      <c r="B82" s="15">
+        <v>80</v>
+      </c>
+      <c r="C82" s="22">
+        <v>44822</v>
+      </c>
+      <c r="D82" s="15" t="s">
+        <v>268</v>
+      </c>
+      <c r="E82" s="15" t="s">
         <v>240</v>
       </c>
-      <c r="H73" s="43" t="s">
-        <v>241</v>
-      </c>
-      <c r="I73" s="41"/>
-    </row>
-    <row r="74" spans="2:9" ht="228">
-      <c r="B74" s="36">
-        <v>72</v>
-      </c>
-      <c r="C74" s="44">
-        <v>44614</v>
-      </c>
-      <c r="D74" s="36" t="s">
-        <v>242</v>
-      </c>
-      <c r="E74" s="36" t="s">
-        <v>239</v>
-      </c>
-      <c r="F74" s="43" t="s">
-        <v>243</v>
-      </c>
-      <c r="G74" s="41" t="s">
-        <v>245</v>
-      </c>
-      <c r="H74" s="43" t="s">
-        <v>244</v>
-      </c>
-      <c r="I74" s="41"/>
-    </row>
-    <row r="75" spans="2:9" ht="256.5">
-      <c r="B75" s="36">
-        <v>73</v>
-      </c>
-      <c r="C75" s="44">
-        <v>44616</v>
-      </c>
-      <c r="D75" s="36" t="s">
-        <v>247</v>
-      </c>
-      <c r="E75" s="36" t="s">
-        <v>226</v>
-      </c>
-      <c r="F75" s="43" t="s">
-        <v>246</v>
-      </c>
-      <c r="G75" s="41" t="s">
-        <v>248</v>
-      </c>
-      <c r="H75" s="43" t="s">
-        <v>249</v>
-      </c>
-      <c r="I75" s="41"/>
-    </row>
-    <row r="76" spans="2:9" ht="213.75">
-      <c r="B76" s="36">
-        <v>74</v>
-      </c>
-      <c r="C76" s="44">
-        <v>44622</v>
-      </c>
-      <c r="D76" s="36" t="s">
-        <v>250</v>
-      </c>
-      <c r="E76" s="36" t="s">
-        <v>239</v>
-      </c>
-      <c r="F76" s="43" t="s">
-        <v>253</v>
-      </c>
-      <c r="G76" s="50" t="s">
-        <v>252</v>
-      </c>
-      <c r="H76" s="43" t="s">
-        <v>251</v>
-      </c>
-      <c r="I76" s="41"/>
-    </row>
-    <row r="77" spans="2:9" ht="242.25">
-      <c r="B77" s="36">
-        <v>75</v>
-      </c>
-      <c r="C77" s="44">
-        <v>44657</v>
-      </c>
-      <c r="D77" s="36" t="s">
-        <v>254</v>
-      </c>
-      <c r="E77" s="36" t="s">
-        <v>250</v>
-      </c>
-      <c r="F77" s="43" t="s">
-        <v>255</v>
-      </c>
-      <c r="G77" s="41" t="s">
-        <v>256</v>
-      </c>
-      <c r="H77" s="47" t="s">
-        <v>257</v>
-      </c>
-      <c r="I77" s="41"/>
-    </row>
-    <row r="78" spans="2:9" ht="313.5">
-      <c r="B78" s="36">
-        <v>76</v>
-      </c>
-      <c r="C78" s="44">
-        <v>44683</v>
-      </c>
-      <c r="D78" s="36" t="s">
-        <v>258</v>
-      </c>
-      <c r="E78" s="36" t="s">
-        <v>254</v>
-      </c>
-      <c r="F78" s="43" t="s">
-        <v>259</v>
-      </c>
-      <c r="G78" s="41" t="s">
-        <v>260</v>
-      </c>
-      <c r="H78" s="47" t="s">
-        <v>261</v>
-      </c>
-      <c r="I78" s="41"/>
-    </row>
-    <row r="79" spans="2:9" ht="228">
-      <c r="B79" s="36">
-        <v>77</v>
-      </c>
-      <c r="C79" s="44">
-        <v>44703</v>
-      </c>
-      <c r="D79" s="36" t="s">
-        <v>262</v>
-      </c>
-      <c r="E79" s="36" t="s">
-        <v>258</v>
-      </c>
-      <c r="F79" s="43" t="s">
-        <v>263</v>
-      </c>
-      <c r="G79" s="41" t="s">
-        <v>264</v>
-      </c>
-      <c r="H79" s="47" t="s">
-        <v>265</v>
-      </c>
-      <c r="I79" s="41"/>
-    </row>
-    <row r="80" spans="2:9" ht="242.25">
-      <c r="B80" s="36">
-        <v>78</v>
-      </c>
-      <c r="C80" s="44">
-        <v>44747</v>
-      </c>
-      <c r="D80" s="36" t="s">
-        <v>266</v>
-      </c>
-      <c r="E80" s="36" t="s">
-        <v>262</v>
-      </c>
-      <c r="F80" s="43" t="s">
+      <c r="F82" s="17" t="s">
         <v>269</v>
       </c>
-      <c r="G80" s="41" t="s">
-        <v>267</v>
-      </c>
-      <c r="H80" s="47" t="s">
-        <v>268</v>
-      </c>
-      <c r="I80" s="41"/>
-    </row>
-    <row r="81" spans="2:9">
-      <c r="B81" s="36">
-        <v>79</v>
-      </c>
-      <c r="C81" s="51"/>
-      <c r="D81" s="52"/>
-      <c r="E81" s="52"/>
-      <c r="F81" s="43"/>
-      <c r="G81" s="41"/>
-      <c r="H81" s="47"/>
-      <c r="I81" s="41"/>
-    </row>
-    <row r="82" spans="2:9">
-      <c r="B82" s="36">
-        <v>80</v>
-      </c>
-      <c r="C82" s="51"/>
-      <c r="D82" s="52"/>
-      <c r="E82" s="52"/>
-      <c r="F82" s="43"/>
-      <c r="G82" s="41"/>
-      <c r="H82" s="47"/>
-      <c r="I82" s="41"/>
+      <c r="G82" s="26" t="s">
+        <v>270</v>
+      </c>
+      <c r="H82" s="17" t="s">
+        <v>271</v>
+      </c>
+      <c r="I82" s="26"/>
     </row>
     <row r="83" spans="2:9">
-      <c r="B83" s="36">
+      <c r="B83" s="15">
         <v>81</v>
       </c>
-      <c r="C83" s="51"/>
-      <c r="D83" s="52"/>
-      <c r="E83" s="52"/>
-      <c r="F83" s="43"/>
-      <c r="G83" s="41"/>
-      <c r="H83" s="47"/>
-      <c r="I83" s="41"/>
+      <c r="C83" s="30"/>
+      <c r="D83" s="31"/>
+      <c r="E83" s="31"/>
+      <c r="F83" s="17"/>
+      <c r="G83" s="26"/>
+      <c r="H83" s="25"/>
+      <c r="I83" s="26"/>
     </row>
     <row r="84" spans="2:9">
-      <c r="B84" s="36">
+      <c r="B84" s="15">
         <v>82</v>
       </c>
-      <c r="C84" s="51"/>
-      <c r="D84" s="52"/>
-      <c r="E84" s="52"/>
-      <c r="F84" s="43"/>
-      <c r="G84" s="41"/>
-      <c r="H84" s="47"/>
-      <c r="I84" s="41"/>
+      <c r="C84" s="30"/>
+      <c r="D84" s="31"/>
+      <c r="E84" s="31"/>
+      <c r="F84" s="17"/>
+      <c r="G84" s="26"/>
+      <c r="H84" s="25"/>
+      <c r="I84" s="26"/>
     </row>
     <row r="85" spans="2:9">
-      <c r="B85" s="36">
+      <c r="B85" s="15">
         <v>83</v>
       </c>
-      <c r="C85" s="51"/>
-      <c r="D85" s="52"/>
-      <c r="E85" s="52"/>
-      <c r="F85" s="43"/>
-      <c r="G85" s="41"/>
-      <c r="H85" s="47"/>
-      <c r="I85" s="41"/>
+      <c r="C85" s="30"/>
+      <c r="D85" s="31"/>
+      <c r="E85" s="31"/>
+      <c r="F85" s="17"/>
+      <c r="G85" s="26"/>
+      <c r="H85" s="25"/>
+      <c r="I85" s="26"/>
     </row>
     <row r="86" spans="2:9">
-      <c r="B86" s="36">
+      <c r="B86" s="15">
         <v>84</v>
       </c>
-      <c r="C86" s="51"/>
-      <c r="D86" s="52"/>
-      <c r="E86" s="52"/>
-      <c r="F86" s="43"/>
-      <c r="G86" s="41"/>
-      <c r="H86" s="47"/>
-      <c r="I86" s="41"/>
+      <c r="C86" s="30"/>
+      <c r="D86" s="31"/>
+      <c r="E86" s="31"/>
+      <c r="F86" s="17"/>
+      <c r="G86" s="26"/>
+      <c r="H86" s="25"/>
+      <c r="I86" s="26"/>
     </row>
     <row r="87" spans="2:9">
-      <c r="B87" s="36">
+      <c r="B87" s="15">
         <v>85</v>
       </c>
-      <c r="C87" s="51"/>
-      <c r="D87" s="52"/>
-      <c r="E87" s="52"/>
-      <c r="F87" s="43"/>
-      <c r="G87" s="41"/>
-      <c r="H87" s="47"/>
-      <c r="I87" s="41"/>
+      <c r="C87" s="30"/>
+      <c r="D87" s="31"/>
+      <c r="E87" s="31"/>
+      <c r="F87" s="17"/>
+      <c r="G87" s="26"/>
+      <c r="H87" s="25"/>
+      <c r="I87" s="26"/>
     </row>
     <row r="88" spans="2:9">
-      <c r="B88" s="36">
+      <c r="B88" s="15">
         <v>86</v>
       </c>
-      <c r="C88" s="51"/>
-      <c r="D88" s="52"/>
-      <c r="E88" s="52"/>
-      <c r="F88" s="43"/>
-      <c r="G88" s="41"/>
-      <c r="H88" s="47"/>
-      <c r="I88" s="41"/>
+      <c r="C88" s="30"/>
+      <c r="D88" s="31"/>
+      <c r="E88" s="31"/>
+      <c r="F88" s="17"/>
+      <c r="G88" s="26"/>
+      <c r="H88" s="25"/>
+      <c r="I88" s="26"/>
     </row>
     <row r="89" spans="2:9">
-      <c r="B89" s="36">
+      <c r="B89" s="15">
         <v>87</v>
       </c>
-      <c r="C89" s="51"/>
-      <c r="D89" s="52"/>
-      <c r="E89" s="52"/>
-      <c r="F89" s="43"/>
-      <c r="G89" s="41"/>
-      <c r="H89" s="47"/>
-      <c r="I89" s="41"/>
+      <c r="C89" s="30"/>
+      <c r="D89" s="31"/>
+      <c r="E89" s="31"/>
+      <c r="F89" s="17"/>
+      <c r="G89" s="26"/>
+      <c r="H89" s="25"/>
+      <c r="I89" s="26"/>
     </row>
     <row r="90" spans="2:9">
-      <c r="B90" s="36">
+      <c r="B90" s="15">
         <v>88</v>
       </c>
-      <c r="C90" s="51"/>
-      <c r="D90" s="52"/>
-      <c r="E90" s="52"/>
-      <c r="F90" s="43"/>
-      <c r="G90" s="41"/>
-      <c r="H90" s="47"/>
-      <c r="I90" s="41"/>
+      <c r="C90" s="30"/>
+      <c r="D90" s="31"/>
+      <c r="E90" s="31"/>
+      <c r="F90" s="17"/>
+      <c r="G90" s="26"/>
+      <c r="H90" s="25"/>
+      <c r="I90" s="26"/>
     </row>
     <row r="91" spans="2:9">
-      <c r="B91" s="36">
+      <c r="B91" s="15">
         <v>89</v>
       </c>
-      <c r="C91" s="51"/>
-      <c r="D91" s="52"/>
-      <c r="E91" s="52"/>
-      <c r="F91" s="43"/>
-      <c r="G91" s="41"/>
-      <c r="H91" s="47"/>
-      <c r="I91" s="41"/>
+      <c r="C91" s="30"/>
+      <c r="D91" s="31"/>
+      <c r="E91" s="31"/>
+      <c r="F91" s="17"/>
+      <c r="G91" s="26"/>
+      <c r="H91" s="25"/>
+      <c r="I91" s="26"/>
     </row>
     <row r="92" spans="2:9">
-      <c r="B92" s="36">
+      <c r="B92" s="15">
         <v>90</v>
       </c>
-      <c r="C92" s="51"/>
-      <c r="D92" s="52"/>
-      <c r="E92" s="52"/>
-      <c r="F92" s="43"/>
-      <c r="G92" s="41"/>
-      <c r="H92" s="47"/>
-      <c r="I92" s="41"/>
+      <c r="C92" s="30"/>
+      <c r="D92" s="31"/>
+      <c r="E92" s="31"/>
+      <c r="F92" s="17"/>
+      <c r="G92" s="26"/>
+      <c r="H92" s="25"/>
+      <c r="I92" s="26"/>
     </row>
     <row r="93" spans="2:9">
-      <c r="B93" s="36">
+      <c r="B93" s="15">
         <v>91</v>
       </c>
-      <c r="C93" s="51"/>
-      <c r="D93" s="52"/>
-      <c r="E93" s="52"/>
-      <c r="F93" s="43"/>
-      <c r="G93" s="41"/>
-      <c r="H93" s="47"/>
-      <c r="I93" s="41"/>
+      <c r="C93" s="30"/>
+      <c r="D93" s="31"/>
+      <c r="E93" s="31"/>
+      <c r="F93" s="17"/>
+      <c r="G93" s="26"/>
+      <c r="H93" s="25"/>
+      <c r="I93" s="26"/>
     </row>
     <row r="94" spans="2:9">
-      <c r="B94" s="36">
+      <c r="B94" s="15">
         <v>92</v>
       </c>
-      <c r="C94" s="51"/>
-      <c r="D94" s="52"/>
-      <c r="E94" s="52"/>
-      <c r="F94" s="43"/>
-      <c r="G94" s="41"/>
-      <c r="H94" s="47"/>
-      <c r="I94" s="41"/>
+      <c r="C94" s="30"/>
+      <c r="D94" s="31"/>
+      <c r="E94" s="31"/>
+      <c r="F94" s="17"/>
+      <c r="G94" s="26"/>
+      <c r="H94" s="25"/>
+      <c r="I94" s="26"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H45"/>
+  <dimension ref="A1:I94"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane xSplit="3" ySplit="2" topLeftCell="D20" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="G4" sqref="G4"/>
+      <selection pane="bottomRight" activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.25"/>
@@ -4929,11 +5589,12 @@
     <col min="4" max="5" width="24.7109375" style="3" customWidth="1"/>
     <col min="6" max="6" width="42.5703125" style="4" customWidth="1"/>
     <col min="7" max="7" width="105.28515625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="40" style="5" customWidth="1"/>
-    <col min="9" max="16384" width="9.140625" style="1"/>
+    <col min="8" max="8" width="58.140625" style="5" customWidth="1"/>
+    <col min="9" max="9" width="68.5703125" style="1" customWidth="1"/>
+    <col min="10" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="27.75" customHeight="1">
+    <row r="1" spans="1:9" ht="27.75" customHeight="1">
       <c r="A1" s="6"/>
       <c r="B1" s="7"/>
       <c r="C1" s="8"/>
@@ -4943,7 +5604,7 @@
       <c r="G1" s="7"/>
       <c r="H1" s="10"/>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:9">
       <c r="A2" s="6"/>
       <c r="B2" s="11" t="s">
         <v>0</v>
@@ -4966,511 +5627,1351 @@
       <c r="H2" s="14" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" ht="199.5">
+      <c r="I2" s="14" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="256.5">
       <c r="A3" s="6"/>
       <c r="B3" s="15">
         <v>1</v>
       </c>
       <c r="C3" s="16">
-        <v>44196</v>
+        <v>44754</v>
       </c>
       <c r="D3" s="16" t="s">
-        <v>214</v>
+        <v>272</v>
       </c>
       <c r="E3" s="16" t="s">
-        <v>60</v>
+        <v>256</v>
       </c>
       <c r="F3" s="17" t="s">
-        <v>10</v>
+        <v>273</v>
       </c>
       <c r="G3" s="18" t="s">
-        <v>215</v>
+        <v>274</v>
       </c>
       <c r="H3" s="19" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" ht="185.25">
+        <v>275</v>
+      </c>
+      <c r="I3" s="26"/>
+    </row>
+    <row r="4" spans="1:9" ht="142.5">
       <c r="A4" s="6"/>
       <c r="B4" s="15">
         <v>2</v>
       </c>
       <c r="C4" s="16">
-        <v>44224</v>
+        <v>44771</v>
       </c>
       <c r="D4" s="16" t="s">
-        <v>217</v>
+        <v>276</v>
       </c>
       <c r="E4" s="16" t="s">
-        <v>214</v>
+        <v>272</v>
       </c>
       <c r="F4" s="17" t="s">
-        <v>218</v>
+        <v>277</v>
       </c>
       <c r="G4" s="18" t="s">
-        <v>219</v>
-      </c>
-      <c r="H4" s="19"/>
-    </row>
-    <row r="5" spans="1:8">
+        <v>278</v>
+      </c>
+      <c r="H4" s="19" t="s">
+        <v>279</v>
+      </c>
+      <c r="I4" s="26"/>
+    </row>
+    <row r="5" spans="1:9" ht="219.75" customHeight="1">
       <c r="A5" s="6"/>
       <c r="B5" s="15">
         <v>3</v>
       </c>
-      <c r="C5" s="16"/>
-      <c r="D5" s="16"/>
-      <c r="E5" s="16"/>
-      <c r="F5" s="17"/>
-      <c r="G5" s="18"/>
-      <c r="H5" s="19"/>
-    </row>
-    <row r="6" spans="1:8" ht="15">
+      <c r="C5" s="16">
+        <v>44785</v>
+      </c>
+      <c r="D5" s="16" t="s">
+        <v>280</v>
+      </c>
+      <c r="E5" s="16" t="s">
+        <v>276</v>
+      </c>
+      <c r="F5" s="17" t="s">
+        <v>281</v>
+      </c>
+      <c r="G5" s="18" t="s">
+        <v>282</v>
+      </c>
+      <c r="H5" s="19" t="s">
+        <v>283</v>
+      </c>
+      <c r="I5" s="26"/>
+    </row>
+    <row r="6" spans="1:9" ht="185.25">
       <c r="A6" s="6"/>
       <c r="B6" s="15">
         <v>4</v>
       </c>
-      <c r="C6" s="16"/>
-      <c r="D6" s="16"/>
-      <c r="E6" s="16"/>
-      <c r="F6" s="17"/>
-      <c r="G6" s="20"/>
-      <c r="H6" s="19"/>
-    </row>
-    <row r="7" spans="1:8" ht="15">
+      <c r="C6" s="16">
+        <v>44825</v>
+      </c>
+      <c r="D6" s="16" t="s">
+        <v>284</v>
+      </c>
+      <c r="E6" s="16" t="s">
+        <v>280</v>
+      </c>
+      <c r="F6" s="17" t="s">
+        <v>285</v>
+      </c>
+      <c r="G6" s="20" t="s">
+        <v>286</v>
+      </c>
+      <c r="H6" s="19" t="s">
+        <v>287</v>
+      </c>
+      <c r="I6" s="26"/>
+    </row>
+    <row r="7" spans="1:9" ht="219.75" customHeight="1">
       <c r="A7" s="6"/>
       <c r="B7" s="15">
         <v>5</v>
       </c>
-      <c r="C7" s="16"/>
-      <c r="D7" s="16"/>
-      <c r="E7" s="16"/>
-      <c r="F7" s="18"/>
-      <c r="G7" s="20"/>
-      <c r="H7" s="21"/>
-    </row>
-    <row r="8" spans="1:8" ht="15">
-      <c r="A8" s="22"/>
+      <c r="C7" s="16">
+        <v>44835</v>
+      </c>
+      <c r="D7" s="16" t="s">
+        <v>288</v>
+      </c>
+      <c r="E7" s="16" t="s">
+        <v>284</v>
+      </c>
+      <c r="F7" s="17" t="s">
+        <v>289</v>
+      </c>
+      <c r="G7" s="20" t="s">
+        <v>290</v>
+      </c>
+      <c r="H7" s="17" t="s">
+        <v>291</v>
+      </c>
+      <c r="I7" s="26"/>
+    </row>
+    <row r="8" spans="1:9" ht="230.25" customHeight="1">
+      <c r="A8" s="21"/>
       <c r="B8" s="15">
         <v>6</v>
       </c>
-      <c r="C8" s="23"/>
-      <c r="D8" s="16"/>
-      <c r="E8" s="16"/>
-      <c r="F8" s="18"/>
-      <c r="G8" s="20"/>
-      <c r="H8" s="21"/>
-    </row>
-    <row r="9" spans="1:8">
+      <c r="C8" s="16">
+        <v>44835</v>
+      </c>
+      <c r="D8" s="16" t="s">
+        <v>292</v>
+      </c>
+      <c r="E8" s="16" t="s">
+        <v>288</v>
+      </c>
+      <c r="F8" s="17" t="s">
+        <v>289</v>
+      </c>
+      <c r="G8" s="20" t="s">
+        <v>293</v>
+      </c>
+      <c r="H8" s="17" t="s">
+        <v>294</v>
+      </c>
+      <c r="I8" s="26"/>
+    </row>
+    <row r="9" spans="1:9" ht="156.75">
       <c r="A9" s="6"/>
       <c r="B9" s="15">
         <v>7</v>
       </c>
-      <c r="C9" s="23"/>
-      <c r="D9" s="16"/>
-      <c r="E9" s="16"/>
-      <c r="F9" s="18"/>
-      <c r="G9" s="24"/>
-      <c r="H9" s="21"/>
-    </row>
-    <row r="10" spans="1:8" ht="15">
+      <c r="C9" s="22">
+        <v>44869</v>
+      </c>
+      <c r="D9" s="16" t="s">
+        <v>295</v>
+      </c>
+      <c r="E9" s="16" t="s">
+        <v>288</v>
+      </c>
+      <c r="F9" s="17" t="s">
+        <v>296</v>
+      </c>
+      <c r="G9" s="20" t="s">
+        <v>297</v>
+      </c>
+      <c r="H9" s="17" t="s">
+        <v>298</v>
+      </c>
+      <c r="I9" s="26"/>
+    </row>
+    <row r="10" spans="1:9" ht="236.25" customHeight="1">
       <c r="A10" s="6"/>
       <c r="B10" s="15">
         <v>8</v>
       </c>
-      <c r="C10" s="23"/>
-      <c r="D10" s="16"/>
-      <c r="E10" s="16"/>
-      <c r="F10" s="18"/>
-      <c r="G10" s="20"/>
-      <c r="H10" s="21"/>
-    </row>
-    <row r="11" spans="1:8" ht="15">
+      <c r="C10" s="22">
+        <v>44873</v>
+      </c>
+      <c r="D10" s="16" t="s">
+        <v>299</v>
+      </c>
+      <c r="E10" s="16" t="s">
+        <v>295</v>
+      </c>
+      <c r="F10" s="17" t="s">
+        <v>300</v>
+      </c>
+      <c r="G10" s="20" t="s">
+        <v>301</v>
+      </c>
+      <c r="H10" s="17" t="s">
+        <v>302</v>
+      </c>
+      <c r="I10" s="26"/>
+    </row>
+    <row r="11" spans="1:9" ht="212.25" customHeight="1">
       <c r="A11" s="6"/>
       <c r="B11" s="15">
         <v>9</v>
       </c>
-      <c r="C11" s="23"/>
-      <c r="D11" s="16"/>
-      <c r="E11" s="16"/>
-      <c r="F11" s="18"/>
-      <c r="G11" s="20"/>
-      <c r="H11" s="21"/>
-    </row>
-    <row r="12" spans="1:8">
+      <c r="C11" s="22">
+        <v>44907</v>
+      </c>
+      <c r="D11" s="16" t="s">
+        <v>303</v>
+      </c>
+      <c r="E11" s="16" t="s">
+        <v>295</v>
+      </c>
+      <c r="F11" s="18" t="s">
+        <v>304</v>
+      </c>
+      <c r="G11" s="23" t="s">
+        <v>305</v>
+      </c>
+      <c r="H11" s="17" t="s">
+        <v>306</v>
+      </c>
+      <c r="I11" s="26"/>
+    </row>
+    <row r="12" spans="1:9" ht="287.25" customHeight="1">
       <c r="A12" s="6"/>
       <c r="B12" s="15">
         <v>10</v>
       </c>
-      <c r="C12" s="23"/>
-      <c r="D12" s="16"/>
-      <c r="E12" s="16"/>
+      <c r="C12" s="22">
+        <v>44908</v>
+      </c>
+      <c r="D12" s="16" t="s">
+        <v>307</v>
+      </c>
+      <c r="E12" s="16" t="s">
+        <v>295</v>
+      </c>
       <c r="F12" s="18"/>
-      <c r="G12" s="24"/>
-      <c r="H12" s="21"/>
-    </row>
-    <row r="13" spans="1:8" ht="15">
+      <c r="G12" s="18" t="s">
+        <v>308</v>
+      </c>
+      <c r="H12" s="17" t="s">
+        <v>309</v>
+      </c>
+      <c r="I12" s="26"/>
+    </row>
+    <row r="13" spans="1:9" ht="240" customHeight="1">
       <c r="B13" s="15">
         <v>11</v>
       </c>
-      <c r="C13" s="23"/>
-      <c r="D13" s="25"/>
-      <c r="E13" s="25"/>
-      <c r="F13" s="26"/>
-      <c r="G13" s="27"/>
-      <c r="H13" s="26"/>
-    </row>
-    <row r="14" spans="1:8" ht="15">
+      <c r="C13" s="22">
+        <v>44908</v>
+      </c>
+      <c r="D13" s="16" t="s">
+        <v>310</v>
+      </c>
+      <c r="E13" s="16" t="s">
+        <v>295</v>
+      </c>
+      <c r="F13" s="18" t="s">
+        <v>311</v>
+      </c>
+      <c r="G13" s="23" t="s">
+        <v>312</v>
+      </c>
+      <c r="H13" s="17" t="s">
+        <v>313</v>
+      </c>
+      <c r="I13" s="26"/>
+    </row>
+    <row r="14" spans="1:9" ht="286.5" customHeight="1">
       <c r="B14" s="15">
         <v>12</v>
       </c>
-      <c r="C14" s="23"/>
-      <c r="D14" s="25"/>
-      <c r="E14" s="25"/>
-      <c r="F14" s="26"/>
-      <c r="G14" s="27"/>
-      <c r="H14" s="21"/>
-    </row>
-    <row r="15" spans="1:8" ht="15">
+      <c r="C14" s="22">
+        <v>44929</v>
+      </c>
+      <c r="D14" s="16" t="s">
+        <v>314</v>
+      </c>
+      <c r="E14" s="16" t="s">
+        <v>310</v>
+      </c>
+      <c r="F14" s="18" t="s">
+        <v>315</v>
+      </c>
+      <c r="G14" s="18" t="s">
+        <v>316</v>
+      </c>
+      <c r="H14" s="17" t="s">
+        <v>317</v>
+      </c>
+      <c r="I14" s="26"/>
+    </row>
+    <row r="15" spans="1:9" ht="225" customHeight="1">
       <c r="B15" s="15">
         <v>13</v>
       </c>
-      <c r="C15" s="23"/>
-      <c r="D15" s="16"/>
-      <c r="E15" s="16"/>
-      <c r="F15" s="18"/>
-      <c r="G15" s="20"/>
-      <c r="H15" s="21"/>
-    </row>
-    <row r="16" spans="1:8" ht="15">
+      <c r="C15" s="22">
+        <v>44965</v>
+      </c>
+      <c r="D15" s="24" t="s">
+        <v>318</v>
+      </c>
+      <c r="E15" s="24" t="s">
+        <v>310</v>
+      </c>
+      <c r="F15" s="17" t="s">
+        <v>319</v>
+      </c>
+      <c r="G15" s="20" t="s">
+        <v>320</v>
+      </c>
+      <c r="H15" s="17" t="s">
+        <v>321</v>
+      </c>
+      <c r="I15" s="26"/>
+    </row>
+    <row r="16" spans="1:9" ht="135.75" customHeight="1">
       <c r="B16" s="15">
         <v>14</v>
       </c>
-      <c r="C16" s="23"/>
-      <c r="D16" s="25"/>
-      <c r="E16" s="25"/>
-      <c r="F16" s="18"/>
-      <c r="G16" s="20"/>
-      <c r="H16" s="26"/>
-    </row>
-    <row r="17" spans="2:8" ht="15">
+      <c r="C16" s="22">
+        <v>44979</v>
+      </c>
+      <c r="D16" s="24" t="s">
+        <v>322</v>
+      </c>
+      <c r="E16" s="24" t="s">
+        <v>318</v>
+      </c>
+      <c r="F16" s="17" t="s">
+        <v>323</v>
+      </c>
+      <c r="G16" s="18" t="s">
+        <v>324</v>
+      </c>
+      <c r="H16" s="17" t="s">
+        <v>325</v>
+      </c>
+      <c r="I16" s="26"/>
+    </row>
+    <row r="17" spans="2:9" ht="223.5" customHeight="1">
       <c r="B17" s="15">
         <v>15</v>
       </c>
-      <c r="C17" s="23"/>
-      <c r="D17" s="16"/>
-      <c r="E17" s="16"/>
-      <c r="F17" s="18"/>
-      <c r="G17" s="20"/>
-      <c r="H17" s="26"/>
-    </row>
-    <row r="18" spans="2:8" ht="15">
+      <c r="C17" s="22">
+        <v>44983</v>
+      </c>
+      <c r="D17" s="24" t="s">
+        <v>326</v>
+      </c>
+      <c r="E17" s="24" t="s">
+        <v>322</v>
+      </c>
+      <c r="F17" s="17" t="s">
+        <v>327</v>
+      </c>
+      <c r="G17" s="20" t="s">
+        <v>328</v>
+      </c>
+      <c r="H17" s="17" t="s">
+        <v>329</v>
+      </c>
+      <c r="I17" s="26"/>
+    </row>
+    <row r="18" spans="2:9" ht="204.75" customHeight="1">
       <c r="B18" s="15">
         <v>16</v>
       </c>
-      <c r="C18" s="23"/>
-      <c r="D18" s="25"/>
-      <c r="E18" s="25"/>
-      <c r="F18" s="26"/>
-      <c r="G18" s="27"/>
-      <c r="H18" s="26"/>
-    </row>
-    <row r="19" spans="2:8" ht="15">
+      <c r="C18" s="22">
+        <v>44991</v>
+      </c>
+      <c r="D18" s="24" t="s">
+        <v>330</v>
+      </c>
+      <c r="E18" s="24" t="s">
+        <v>322</v>
+      </c>
+      <c r="F18" s="25" t="s">
+        <v>331</v>
+      </c>
+      <c r="G18" s="29" t="s">
+        <v>332</v>
+      </c>
+      <c r="H18" s="17" t="s">
+        <v>333</v>
+      </c>
+      <c r="I18" s="26"/>
+    </row>
+    <row r="19" spans="2:9" ht="147.75" customHeight="1">
       <c r="B19" s="15">
         <v>17</v>
       </c>
-      <c r="C19" s="23"/>
-      <c r="D19" s="15"/>
-      <c r="E19" s="15"/>
-      <c r="F19" s="21"/>
-      <c r="G19" s="27"/>
-      <c r="H19" s="26"/>
-    </row>
-    <row r="20" spans="2:8">
+      <c r="C19" s="22">
+        <v>45001</v>
+      </c>
+      <c r="D19" s="24" t="s">
+        <v>334</v>
+      </c>
+      <c r="E19" s="24" t="s">
+        <v>330</v>
+      </c>
+      <c r="F19" s="17" t="s">
+        <v>335</v>
+      </c>
+      <c r="G19" s="29" t="s">
+        <v>336</v>
+      </c>
+      <c r="H19" s="17" t="s">
+        <v>337</v>
+      </c>
+      <c r="I19" s="26"/>
+    </row>
+    <row r="20" spans="2:9" ht="213.75">
       <c r="B20" s="15">
         <v>18</v>
       </c>
-      <c r="C20" s="28"/>
-      <c r="D20" s="16"/>
-      <c r="E20" s="16"/>
-      <c r="F20" s="21"/>
-      <c r="G20" s="29"/>
-      <c r="H20" s="29"/>
-    </row>
-    <row r="21" spans="2:8" ht="15">
+      <c r="C20" s="22">
+        <v>45002</v>
+      </c>
+      <c r="D20" s="24" t="s">
+        <v>338</v>
+      </c>
+      <c r="E20" s="24" t="s">
+        <v>334</v>
+      </c>
+      <c r="F20" s="17" t="s">
+        <v>339</v>
+      </c>
+      <c r="G20" s="29" t="s">
+        <v>340</v>
+      </c>
+      <c r="H20" s="17" t="s">
+        <v>341</v>
+      </c>
+      <c r="I20" s="26"/>
+    </row>
+    <row r="21" spans="2:9" ht="291" customHeight="1">
       <c r="B21" s="15">
         <v>19</v>
       </c>
-      <c r="C21" s="23"/>
-      <c r="D21" s="15"/>
-      <c r="E21" s="15"/>
-      <c r="F21" s="21"/>
-      <c r="G21" s="27"/>
-      <c r="H21" s="26"/>
-    </row>
-    <row r="22" spans="2:8">
+      <c r="C21" s="22">
+        <v>45016</v>
+      </c>
+      <c r="D21" s="24" t="s">
+        <v>342</v>
+      </c>
+      <c r="E21" s="24" t="s">
+        <v>338</v>
+      </c>
+      <c r="F21" s="17" t="s">
+        <v>343</v>
+      </c>
+      <c r="G21" s="29" t="s">
+        <v>344</v>
+      </c>
+      <c r="H21" s="17" t="s">
+        <v>345</v>
+      </c>
+      <c r="I21" s="26"/>
+    </row>
+    <row r="22" spans="2:9" ht="15.75" customHeight="1">
       <c r="B22" s="15">
         <v>20</v>
       </c>
-      <c r="C22" s="28"/>
+      <c r="C22" s="27"/>
       <c r="D22" s="16"/>
       <c r="E22" s="16"/>
-      <c r="F22" s="21"/>
-      <c r="G22" s="29"/>
-      <c r="H22" s="26"/>
-    </row>
-    <row r="23" spans="2:8">
+      <c r="F22" s="17"/>
+      <c r="G22" s="28"/>
+      <c r="H22" s="25"/>
+      <c r="I22" s="26"/>
+    </row>
+    <row r="23" spans="2:9" ht="15.75" customHeight="1">
       <c r="B23" s="15">
         <v>21</v>
       </c>
-      <c r="C23" s="23"/>
+      <c r="C23" s="22"/>
       <c r="D23" s="15"/>
       <c r="E23" s="15"/>
-      <c r="F23" s="21"/>
-      <c r="G23" s="29"/>
-      <c r="H23" s="26"/>
-    </row>
-    <row r="24" spans="2:8">
+      <c r="F23" s="17"/>
+      <c r="G23" s="28"/>
+      <c r="H23" s="25"/>
+      <c r="I23" s="26"/>
+    </row>
+    <row r="24" spans="2:9" ht="15.75" customHeight="1">
       <c r="B24" s="15">
         <v>22</v>
       </c>
-      <c r="C24" s="23"/>
-      <c r="D24" s="15"/>
-      <c r="E24" s="15"/>
-      <c r="F24" s="21"/>
-      <c r="G24" s="30"/>
-      <c r="H24" s="26"/>
-    </row>
-    <row r="25" spans="2:8" ht="15">
+      <c r="C24" s="22"/>
+      <c r="D24" s="16"/>
+      <c r="E24" s="16"/>
+      <c r="F24" s="17"/>
+      <c r="G24" s="29"/>
+      <c r="H24" s="25"/>
+      <c r="I24" s="26"/>
+    </row>
+    <row r="25" spans="2:9" ht="15.75" customHeight="1">
       <c r="B25" s="15">
         <v>23</v>
       </c>
-      <c r="C25" s="23"/>
+      <c r="C25" s="22"/>
       <c r="D25" s="15"/>
       <c r="E25" s="15"/>
-      <c r="F25" s="21"/>
-      <c r="G25" s="27"/>
-      <c r="H25" s="26"/>
-    </row>
-    <row r="26" spans="2:8" ht="15">
+      <c r="F25" s="17"/>
+      <c r="G25" s="26"/>
+      <c r="H25" s="25"/>
+      <c r="I25" s="26"/>
+    </row>
+    <row r="26" spans="2:9" ht="15.75" customHeight="1">
       <c r="B26" s="15">
         <v>24</v>
       </c>
-      <c r="C26" s="23"/>
-      <c r="D26" s="15"/>
-      <c r="E26" s="15"/>
-      <c r="F26" s="21"/>
-      <c r="G26" s="27"/>
-      <c r="H26" s="26"/>
-    </row>
-    <row r="27" spans="2:8" ht="15">
+      <c r="C26" s="22"/>
+      <c r="D26" s="16"/>
+      <c r="E26" s="16"/>
+      <c r="F26" s="17"/>
+      <c r="G26" s="26"/>
+      <c r="H26" s="17"/>
+      <c r="I26" s="26"/>
+    </row>
+    <row r="27" spans="2:9" ht="15.75" customHeight="1">
       <c r="B27" s="15">
         <v>25</v>
       </c>
-      <c r="C27" s="23"/>
-      <c r="D27" s="15"/>
-      <c r="E27" s="15"/>
-      <c r="F27" s="21"/>
-      <c r="G27" s="27"/>
-      <c r="H27" s="26"/>
-    </row>
-    <row r="28" spans="2:8" ht="15">
+      <c r="C27" s="22"/>
+      <c r="D27" s="16"/>
+      <c r="E27" s="16"/>
+      <c r="F27" s="17"/>
+      <c r="G27" s="26"/>
+      <c r="H27" s="25"/>
+      <c r="I27" s="26"/>
+    </row>
+    <row r="28" spans="2:9" ht="15.75" customHeight="1">
       <c r="B28" s="15">
         <v>26</v>
       </c>
-      <c r="C28" s="23"/>
-      <c r="D28" s="31"/>
-      <c r="E28" s="31"/>
-      <c r="F28" s="21"/>
-      <c r="G28" s="27"/>
-      <c r="H28" s="26"/>
-    </row>
-    <row r="29" spans="2:8">
+      <c r="C28" s="22"/>
+      <c r="D28" s="15"/>
+      <c r="E28" s="15"/>
+      <c r="F28" s="17"/>
+      <c r="G28" s="26"/>
+      <c r="H28" s="25"/>
+      <c r="I28" s="26"/>
+    </row>
+    <row r="29" spans="2:9" ht="15.75" customHeight="1">
       <c r="B29" s="15">
         <v>27</v>
       </c>
-      <c r="C29" s="23"/>
+      <c r="C29" s="22"/>
       <c r="D29" s="15"/>
       <c r="E29" s="15"/>
-      <c r="F29" s="21"/>
-      <c r="G29" s="30"/>
-      <c r="H29" s="26"/>
-    </row>
-    <row r="30" spans="2:8" ht="15">
+      <c r="F29" s="17"/>
+      <c r="G29" s="29"/>
+      <c r="H29" s="17"/>
+      <c r="I29" s="26"/>
+    </row>
+    <row r="30" spans="2:9" ht="15.75" customHeight="1">
       <c r="B30" s="15">
         <v>28</v>
       </c>
-      <c r="C30" s="23"/>
-      <c r="D30" s="31"/>
-      <c r="E30" s="31"/>
-      <c r="F30" s="21"/>
-      <c r="G30" s="30"/>
-      <c r="H30" s="26"/>
-    </row>
-    <row r="31" spans="2:8">
+      <c r="C30" s="22"/>
+      <c r="D30" s="15"/>
+      <c r="E30" s="15"/>
+      <c r="F30" s="17"/>
+      <c r="G30" s="29"/>
+      <c r="H30" s="25"/>
+      <c r="I30" s="26"/>
+    </row>
+    <row r="31" spans="2:9" ht="15.75" customHeight="1">
       <c r="B31" s="15">
         <v>29</v>
       </c>
-      <c r="C31" s="23"/>
+      <c r="C31" s="22"/>
       <c r="D31" s="15"/>
       <c r="E31" s="15"/>
-      <c r="F31" s="21"/>
-      <c r="G31" s="30"/>
-      <c r="H31" s="26"/>
-    </row>
-    <row r="32" spans="2:8" ht="15">
+      <c r="F31" s="17"/>
+      <c r="G31" s="29"/>
+      <c r="H31" s="25"/>
+      <c r="I31" s="26"/>
+    </row>
+    <row r="32" spans="2:9" ht="15.75" customHeight="1">
       <c r="B32" s="15">
         <v>30</v>
       </c>
-      <c r="C32" s="23"/>
+      <c r="C32" s="22"/>
       <c r="D32" s="15"/>
       <c r="E32" s="15"/>
-      <c r="F32" s="21"/>
-      <c r="G32" s="27"/>
-      <c r="H32" s="26"/>
-    </row>
-    <row r="33" spans="2:8" ht="15">
+      <c r="F32" s="17"/>
+      <c r="G32" s="26"/>
+      <c r="H32" s="17"/>
+      <c r="I32" s="26"/>
+    </row>
+    <row r="33" spans="2:9" ht="15.75" customHeight="1">
       <c r="B33" s="15">
         <v>31</v>
       </c>
-      <c r="C33" s="23"/>
+      <c r="C33" s="22"/>
       <c r="D33" s="15"/>
       <c r="E33" s="15"/>
-      <c r="F33" s="21"/>
-      <c r="G33" s="27"/>
-      <c r="H33" s="26"/>
-    </row>
-    <row r="34" spans="2:8" ht="15">
+      <c r="F33" s="17"/>
+      <c r="G33" s="26"/>
+      <c r="H33" s="17"/>
+      <c r="I33" s="26"/>
+    </row>
+    <row r="34" spans="2:9" ht="15.75" customHeight="1">
       <c r="B34" s="15">
         <v>32</v>
       </c>
-      <c r="C34" s="23"/>
-      <c r="D34" s="31"/>
-      <c r="E34" s="31"/>
-      <c r="F34" s="21"/>
-      <c r="G34" s="27"/>
-      <c r="H34" s="26"/>
-    </row>
-    <row r="35" spans="2:8" ht="15">
+      <c r="C34" s="22"/>
+      <c r="D34" s="15"/>
+      <c r="E34" s="15"/>
+      <c r="F34" s="17"/>
+      <c r="G34" s="26"/>
+      <c r="H34" s="17"/>
+      <c r="I34" s="26"/>
+    </row>
+    <row r="35" spans="2:9" ht="15.75" customHeight="1">
       <c r="B35" s="15">
         <v>33</v>
       </c>
-      <c r="C35" s="23"/>
-      <c r="D35" s="31"/>
-      <c r="E35" s="31"/>
-      <c r="F35" s="21"/>
-      <c r="G35" s="27"/>
-      <c r="H35" s="26"/>
-    </row>
-    <row r="36" spans="2:8" ht="15">
+      <c r="C35" s="22"/>
+      <c r="D35" s="15"/>
+      <c r="E35" s="15"/>
+      <c r="F35" s="17"/>
+      <c r="G35" s="26"/>
+      <c r="H35" s="17"/>
+      <c r="I35" s="26"/>
+    </row>
+    <row r="36" spans="2:9" ht="15.75" customHeight="1">
       <c r="B36" s="15">
         <v>34</v>
       </c>
-      <c r="C36" s="23"/>
-      <c r="D36" s="31"/>
-      <c r="E36" s="31"/>
-      <c r="F36" s="21"/>
-      <c r="G36" s="27"/>
-      <c r="H36" s="26"/>
-    </row>
-    <row r="37" spans="2:8" ht="15">
+      <c r="C36" s="22"/>
+      <c r="D36" s="17"/>
+      <c r="E36" s="17"/>
+      <c r="F36" s="17"/>
+      <c r="G36" s="17"/>
+      <c r="H36" s="17"/>
+      <c r="I36" s="26"/>
+    </row>
+    <row r="37" spans="2:9" ht="15.75" customHeight="1">
       <c r="B37" s="15">
         <v>35</v>
       </c>
-      <c r="C37" s="23"/>
-      <c r="D37" s="31"/>
-      <c r="E37" s="31"/>
-      <c r="F37" s="21"/>
-      <c r="G37" s="27"/>
-      <c r="H37" s="26"/>
-    </row>
-    <row r="38" spans="2:8" ht="15">
+      <c r="C37" s="22"/>
+      <c r="D37" s="15"/>
+      <c r="E37" s="15"/>
+      <c r="F37" s="17"/>
+      <c r="G37" s="26"/>
+      <c r="H37" s="17"/>
+      <c r="I37" s="17"/>
+    </row>
+    <row r="38" spans="2:9" ht="15.75" customHeight="1">
       <c r="B38" s="15">
         <v>36</v>
       </c>
-      <c r="C38" s="23"/>
-      <c r="D38" s="31"/>
-      <c r="E38" s="31"/>
-      <c r="F38" s="21"/>
-      <c r="G38" s="27"/>
-      <c r="H38" s="26"/>
-    </row>
-    <row r="39" spans="2:8" ht="15">
+      <c r="C38" s="22"/>
+      <c r="D38" s="15"/>
+      <c r="E38" s="15"/>
+      <c r="F38" s="17"/>
+      <c r="G38" s="29"/>
+      <c r="H38" s="17"/>
+      <c r="I38" s="17"/>
+    </row>
+    <row r="39" spans="2:9" ht="15.75" customHeight="1">
       <c r="B39" s="15">
         <v>37</v>
       </c>
-      <c r="C39" s="23"/>
-      <c r="D39" s="31"/>
-      <c r="E39" s="31"/>
-      <c r="F39" s="21"/>
-      <c r="G39" s="27"/>
-      <c r="H39" s="26"/>
-    </row>
-    <row r="40" spans="2:8" ht="15">
+      <c r="C39" s="22"/>
+      <c r="D39" s="15"/>
+      <c r="E39" s="15"/>
+      <c r="F39" s="17"/>
+      <c r="G39" s="26"/>
+      <c r="H39" s="17"/>
+      <c r="I39" s="17"/>
+    </row>
+    <row r="40" spans="2:9" ht="15.75" customHeight="1">
       <c r="B40" s="15">
         <v>38</v>
       </c>
-      <c r="C40" s="23"/>
-      <c r="D40" s="31"/>
-      <c r="E40" s="31"/>
-      <c r="F40" s="21"/>
-      <c r="G40" s="27"/>
-      <c r="H40" s="26"/>
-    </row>
-    <row r="41" spans="2:8" ht="15.75" customHeight="1">
+      <c r="C40" s="22"/>
+      <c r="D40" s="15"/>
+      <c r="E40" s="15"/>
+      <c r="F40" s="17"/>
+      <c r="G40" s="26"/>
+      <c r="H40" s="17"/>
+      <c r="I40" s="17"/>
+    </row>
+    <row r="41" spans="2:9" ht="15.75" customHeight="1">
       <c r="B41" s="15">
         <v>39</v>
       </c>
-      <c r="C41" s="23"/>
-      <c r="D41" s="31"/>
-      <c r="E41" s="31"/>
-      <c r="F41" s="21"/>
-      <c r="G41" s="27"/>
-      <c r="H41" s="26"/>
-    </row>
-    <row r="42" spans="2:8" ht="15">
+      <c r="C41" s="22"/>
+      <c r="D41" s="15"/>
+      <c r="E41" s="15"/>
+      <c r="F41" s="17"/>
+      <c r="G41" s="29"/>
+      <c r="H41" s="17"/>
+      <c r="I41" s="17"/>
+    </row>
+    <row r="42" spans="2:9" ht="15.75" customHeight="1">
       <c r="B42" s="15">
         <v>40</v>
       </c>
-      <c r="C42" s="23"/>
-      <c r="D42" s="31"/>
-      <c r="E42" s="31"/>
-      <c r="F42" s="21"/>
-      <c r="G42" s="27"/>
-      <c r="H42" s="26"/>
-    </row>
-    <row r="43" spans="2:8" ht="15">
+      <c r="C42" s="22"/>
+      <c r="D42" s="15"/>
+      <c r="E42" s="15"/>
+      <c r="F42" s="17"/>
+      <c r="G42" s="29"/>
+      <c r="H42" s="17"/>
+      <c r="I42" s="26"/>
+    </row>
+    <row r="43" spans="2:9" ht="15.75" customHeight="1">
       <c r="B43" s="15">
         <v>41</v>
       </c>
-      <c r="C43" s="23"/>
-      <c r="D43" s="31"/>
-      <c r="E43" s="31"/>
-      <c r="F43" s="21"/>
-      <c r="G43" s="27"/>
-      <c r="H43" s="26"/>
-    </row>
-    <row r="44" spans="2:8" ht="15">
+      <c r="C43" s="22"/>
+      <c r="D43" s="15"/>
+      <c r="E43" s="15"/>
+      <c r="F43" s="17"/>
+      <c r="G43" s="29"/>
+      <c r="H43" s="17"/>
+      <c r="I43" s="17"/>
+    </row>
+    <row r="44" spans="2:9" ht="15.75" customHeight="1">
       <c r="B44" s="15">
         <v>42</v>
       </c>
-      <c r="C44" s="23"/>
-      <c r="D44" s="31"/>
-      <c r="E44" s="31"/>
-      <c r="F44" s="21"/>
-      <c r="G44" s="27"/>
-      <c r="H44" s="26"/>
-    </row>
-    <row r="45" spans="2:8" ht="15">
+      <c r="C44" s="22"/>
+      <c r="D44" s="15"/>
+      <c r="E44" s="15"/>
+      <c r="F44" s="17"/>
+      <c r="G44" s="29"/>
+      <c r="H44" s="17"/>
+      <c r="I44" s="26"/>
+    </row>
+    <row r="45" spans="2:9" ht="15.75" customHeight="1">
       <c r="B45" s="15">
         <v>43</v>
       </c>
-      <c r="C45" s="23"/>
-      <c r="D45" s="31"/>
-      <c r="E45" s="31"/>
-      <c r="F45" s="21"/>
-      <c r="G45" s="27"/>
-      <c r="H45" s="26"/>
+      <c r="C45" s="22"/>
+      <c r="D45" s="15"/>
+      <c r="E45" s="15"/>
+      <c r="F45" s="17"/>
+      <c r="G45" s="26"/>
+      <c r="H45" s="17"/>
+      <c r="I45" s="26"/>
+    </row>
+    <row r="46" spans="2:9" ht="15.75" customHeight="1">
+      <c r="B46" s="15">
+        <v>44</v>
+      </c>
+      <c r="C46" s="22"/>
+      <c r="D46" s="15"/>
+      <c r="E46" s="15"/>
+      <c r="F46" s="29"/>
+      <c r="G46" s="29"/>
+      <c r="H46" s="17"/>
+      <c r="I46" s="19"/>
+    </row>
+    <row r="47" spans="2:9" ht="15.75" customHeight="1">
+      <c r="B47" s="15">
+        <v>45</v>
+      </c>
+      <c r="C47" s="22"/>
+      <c r="D47" s="15"/>
+      <c r="E47" s="15"/>
+      <c r="F47" s="17"/>
+      <c r="G47" s="26"/>
+      <c r="H47" s="17"/>
+      <c r="I47" s="26"/>
+    </row>
+    <row r="48" spans="2:9" ht="15.75" customHeight="1">
+      <c r="B48" s="15">
+        <v>46</v>
+      </c>
+      <c r="C48" s="22"/>
+      <c r="D48" s="15"/>
+      <c r="E48" s="15"/>
+      <c r="F48" s="17"/>
+      <c r="G48" s="17"/>
+      <c r="H48" s="17"/>
+      <c r="I48" s="26"/>
+    </row>
+    <row r="49" spans="2:9" ht="15.75" customHeight="1">
+      <c r="B49" s="15">
+        <v>47</v>
+      </c>
+      <c r="C49" s="22"/>
+      <c r="D49" s="15"/>
+      <c r="E49" s="15"/>
+      <c r="F49" s="17"/>
+      <c r="G49" s="17"/>
+      <c r="H49" s="17"/>
+      <c r="I49" s="17"/>
+    </row>
+    <row r="50" spans="2:9" ht="15.75" customHeight="1">
+      <c r="B50" s="15">
+        <v>48</v>
+      </c>
+      <c r="C50" s="22"/>
+      <c r="D50" s="15"/>
+      <c r="E50" s="15"/>
+      <c r="F50" s="17"/>
+      <c r="G50" s="17"/>
+      <c r="H50" s="17"/>
+      <c r="I50" s="17"/>
+    </row>
+    <row r="51" spans="2:9" ht="15.75" customHeight="1">
+      <c r="B51" s="15">
+        <v>49</v>
+      </c>
+      <c r="C51" s="22"/>
+      <c r="D51" s="15"/>
+      <c r="E51" s="15"/>
+      <c r="F51" s="17"/>
+      <c r="G51" s="17"/>
+      <c r="H51" s="17"/>
+      <c r="I51" s="26"/>
+    </row>
+    <row r="52" spans="2:9" ht="15.75" customHeight="1">
+      <c r="B52" s="15">
+        <v>50</v>
+      </c>
+      <c r="C52" s="22"/>
+      <c r="D52" s="15"/>
+      <c r="E52" s="15"/>
+      <c r="F52" s="17"/>
+      <c r="G52" s="17"/>
+      <c r="H52" s="17"/>
+      <c r="I52" s="17"/>
+    </row>
+    <row r="53" spans="2:9" ht="15.75" customHeight="1">
+      <c r="B53" s="15">
+        <v>51</v>
+      </c>
+      <c r="C53" s="22"/>
+      <c r="D53" s="15"/>
+      <c r="E53" s="15"/>
+      <c r="F53" s="17"/>
+      <c r="G53" s="17"/>
+      <c r="H53" s="17"/>
+      <c r="I53" s="17"/>
+    </row>
+    <row r="54" spans="2:9" ht="15.75" customHeight="1">
+      <c r="B54" s="15">
+        <v>52</v>
+      </c>
+      <c r="C54" s="22"/>
+      <c r="D54" s="15"/>
+      <c r="E54" s="15"/>
+      <c r="F54" s="17"/>
+      <c r="G54" s="17"/>
+      <c r="H54" s="17"/>
+      <c r="I54" s="17"/>
+    </row>
+    <row r="55" spans="2:9" ht="15.75" customHeight="1">
+      <c r="B55" s="15">
+        <v>53</v>
+      </c>
+      <c r="C55" s="22"/>
+      <c r="D55" s="15"/>
+      <c r="E55" s="15"/>
+      <c r="F55" s="17"/>
+      <c r="G55" s="17"/>
+      <c r="H55" s="17"/>
+      <c r="I55" s="17"/>
+    </row>
+    <row r="56" spans="2:9" ht="15.75" customHeight="1">
+      <c r="B56" s="15">
+        <v>54</v>
+      </c>
+      <c r="C56" s="22"/>
+      <c r="D56" s="15"/>
+      <c r="E56" s="15"/>
+      <c r="F56" s="17"/>
+      <c r="G56" s="17"/>
+      <c r="H56" s="17"/>
+      <c r="I56" s="26"/>
+    </row>
+    <row r="57" spans="2:9" ht="15.75" customHeight="1">
+      <c r="B57" s="15">
+        <v>55</v>
+      </c>
+      <c r="C57" s="22"/>
+      <c r="D57" s="15"/>
+      <c r="E57" s="15"/>
+      <c r="F57" s="17"/>
+      <c r="G57" s="17"/>
+      <c r="H57" s="17"/>
+      <c r="I57" s="26"/>
+    </row>
+    <row r="58" spans="2:9" ht="15.75" customHeight="1">
+      <c r="B58" s="15">
+        <v>56</v>
+      </c>
+      <c r="C58" s="22"/>
+      <c r="D58" s="15"/>
+      <c r="E58" s="15"/>
+      <c r="F58" s="17"/>
+      <c r="G58" s="17"/>
+      <c r="H58" s="17"/>
+      <c r="I58" s="26"/>
+    </row>
+    <row r="59" spans="2:9" ht="15.75" customHeight="1">
+      <c r="B59" s="15">
+        <v>57</v>
+      </c>
+      <c r="C59" s="22"/>
+      <c r="D59" s="15"/>
+      <c r="E59" s="15"/>
+      <c r="F59" s="17"/>
+      <c r="G59" s="17"/>
+      <c r="H59" s="17"/>
+      <c r="I59" s="26"/>
+    </row>
+    <row r="60" spans="2:9" ht="15.75" customHeight="1">
+      <c r="B60" s="15">
+        <v>58</v>
+      </c>
+      <c r="C60" s="22"/>
+      <c r="D60" s="15"/>
+      <c r="E60" s="15"/>
+      <c r="F60" s="17"/>
+      <c r="G60" s="17"/>
+      <c r="H60" s="17"/>
+      <c r="I60" s="26"/>
+    </row>
+    <row r="61" spans="2:9" ht="15.75" customHeight="1">
+      <c r="B61" s="15">
+        <v>59</v>
+      </c>
+      <c r="C61" s="22"/>
+      <c r="D61" s="15"/>
+      <c r="E61" s="15"/>
+      <c r="F61" s="17"/>
+      <c r="G61" s="17"/>
+      <c r="H61" s="17"/>
+      <c r="I61" s="26"/>
+    </row>
+    <row r="62" spans="2:9" ht="15.75" customHeight="1">
+      <c r="B62" s="15">
+        <v>60</v>
+      </c>
+      <c r="C62" s="22"/>
+      <c r="D62" s="15"/>
+      <c r="E62" s="15"/>
+      <c r="F62" s="17"/>
+      <c r="G62" s="17"/>
+      <c r="H62" s="17"/>
+      <c r="I62" s="26"/>
+    </row>
+    <row r="63" spans="2:9" ht="15.75" customHeight="1">
+      <c r="B63" s="15">
+        <v>61</v>
+      </c>
+      <c r="C63" s="22"/>
+      <c r="D63" s="15"/>
+      <c r="E63" s="15"/>
+      <c r="F63" s="17"/>
+      <c r="G63" s="17"/>
+      <c r="H63" s="17"/>
+      <c r="I63" s="26"/>
+    </row>
+    <row r="64" spans="2:9" ht="15.75" customHeight="1">
+      <c r="B64" s="15">
+        <v>62</v>
+      </c>
+      <c r="C64" s="22"/>
+      <c r="D64" s="15"/>
+      <c r="E64" s="15"/>
+      <c r="F64" s="17"/>
+      <c r="G64" s="17"/>
+      <c r="H64" s="17"/>
+      <c r="I64" s="26"/>
+    </row>
+    <row r="65" spans="2:9" ht="15.75" customHeight="1">
+      <c r="B65" s="15">
+        <v>63</v>
+      </c>
+      <c r="C65" s="22"/>
+      <c r="D65" s="15"/>
+      <c r="E65" s="15"/>
+      <c r="F65" s="17"/>
+      <c r="G65" s="17"/>
+      <c r="H65" s="17"/>
+      <c r="I65" s="17" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="66" spans="2:9" ht="15.75" customHeight="1">
+      <c r="B66" s="15">
+        <v>64</v>
+      </c>
+      <c r="C66" s="22"/>
+      <c r="D66" s="15"/>
+      <c r="E66" s="15"/>
+      <c r="F66" s="17"/>
+      <c r="G66" s="17"/>
+      <c r="H66" s="17"/>
+      <c r="I66" s="26"/>
+    </row>
+    <row r="67" spans="2:9" ht="15.75" customHeight="1">
+      <c r="B67" s="15">
+        <v>65</v>
+      </c>
+      <c r="C67" s="22"/>
+      <c r="D67" s="15"/>
+      <c r="E67" s="15"/>
+      <c r="F67" s="17"/>
+      <c r="G67" s="17"/>
+      <c r="H67" s="17"/>
+      <c r="I67" s="26"/>
+    </row>
+    <row r="68" spans="2:9" ht="15.75" customHeight="1">
+      <c r="B68" s="15">
+        <v>66</v>
+      </c>
+      <c r="C68" s="22"/>
+      <c r="D68" s="15"/>
+      <c r="E68" s="15"/>
+      <c r="F68" s="17"/>
+      <c r="G68" s="26"/>
+      <c r="H68" s="17"/>
+      <c r="I68" s="26"/>
+    </row>
+    <row r="69" spans="2:9" ht="15.75" customHeight="1">
+      <c r="B69" s="15">
+        <v>67</v>
+      </c>
+      <c r="C69" s="22"/>
+      <c r="D69" s="15"/>
+      <c r="E69" s="15"/>
+      <c r="F69" s="17"/>
+      <c r="G69" s="26"/>
+      <c r="H69" s="17"/>
+      <c r="I69" s="26"/>
+    </row>
+    <row r="70" spans="2:9" ht="15.75" customHeight="1">
+      <c r="B70" s="15">
+        <v>68</v>
+      </c>
+      <c r="C70" s="22"/>
+      <c r="D70" s="15"/>
+      <c r="E70" s="15"/>
+      <c r="F70" s="17"/>
+      <c r="G70" s="26"/>
+      <c r="H70" s="17"/>
+      <c r="I70" s="26"/>
+    </row>
+    <row r="71" spans="2:9" ht="15.75" customHeight="1">
+      <c r="B71" s="15">
+        <v>69</v>
+      </c>
+      <c r="C71" s="22"/>
+      <c r="D71" s="15"/>
+      <c r="E71" s="15"/>
+      <c r="F71" s="17"/>
+      <c r="G71" s="26"/>
+      <c r="H71" s="17"/>
+      <c r="I71" s="26"/>
+    </row>
+    <row r="72" spans="2:9" ht="15.75" customHeight="1">
+      <c r="B72" s="15">
+        <v>70</v>
+      </c>
+      <c r="C72" s="22"/>
+      <c r="D72" s="15"/>
+      <c r="E72" s="15"/>
+      <c r="F72" s="17"/>
+      <c r="G72" s="26"/>
+      <c r="H72" s="17"/>
+      <c r="I72" s="26"/>
+    </row>
+    <row r="73" spans="2:9" ht="15.75" customHeight="1">
+      <c r="B73" s="15">
+        <v>71</v>
+      </c>
+      <c r="C73" s="22"/>
+      <c r="D73" s="15"/>
+      <c r="E73" s="15"/>
+      <c r="F73" s="17"/>
+      <c r="G73" s="26"/>
+      <c r="H73" s="17"/>
+      <c r="I73" s="26"/>
+    </row>
+    <row r="74" spans="2:9" ht="15.75" customHeight="1">
+      <c r="B74" s="15">
+        <v>72</v>
+      </c>
+      <c r="C74" s="22"/>
+      <c r="D74" s="15"/>
+      <c r="E74" s="15"/>
+      <c r="F74" s="17"/>
+      <c r="G74" s="26"/>
+      <c r="H74" s="17"/>
+      <c r="I74" s="26"/>
+    </row>
+    <row r="75" spans="2:9" ht="15.75" customHeight="1">
+      <c r="B75" s="15">
+        <v>73</v>
+      </c>
+      <c r="C75" s="22"/>
+      <c r="D75" s="15"/>
+      <c r="E75" s="15"/>
+      <c r="F75" s="17"/>
+      <c r="G75" s="26"/>
+      <c r="H75" s="17"/>
+      <c r="I75" s="26"/>
+    </row>
+    <row r="76" spans="2:9" ht="15.75" customHeight="1">
+      <c r="B76" s="15">
+        <v>74</v>
+      </c>
+      <c r="C76" s="22"/>
+      <c r="D76" s="15"/>
+      <c r="E76" s="15"/>
+      <c r="F76" s="17"/>
+      <c r="G76" s="29"/>
+      <c r="H76" s="17"/>
+      <c r="I76" s="26"/>
+    </row>
+    <row r="77" spans="2:9" ht="15.75" customHeight="1">
+      <c r="B77" s="15">
+        <v>75</v>
+      </c>
+      <c r="C77" s="22"/>
+      <c r="D77" s="15"/>
+      <c r="E77" s="15"/>
+      <c r="F77" s="17"/>
+      <c r="G77" s="26"/>
+      <c r="H77" s="25"/>
+      <c r="I77" s="26"/>
+    </row>
+    <row r="78" spans="2:9" ht="15.75" customHeight="1">
+      <c r="B78" s="15">
+        <v>76</v>
+      </c>
+      <c r="C78" s="22"/>
+      <c r="D78" s="15"/>
+      <c r="E78" s="15"/>
+      <c r="F78" s="17"/>
+      <c r="G78" s="26"/>
+      <c r="H78" s="25"/>
+      <c r="I78" s="26"/>
+    </row>
+    <row r="79" spans="2:9" ht="15.75" customHeight="1">
+      <c r="B79" s="15">
+        <v>77</v>
+      </c>
+      <c r="C79" s="22"/>
+      <c r="D79" s="15"/>
+      <c r="E79" s="15"/>
+      <c r="F79" s="17"/>
+      <c r="G79" s="26"/>
+      <c r="H79" s="25"/>
+      <c r="I79" s="26"/>
+    </row>
+    <row r="80" spans="2:9" ht="15.75" customHeight="1">
+      <c r="B80" s="15">
+        <v>78</v>
+      </c>
+      <c r="C80" s="22"/>
+      <c r="D80" s="15"/>
+      <c r="E80" s="15"/>
+      <c r="F80" s="17"/>
+      <c r="G80" s="26"/>
+      <c r="H80" s="25"/>
+      <c r="I80" s="26"/>
+    </row>
+    <row r="81" spans="2:9" ht="15.75" customHeight="1">
+      <c r="B81" s="15">
+        <v>79</v>
+      </c>
+      <c r="C81" s="30"/>
+      <c r="D81" s="31"/>
+      <c r="E81" s="31"/>
+      <c r="F81" s="17"/>
+      <c r="G81" s="26"/>
+      <c r="H81" s="25"/>
+      <c r="I81" s="26"/>
+    </row>
+    <row r="82" spans="2:9" ht="15.75" customHeight="1">
+      <c r="B82" s="15">
+        <v>80</v>
+      </c>
+      <c r="C82" s="30"/>
+      <c r="D82" s="31"/>
+      <c r="E82" s="31"/>
+      <c r="F82" s="17"/>
+      <c r="G82" s="26"/>
+      <c r="H82" s="25"/>
+      <c r="I82" s="26"/>
+    </row>
+    <row r="83" spans="2:9" ht="15.75" customHeight="1">
+      <c r="B83" s="15">
+        <v>81</v>
+      </c>
+      <c r="C83" s="30"/>
+      <c r="D83" s="31"/>
+      <c r="E83" s="31"/>
+      <c r="F83" s="17"/>
+      <c r="G83" s="26"/>
+      <c r="H83" s="25"/>
+      <c r="I83" s="26"/>
+    </row>
+    <row r="84" spans="2:9" ht="15.75" customHeight="1">
+      <c r="B84" s="15">
+        <v>82</v>
+      </c>
+      <c r="C84" s="30"/>
+      <c r="D84" s="31"/>
+      <c r="E84" s="31"/>
+      <c r="F84" s="17"/>
+      <c r="G84" s="26"/>
+      <c r="H84" s="25"/>
+      <c r="I84" s="26"/>
+    </row>
+    <row r="85" spans="2:9" ht="15.75" customHeight="1">
+      <c r="B85" s="15">
+        <v>83</v>
+      </c>
+      <c r="C85" s="30"/>
+      <c r="D85" s="31"/>
+      <c r="E85" s="31"/>
+      <c r="F85" s="17"/>
+      <c r="G85" s="26"/>
+      <c r="H85" s="25"/>
+      <c r="I85" s="26"/>
+    </row>
+    <row r="86" spans="2:9" ht="15.75" customHeight="1">
+      <c r="B86" s="15">
+        <v>84</v>
+      </c>
+      <c r="C86" s="30"/>
+      <c r="D86" s="31"/>
+      <c r="E86" s="31"/>
+      <c r="F86" s="17"/>
+      <c r="G86" s="26"/>
+      <c r="H86" s="25"/>
+      <c r="I86" s="26"/>
+    </row>
+    <row r="87" spans="2:9" ht="15.75" customHeight="1">
+      <c r="B87" s="15">
+        <v>85</v>
+      </c>
+      <c r="C87" s="30"/>
+      <c r="D87" s="31"/>
+      <c r="E87" s="31"/>
+      <c r="F87" s="17"/>
+      <c r="G87" s="26"/>
+      <c r="H87" s="25"/>
+      <c r="I87" s="26"/>
+    </row>
+    <row r="88" spans="2:9" ht="15.75" customHeight="1">
+      <c r="B88" s="15">
+        <v>86</v>
+      </c>
+      <c r="C88" s="30"/>
+      <c r="D88" s="31"/>
+      <c r="E88" s="31"/>
+      <c r="F88" s="17"/>
+      <c r="G88" s="26"/>
+      <c r="H88" s="25"/>
+      <c r="I88" s="26"/>
+    </row>
+    <row r="89" spans="2:9" ht="15.75" customHeight="1">
+      <c r="B89" s="15">
+        <v>87</v>
+      </c>
+      <c r="C89" s="30"/>
+      <c r="D89" s="31"/>
+      <c r="E89" s="31"/>
+      <c r="F89" s="17"/>
+      <c r="G89" s="26"/>
+      <c r="H89" s="25"/>
+      <c r="I89" s="26"/>
+    </row>
+    <row r="90" spans="2:9" ht="15.75" customHeight="1">
+      <c r="B90" s="15">
+        <v>88</v>
+      </c>
+      <c r="C90" s="30"/>
+      <c r="D90" s="31"/>
+      <c r="E90" s="31"/>
+      <c r="F90" s="17"/>
+      <c r="G90" s="26"/>
+      <c r="H90" s="25"/>
+      <c r="I90" s="26"/>
+    </row>
+    <row r="91" spans="2:9" ht="15.75" customHeight="1">
+      <c r="B91" s="15">
+        <v>89</v>
+      </c>
+      <c r="C91" s="30"/>
+      <c r="D91" s="31"/>
+      <c r="E91" s="31"/>
+      <c r="F91" s="17"/>
+      <c r="G91" s="26"/>
+      <c r="H91" s="25"/>
+      <c r="I91" s="26"/>
+    </row>
+    <row r="92" spans="2:9" ht="15.75" customHeight="1">
+      <c r="B92" s="15">
+        <v>90</v>
+      </c>
+      <c r="C92" s="30"/>
+      <c r="D92" s="31"/>
+      <c r="E92" s="31"/>
+      <c r="F92" s="17"/>
+      <c r="G92" s="26"/>
+      <c r="H92" s="25"/>
+      <c r="I92" s="26"/>
+    </row>
+    <row r="93" spans="2:9" ht="15.75" customHeight="1">
+      <c r="B93" s="15">
+        <v>91</v>
+      </c>
+      <c r="C93" s="30"/>
+      <c r="D93" s="31"/>
+      <c r="E93" s="31"/>
+      <c r="F93" s="17"/>
+      <c r="G93" s="26"/>
+      <c r="H93" s="25"/>
+      <c r="I93" s="26"/>
+    </row>
+    <row r="94" spans="2:9" ht="15.75" customHeight="1">
+      <c r="B94" s="15">
+        <v>92</v>
+      </c>
+      <c r="C94" s="30"/>
+      <c r="D94" s="31"/>
+      <c r="E94" s="31"/>
+      <c r="F94" s="17"/>
+      <c r="G94" s="26"/>
+      <c r="H94" s="25"/>
+      <c r="I94" s="26"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5479,6 +6980,1231 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I94"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane xSplit="3" ySplit="2" topLeftCell="D4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="G7" sqref="G7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.25"/>
+  <cols>
+    <col min="1" max="1" width="2.42578125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="5.7109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="13.28515625" style="2" customWidth="1"/>
+    <col min="4" max="5" width="24.7109375" style="3" customWidth="1"/>
+    <col min="6" max="6" width="42.5703125" style="4" customWidth="1"/>
+    <col min="7" max="7" width="105.28515625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="58.140625" style="5" customWidth="1"/>
+    <col min="9" max="9" width="68.5703125" style="1" customWidth="1"/>
+    <col min="10" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="27.75" customHeight="1">
+      <c r="A1" s="6"/>
+      <c r="B1" s="7"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="10"/>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2" s="6"/>
+      <c r="B2" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="G2" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="H2" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="I2" s="14" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="99.75">
+      <c r="A3" s="6"/>
+      <c r="B3" s="15">
+        <v>1</v>
+      </c>
+      <c r="C3" s="16">
+        <v>44893</v>
+      </c>
+      <c r="D3" s="16" t="s">
+        <v>346</v>
+      </c>
+      <c r="E3" s="16" t="s">
+        <v>347</v>
+      </c>
+      <c r="F3" s="17" t="s">
+        <v>348</v>
+      </c>
+      <c r="G3" s="18" t="s">
+        <v>349</v>
+      </c>
+      <c r="H3" s="19"/>
+      <c r="I3" s="26"/>
+    </row>
+    <row r="4" spans="1:9" ht="128.25">
+      <c r="A4" s="6"/>
+      <c r="B4" s="15">
+        <v>2</v>
+      </c>
+      <c r="C4" s="16">
+        <v>44893</v>
+      </c>
+      <c r="D4" s="16" t="s">
+        <v>350</v>
+      </c>
+      <c r="E4" s="16" t="s">
+        <v>346</v>
+      </c>
+      <c r="F4" s="17" t="s">
+        <v>351</v>
+      </c>
+      <c r="G4" s="18" t="s">
+        <v>352</v>
+      </c>
+      <c r="H4" s="19"/>
+      <c r="I4" s="26"/>
+    </row>
+    <row r="5" spans="1:9" ht="172.5" customHeight="1">
+      <c r="A5" s="6"/>
+      <c r="B5" s="15">
+        <v>3</v>
+      </c>
+      <c r="C5" s="16">
+        <v>44977</v>
+      </c>
+      <c r="D5" s="16" t="s">
+        <v>353</v>
+      </c>
+      <c r="E5" s="16" t="s">
+        <v>350</v>
+      </c>
+      <c r="F5" s="17" t="s">
+        <v>354</v>
+      </c>
+      <c r="G5" s="18" t="s">
+        <v>355</v>
+      </c>
+      <c r="H5" s="19" t="s">
+        <v>356</v>
+      </c>
+      <c r="I5" s="26"/>
+    </row>
+    <row r="6" spans="1:9" ht="156.75">
+      <c r="A6" s="6"/>
+      <c r="B6" s="15">
+        <v>4</v>
+      </c>
+      <c r="C6" s="16">
+        <v>45023</v>
+      </c>
+      <c r="D6" s="16" t="s">
+        <v>357</v>
+      </c>
+      <c r="E6" s="16" t="s">
+        <v>353</v>
+      </c>
+      <c r="F6" s="17" t="s">
+        <v>358</v>
+      </c>
+      <c r="G6" s="20" t="s">
+        <v>360</v>
+      </c>
+      <c r="H6" s="19" t="s">
+        <v>359</v>
+      </c>
+      <c r="I6" s="26"/>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" s="6"/>
+      <c r="B7" s="15">
+        <v>5</v>
+      </c>
+      <c r="C7" s="16"/>
+      <c r="D7" s="16"/>
+      <c r="E7" s="16"/>
+      <c r="F7" s="17"/>
+      <c r="G7" s="20"/>
+      <c r="H7" s="17"/>
+      <c r="I7" s="26"/>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" s="21"/>
+      <c r="B8" s="15">
+        <v>6</v>
+      </c>
+      <c r="C8" s="16"/>
+      <c r="D8" s="16"/>
+      <c r="E8" s="16"/>
+      <c r="F8" s="17"/>
+      <c r="G8" s="20"/>
+      <c r="H8" s="17"/>
+      <c r="I8" s="26"/>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9" s="6"/>
+      <c r="B9" s="15">
+        <v>7</v>
+      </c>
+      <c r="C9" s="22"/>
+      <c r="D9" s="16"/>
+      <c r="E9" s="16"/>
+      <c r="F9" s="17"/>
+      <c r="G9" s="20"/>
+      <c r="H9" s="17"/>
+      <c r="I9" s="26"/>
+    </row>
+    <row r="10" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A10" s="6"/>
+      <c r="B10" s="15">
+        <v>8</v>
+      </c>
+      <c r="C10" s="22"/>
+      <c r="D10" s="16"/>
+      <c r="E10" s="16"/>
+      <c r="F10" s="18"/>
+      <c r="G10" s="23"/>
+      <c r="H10" s="17"/>
+      <c r="I10" s="26"/>
+    </row>
+    <row r="11" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A11" s="6"/>
+      <c r="B11" s="15">
+        <v>9</v>
+      </c>
+      <c r="C11" s="22"/>
+      <c r="D11" s="16"/>
+      <c r="E11" s="16"/>
+      <c r="F11" s="18"/>
+      <c r="G11" s="23"/>
+      <c r="H11" s="17"/>
+      <c r="I11" s="26"/>
+    </row>
+    <row r="12" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A12" s="6"/>
+      <c r="B12" s="15">
+        <v>10</v>
+      </c>
+      <c r="C12" s="22"/>
+      <c r="D12" s="16"/>
+      <c r="E12" s="16"/>
+      <c r="F12" s="18"/>
+      <c r="G12" s="20"/>
+      <c r="H12" s="17"/>
+      <c r="I12" s="26"/>
+    </row>
+    <row r="13" spans="1:9" ht="15.75" customHeight="1">
+      <c r="B13" s="15">
+        <v>11</v>
+      </c>
+      <c r="C13" s="22"/>
+      <c r="D13" s="24"/>
+      <c r="E13" s="24"/>
+      <c r="F13" s="25"/>
+      <c r="G13" s="26"/>
+      <c r="H13" s="25"/>
+      <c r="I13" s="26"/>
+    </row>
+    <row r="14" spans="1:9" ht="15.75" customHeight="1">
+      <c r="B14" s="15">
+        <v>12</v>
+      </c>
+      <c r="C14" s="22"/>
+      <c r="D14" s="24"/>
+      <c r="E14" s="24"/>
+      <c r="F14" s="25"/>
+      <c r="G14" s="26"/>
+      <c r="H14" s="17"/>
+      <c r="I14" s="26"/>
+    </row>
+    <row r="15" spans="1:9" ht="15.75" customHeight="1">
+      <c r="B15" s="15">
+        <v>13</v>
+      </c>
+      <c r="C15" s="22"/>
+      <c r="D15" s="16"/>
+      <c r="E15" s="16"/>
+      <c r="F15" s="18"/>
+      <c r="G15" s="23"/>
+      <c r="H15" s="17"/>
+      <c r="I15" s="26"/>
+    </row>
+    <row r="16" spans="1:9" ht="15.75" customHeight="1">
+      <c r="B16" s="15">
+        <v>14</v>
+      </c>
+      <c r="C16" s="22"/>
+      <c r="D16" s="24"/>
+      <c r="E16" s="24"/>
+      <c r="F16" s="18"/>
+      <c r="G16" s="23"/>
+      <c r="H16" s="25"/>
+      <c r="I16" s="26"/>
+    </row>
+    <row r="17" spans="2:9" ht="15.75" customHeight="1">
+      <c r="B17" s="15">
+        <v>15</v>
+      </c>
+      <c r="C17" s="22"/>
+      <c r="D17" s="16"/>
+      <c r="E17" s="16"/>
+      <c r="F17" s="18"/>
+      <c r="G17" s="23"/>
+      <c r="H17" s="25"/>
+      <c r="I17" s="26"/>
+    </row>
+    <row r="18" spans="2:9" ht="15.75" customHeight="1">
+      <c r="B18" s="15">
+        <v>16</v>
+      </c>
+      <c r="C18" s="22"/>
+      <c r="D18" s="24"/>
+      <c r="E18" s="24"/>
+      <c r="F18" s="25"/>
+      <c r="G18" s="26"/>
+      <c r="H18" s="25"/>
+      <c r="I18" s="26"/>
+    </row>
+    <row r="19" spans="2:9" ht="15.75" customHeight="1">
+      <c r="B19" s="15">
+        <v>17</v>
+      </c>
+      <c r="C19" s="22"/>
+      <c r="D19" s="15"/>
+      <c r="E19" s="15"/>
+      <c r="F19" s="17"/>
+      <c r="G19" s="26"/>
+      <c r="H19" s="25"/>
+      <c r="I19" s="26"/>
+    </row>
+    <row r="20" spans="2:9" ht="15.75" customHeight="1">
+      <c r="B20" s="15">
+        <v>18</v>
+      </c>
+      <c r="C20" s="27"/>
+      <c r="D20" s="16"/>
+      <c r="E20" s="16"/>
+      <c r="F20" s="17"/>
+      <c r="G20" s="28"/>
+      <c r="H20" s="28"/>
+      <c r="I20" s="26"/>
+    </row>
+    <row r="21" spans="2:9" ht="15.75" customHeight="1">
+      <c r="B21" s="15">
+        <v>19</v>
+      </c>
+      <c r="C21" s="22"/>
+      <c r="D21" s="15"/>
+      <c r="E21" s="15"/>
+      <c r="F21" s="17"/>
+      <c r="G21" s="26"/>
+      <c r="H21" s="25"/>
+      <c r="I21" s="26"/>
+    </row>
+    <row r="22" spans="2:9" ht="15.75" customHeight="1">
+      <c r="B22" s="15">
+        <v>20</v>
+      </c>
+      <c r="C22" s="27"/>
+      <c r="D22" s="16"/>
+      <c r="E22" s="16"/>
+      <c r="F22" s="17"/>
+      <c r="G22" s="28"/>
+      <c r="H22" s="25"/>
+      <c r="I22" s="26"/>
+    </row>
+    <row r="23" spans="2:9" ht="15.75" customHeight="1">
+      <c r="B23" s="15">
+        <v>21</v>
+      </c>
+      <c r="C23" s="22"/>
+      <c r="D23" s="15"/>
+      <c r="E23" s="15"/>
+      <c r="F23" s="17"/>
+      <c r="G23" s="28"/>
+      <c r="H23" s="25"/>
+      <c r="I23" s="26"/>
+    </row>
+    <row r="24" spans="2:9" ht="15.75" customHeight="1">
+      <c r="B24" s="15">
+        <v>22</v>
+      </c>
+      <c r="C24" s="22"/>
+      <c r="D24" s="16"/>
+      <c r="E24" s="16"/>
+      <c r="F24" s="17"/>
+      <c r="G24" s="29"/>
+      <c r="H24" s="25"/>
+      <c r="I24" s="26"/>
+    </row>
+    <row r="25" spans="2:9" ht="15.75" customHeight="1">
+      <c r="B25" s="15">
+        <v>23</v>
+      </c>
+      <c r="C25" s="22"/>
+      <c r="D25" s="15"/>
+      <c r="E25" s="15"/>
+      <c r="F25" s="17"/>
+      <c r="G25" s="26"/>
+      <c r="H25" s="25"/>
+      <c r="I25" s="26"/>
+    </row>
+    <row r="26" spans="2:9" ht="15.75" customHeight="1">
+      <c r="B26" s="15">
+        <v>24</v>
+      </c>
+      <c r="C26" s="22"/>
+      <c r="D26" s="16"/>
+      <c r="E26" s="16"/>
+      <c r="F26" s="17"/>
+      <c r="G26" s="26"/>
+      <c r="H26" s="17"/>
+      <c r="I26" s="26"/>
+    </row>
+    <row r="27" spans="2:9" ht="15.75" customHeight="1">
+      <c r="B27" s="15">
+        <v>25</v>
+      </c>
+      <c r="C27" s="22"/>
+      <c r="D27" s="16"/>
+      <c r="E27" s="16"/>
+      <c r="F27" s="17"/>
+      <c r="G27" s="26"/>
+      <c r="H27" s="25"/>
+      <c r="I27" s="26"/>
+    </row>
+    <row r="28" spans="2:9" ht="15.75" customHeight="1">
+      <c r="B28" s="15">
+        <v>26</v>
+      </c>
+      <c r="C28" s="22"/>
+      <c r="D28" s="15"/>
+      <c r="E28" s="15"/>
+      <c r="F28" s="17"/>
+      <c r="G28" s="26"/>
+      <c r="H28" s="25"/>
+      <c r="I28" s="26"/>
+    </row>
+    <row r="29" spans="2:9" ht="15.75" customHeight="1">
+      <c r="B29" s="15">
+        <v>27</v>
+      </c>
+      <c r="C29" s="22"/>
+      <c r="D29" s="15"/>
+      <c r="E29" s="15"/>
+      <c r="F29" s="17"/>
+      <c r="G29" s="29"/>
+      <c r="H29" s="17"/>
+      <c r="I29" s="26"/>
+    </row>
+    <row r="30" spans="2:9" ht="15.75" customHeight="1">
+      <c r="B30" s="15">
+        <v>28</v>
+      </c>
+      <c r="C30" s="22"/>
+      <c r="D30" s="15"/>
+      <c r="E30" s="15"/>
+      <c r="F30" s="17"/>
+      <c r="G30" s="29"/>
+      <c r="H30" s="25"/>
+      <c r="I30" s="26"/>
+    </row>
+    <row r="31" spans="2:9" ht="15.75" customHeight="1">
+      <c r="B31" s="15">
+        <v>29</v>
+      </c>
+      <c r="C31" s="22"/>
+      <c r="D31" s="15"/>
+      <c r="E31" s="15"/>
+      <c r="F31" s="17"/>
+      <c r="G31" s="29"/>
+      <c r="H31" s="25"/>
+      <c r="I31" s="26"/>
+    </row>
+    <row r="32" spans="2:9" ht="15.75" customHeight="1">
+      <c r="B32" s="15">
+        <v>30</v>
+      </c>
+      <c r="C32" s="22"/>
+      <c r="D32" s="15"/>
+      <c r="E32" s="15"/>
+      <c r="F32" s="17"/>
+      <c r="G32" s="26"/>
+      <c r="H32" s="17"/>
+      <c r="I32" s="26"/>
+    </row>
+    <row r="33" spans="2:9" ht="15.75" customHeight="1">
+      <c r="B33" s="15">
+        <v>31</v>
+      </c>
+      <c r="C33" s="22"/>
+      <c r="D33" s="15"/>
+      <c r="E33" s="15"/>
+      <c r="F33" s="17"/>
+      <c r="G33" s="26"/>
+      <c r="H33" s="17"/>
+      <c r="I33" s="26"/>
+    </row>
+    <row r="34" spans="2:9" ht="15.75" customHeight="1">
+      <c r="B34" s="15">
+        <v>32</v>
+      </c>
+      <c r="C34" s="22"/>
+      <c r="D34" s="15"/>
+      <c r="E34" s="15"/>
+      <c r="F34" s="17"/>
+      <c r="G34" s="26"/>
+      <c r="H34" s="17"/>
+      <c r="I34" s="26"/>
+    </row>
+    <row r="35" spans="2:9" ht="15.75" customHeight="1">
+      <c r="B35" s="15">
+        <v>33</v>
+      </c>
+      <c r="C35" s="22"/>
+      <c r="D35" s="15"/>
+      <c r="E35" s="15"/>
+      <c r="F35" s="17"/>
+      <c r="G35" s="26"/>
+      <c r="H35" s="17"/>
+      <c r="I35" s="26"/>
+    </row>
+    <row r="36" spans="2:9" ht="15.75" customHeight="1">
+      <c r="B36" s="15">
+        <v>34</v>
+      </c>
+      <c r="C36" s="22"/>
+      <c r="D36" s="17"/>
+      <c r="E36" s="17"/>
+      <c r="F36" s="17"/>
+      <c r="G36" s="17"/>
+      <c r="H36" s="17"/>
+      <c r="I36" s="26"/>
+    </row>
+    <row r="37" spans="2:9" ht="15.75" customHeight="1">
+      <c r="B37" s="15">
+        <v>35</v>
+      </c>
+      <c r="C37" s="22"/>
+      <c r="D37" s="15"/>
+      <c r="E37" s="15"/>
+      <c r="F37" s="17"/>
+      <c r="G37" s="26"/>
+      <c r="H37" s="17"/>
+      <c r="I37" s="17"/>
+    </row>
+    <row r="38" spans="2:9" ht="15.75" customHeight="1">
+      <c r="B38" s="15">
+        <v>36</v>
+      </c>
+      <c r="C38" s="22"/>
+      <c r="D38" s="15"/>
+      <c r="E38" s="15"/>
+      <c r="F38" s="17"/>
+      <c r="G38" s="29"/>
+      <c r="H38" s="17"/>
+      <c r="I38" s="17"/>
+    </row>
+    <row r="39" spans="2:9" ht="15.75" customHeight="1">
+      <c r="B39" s="15">
+        <v>37</v>
+      </c>
+      <c r="C39" s="22"/>
+      <c r="D39" s="15"/>
+      <c r="E39" s="15"/>
+      <c r="F39" s="17"/>
+      <c r="G39" s="26"/>
+      <c r="H39" s="17"/>
+      <c r="I39" s="17"/>
+    </row>
+    <row r="40" spans="2:9" ht="15.75" customHeight="1">
+      <c r="B40" s="15">
+        <v>38</v>
+      </c>
+      <c r="C40" s="22"/>
+      <c r="D40" s="15"/>
+      <c r="E40" s="15"/>
+      <c r="F40" s="17"/>
+      <c r="G40" s="26"/>
+      <c r="H40" s="17"/>
+      <c r="I40" s="17"/>
+    </row>
+    <row r="41" spans="2:9" ht="15.75" customHeight="1">
+      <c r="B41" s="15">
+        <v>39</v>
+      </c>
+      <c r="C41" s="22"/>
+      <c r="D41" s="15"/>
+      <c r="E41" s="15"/>
+      <c r="F41" s="17"/>
+      <c r="G41" s="29"/>
+      <c r="H41" s="17"/>
+      <c r="I41" s="17"/>
+    </row>
+    <row r="42" spans="2:9" ht="15.75" customHeight="1">
+      <c r="B42" s="15">
+        <v>40</v>
+      </c>
+      <c r="C42" s="22"/>
+      <c r="D42" s="15"/>
+      <c r="E42" s="15"/>
+      <c r="F42" s="17"/>
+      <c r="G42" s="29"/>
+      <c r="H42" s="17"/>
+      <c r="I42" s="26"/>
+    </row>
+    <row r="43" spans="2:9" ht="15.75" customHeight="1">
+      <c r="B43" s="15">
+        <v>41</v>
+      </c>
+      <c r="C43" s="22"/>
+      <c r="D43" s="15"/>
+      <c r="E43" s="15"/>
+      <c r="F43" s="17"/>
+      <c r="G43" s="29"/>
+      <c r="H43" s="17"/>
+      <c r="I43" s="17"/>
+    </row>
+    <row r="44" spans="2:9" ht="15.75" customHeight="1">
+      <c r="B44" s="15">
+        <v>42</v>
+      </c>
+      <c r="C44" s="22"/>
+      <c r="D44" s="15"/>
+      <c r="E44" s="15"/>
+      <c r="F44" s="17"/>
+      <c r="G44" s="29"/>
+      <c r="H44" s="17"/>
+      <c r="I44" s="26"/>
+    </row>
+    <row r="45" spans="2:9" ht="15.75" customHeight="1">
+      <c r="B45" s="15">
+        <v>43</v>
+      </c>
+      <c r="C45" s="22"/>
+      <c r="D45" s="15"/>
+      <c r="E45" s="15"/>
+      <c r="F45" s="17"/>
+      <c r="G45" s="26"/>
+      <c r="H45" s="17"/>
+      <c r="I45" s="26"/>
+    </row>
+    <row r="46" spans="2:9" ht="15.75" customHeight="1">
+      <c r="B46" s="15">
+        <v>44</v>
+      </c>
+      <c r="C46" s="22"/>
+      <c r="D46" s="15"/>
+      <c r="E46" s="15"/>
+      <c r="F46" s="29"/>
+      <c r="G46" s="29"/>
+      <c r="H46" s="17"/>
+      <c r="I46" s="19"/>
+    </row>
+    <row r="47" spans="2:9" ht="15.75" customHeight="1">
+      <c r="B47" s="15">
+        <v>45</v>
+      </c>
+      <c r="C47" s="22"/>
+      <c r="D47" s="15"/>
+      <c r="E47" s="15"/>
+      <c r="F47" s="17"/>
+      <c r="G47" s="26"/>
+      <c r="H47" s="17"/>
+      <c r="I47" s="26"/>
+    </row>
+    <row r="48" spans="2:9" ht="15.75" customHeight="1">
+      <c r="B48" s="15">
+        <v>46</v>
+      </c>
+      <c r="C48" s="22"/>
+      <c r="D48" s="15"/>
+      <c r="E48" s="15"/>
+      <c r="F48" s="17"/>
+      <c r="G48" s="17"/>
+      <c r="H48" s="17"/>
+      <c r="I48" s="26"/>
+    </row>
+    <row r="49" spans="2:9" ht="15.75" customHeight="1">
+      <c r="B49" s="15">
+        <v>47</v>
+      </c>
+      <c r="C49" s="22"/>
+      <c r="D49" s="15"/>
+      <c r="E49" s="15"/>
+      <c r="F49" s="17"/>
+      <c r="G49" s="17"/>
+      <c r="H49" s="17"/>
+      <c r="I49" s="17"/>
+    </row>
+    <row r="50" spans="2:9" ht="15.75" customHeight="1">
+      <c r="B50" s="15">
+        <v>48</v>
+      </c>
+      <c r="C50" s="22"/>
+      <c r="D50" s="15"/>
+      <c r="E50" s="15"/>
+      <c r="F50" s="17"/>
+      <c r="G50" s="17"/>
+      <c r="H50" s="17"/>
+      <c r="I50" s="17"/>
+    </row>
+    <row r="51" spans="2:9" ht="15.75" customHeight="1">
+      <c r="B51" s="15">
+        <v>49</v>
+      </c>
+      <c r="C51" s="22"/>
+      <c r="D51" s="15"/>
+      <c r="E51" s="15"/>
+      <c r="F51" s="17"/>
+      <c r="G51" s="17"/>
+      <c r="H51" s="17"/>
+      <c r="I51" s="26"/>
+    </row>
+    <row r="52" spans="2:9" ht="15.75" customHeight="1">
+      <c r="B52" s="15">
+        <v>50</v>
+      </c>
+      <c r="C52" s="22"/>
+      <c r="D52" s="15"/>
+      <c r="E52" s="15"/>
+      <c r="F52" s="17"/>
+      <c r="G52" s="17"/>
+      <c r="H52" s="17"/>
+      <c r="I52" s="17"/>
+    </row>
+    <row r="53" spans="2:9" ht="15.75" customHeight="1">
+      <c r="B53" s="15">
+        <v>51</v>
+      </c>
+      <c r="C53" s="22"/>
+      <c r="D53" s="15"/>
+      <c r="E53" s="15"/>
+      <c r="F53" s="17"/>
+      <c r="G53" s="17"/>
+      <c r="H53" s="17"/>
+      <c r="I53" s="17"/>
+    </row>
+    <row r="54" spans="2:9" ht="15.75" customHeight="1">
+      <c r="B54" s="15">
+        <v>52</v>
+      </c>
+      <c r="C54" s="22"/>
+      <c r="D54" s="15"/>
+      <c r="E54" s="15"/>
+      <c r="F54" s="17"/>
+      <c r="G54" s="17"/>
+      <c r="H54" s="17"/>
+      <c r="I54" s="17"/>
+    </row>
+    <row r="55" spans="2:9" ht="15.75" customHeight="1">
+      <c r="B55" s="15">
+        <v>53</v>
+      </c>
+      <c r="C55" s="22"/>
+      <c r="D55" s="15"/>
+      <c r="E55" s="15"/>
+      <c r="F55" s="17"/>
+      <c r="G55" s="17"/>
+      <c r="H55" s="17"/>
+      <c r="I55" s="17"/>
+    </row>
+    <row r="56" spans="2:9" ht="15.75" customHeight="1">
+      <c r="B56" s="15">
+        <v>54</v>
+      </c>
+      <c r="C56" s="22"/>
+      <c r="D56" s="15"/>
+      <c r="E56" s="15"/>
+      <c r="F56" s="17"/>
+      <c r="G56" s="17"/>
+      <c r="H56" s="17"/>
+      <c r="I56" s="26"/>
+    </row>
+    <row r="57" spans="2:9" ht="15.75" customHeight="1">
+      <c r="B57" s="15">
+        <v>55</v>
+      </c>
+      <c r="C57" s="22"/>
+      <c r="D57" s="15"/>
+      <c r="E57" s="15"/>
+      <c r="F57" s="17"/>
+      <c r="G57" s="17"/>
+      <c r="H57" s="17"/>
+      <c r="I57" s="26"/>
+    </row>
+    <row r="58" spans="2:9" ht="15.75" customHeight="1">
+      <c r="B58" s="15">
+        <v>56</v>
+      </c>
+      <c r="C58" s="22"/>
+      <c r="D58" s="15"/>
+      <c r="E58" s="15"/>
+      <c r="F58" s="17"/>
+      <c r="G58" s="17"/>
+      <c r="H58" s="17"/>
+      <c r="I58" s="26"/>
+    </row>
+    <row r="59" spans="2:9" ht="15.75" customHeight="1">
+      <c r="B59" s="15">
+        <v>57</v>
+      </c>
+      <c r="C59" s="22"/>
+      <c r="D59" s="15"/>
+      <c r="E59" s="15"/>
+      <c r="F59" s="17"/>
+      <c r="G59" s="17"/>
+      <c r="H59" s="17"/>
+      <c r="I59" s="26"/>
+    </row>
+    <row r="60" spans="2:9" ht="15.75" customHeight="1">
+      <c r="B60" s="15">
+        <v>58</v>
+      </c>
+      <c r="C60" s="22"/>
+      <c r="D60" s="15"/>
+      <c r="E60" s="15"/>
+      <c r="F60" s="17"/>
+      <c r="G60" s="17"/>
+      <c r="H60" s="17"/>
+      <c r="I60" s="26"/>
+    </row>
+    <row r="61" spans="2:9" ht="15.75" customHeight="1">
+      <c r="B61" s="15">
+        <v>59</v>
+      </c>
+      <c r="C61" s="22"/>
+      <c r="D61" s="15"/>
+      <c r="E61" s="15"/>
+      <c r="F61" s="17"/>
+      <c r="G61" s="17"/>
+      <c r="H61" s="17"/>
+      <c r="I61" s="26"/>
+    </row>
+    <row r="62" spans="2:9" ht="15.75" customHeight="1">
+      <c r="B62" s="15">
+        <v>60</v>
+      </c>
+      <c r="C62" s="22"/>
+      <c r="D62" s="15"/>
+      <c r="E62" s="15"/>
+      <c r="F62" s="17"/>
+      <c r="G62" s="17"/>
+      <c r="H62" s="17"/>
+      <c r="I62" s="26"/>
+    </row>
+    <row r="63" spans="2:9" ht="15.75" customHeight="1">
+      <c r="B63" s="15">
+        <v>61</v>
+      </c>
+      <c r="C63" s="22"/>
+      <c r="D63" s="15"/>
+      <c r="E63" s="15"/>
+      <c r="F63" s="17"/>
+      <c r="G63" s="17"/>
+      <c r="H63" s="17"/>
+      <c r="I63" s="26"/>
+    </row>
+    <row r="64" spans="2:9" ht="15.75" customHeight="1">
+      <c r="B64" s="15">
+        <v>62</v>
+      </c>
+      <c r="C64" s="22"/>
+      <c r="D64" s="15"/>
+      <c r="E64" s="15"/>
+      <c r="F64" s="17"/>
+      <c r="G64" s="17"/>
+      <c r="H64" s="17"/>
+      <c r="I64" s="26"/>
+    </row>
+    <row r="65" spans="2:9" ht="15.75" customHeight="1">
+      <c r="B65" s="15">
+        <v>63</v>
+      </c>
+      <c r="C65" s="22"/>
+      <c r="D65" s="15"/>
+      <c r="E65" s="15"/>
+      <c r="F65" s="17"/>
+      <c r="G65" s="17"/>
+      <c r="H65" s="17"/>
+      <c r="I65" s="17"/>
+    </row>
+    <row r="66" spans="2:9" ht="15.75" customHeight="1">
+      <c r="B66" s="15">
+        <v>64</v>
+      </c>
+      <c r="C66" s="22"/>
+      <c r="D66" s="15"/>
+      <c r="E66" s="15"/>
+      <c r="F66" s="17"/>
+      <c r="G66" s="17"/>
+      <c r="H66" s="17"/>
+      <c r="I66" s="26"/>
+    </row>
+    <row r="67" spans="2:9" ht="15.75" customHeight="1">
+      <c r="B67" s="15">
+        <v>65</v>
+      </c>
+      <c r="C67" s="22"/>
+      <c r="D67" s="15"/>
+      <c r="E67" s="15"/>
+      <c r="F67" s="17"/>
+      <c r="G67" s="17"/>
+      <c r="H67" s="17"/>
+      <c r="I67" s="26"/>
+    </row>
+    <row r="68" spans="2:9" ht="15.75" customHeight="1">
+      <c r="B68" s="15">
+        <v>66</v>
+      </c>
+      <c r="C68" s="22"/>
+      <c r="D68" s="15"/>
+      <c r="E68" s="15"/>
+      <c r="F68" s="17"/>
+      <c r="G68" s="26"/>
+      <c r="H68" s="17"/>
+      <c r="I68" s="26"/>
+    </row>
+    <row r="69" spans="2:9" ht="15.75" customHeight="1">
+      <c r="B69" s="15">
+        <v>67</v>
+      </c>
+      <c r="C69" s="22"/>
+      <c r="D69" s="15"/>
+      <c r="E69" s="15"/>
+      <c r="F69" s="17"/>
+      <c r="G69" s="26"/>
+      <c r="H69" s="17"/>
+      <c r="I69" s="26"/>
+    </row>
+    <row r="70" spans="2:9" ht="15.75" customHeight="1">
+      <c r="B70" s="15">
+        <v>68</v>
+      </c>
+      <c r="C70" s="22"/>
+      <c r="D70" s="15"/>
+      <c r="E70" s="15"/>
+      <c r="F70" s="17"/>
+      <c r="G70" s="26"/>
+      <c r="H70" s="17"/>
+      <c r="I70" s="26"/>
+    </row>
+    <row r="71" spans="2:9" ht="15.75" customHeight="1">
+      <c r="B71" s="15">
+        <v>69</v>
+      </c>
+      <c r="C71" s="22"/>
+      <c r="D71" s="15"/>
+      <c r="E71" s="15"/>
+      <c r="F71" s="17"/>
+      <c r="G71" s="26"/>
+      <c r="H71" s="17"/>
+      <c r="I71" s="26"/>
+    </row>
+    <row r="72" spans="2:9" ht="15.75" customHeight="1">
+      <c r="B72" s="15">
+        <v>70</v>
+      </c>
+      <c r="C72" s="22"/>
+      <c r="D72" s="15"/>
+      <c r="E72" s="15"/>
+      <c r="F72" s="17"/>
+      <c r="G72" s="26"/>
+      <c r="H72" s="17"/>
+      <c r="I72" s="26"/>
+    </row>
+    <row r="73" spans="2:9" ht="15.75" customHeight="1">
+      <c r="B73" s="15">
+        <v>71</v>
+      </c>
+      <c r="C73" s="22"/>
+      <c r="D73" s="15"/>
+      <c r="E73" s="15"/>
+      <c r="F73" s="17"/>
+      <c r="G73" s="26"/>
+      <c r="H73" s="17"/>
+      <c r="I73" s="26"/>
+    </row>
+    <row r="74" spans="2:9" ht="15.75" customHeight="1">
+      <c r="B74" s="15">
+        <v>72</v>
+      </c>
+      <c r="C74" s="22"/>
+      <c r="D74" s="15"/>
+      <c r="E74" s="15"/>
+      <c r="F74" s="17"/>
+      <c r="G74" s="26"/>
+      <c r="H74" s="17"/>
+      <c r="I74" s="26"/>
+    </row>
+    <row r="75" spans="2:9" ht="15.75" customHeight="1">
+      <c r="B75" s="15">
+        <v>73</v>
+      </c>
+      <c r="C75" s="22"/>
+      <c r="D75" s="15"/>
+      <c r="E75" s="15"/>
+      <c r="F75" s="17"/>
+      <c r="G75" s="26"/>
+      <c r="H75" s="17"/>
+      <c r="I75" s="26"/>
+    </row>
+    <row r="76" spans="2:9" ht="15.75" customHeight="1">
+      <c r="B76" s="15">
+        <v>74</v>
+      </c>
+      <c r="C76" s="22"/>
+      <c r="D76" s="15"/>
+      <c r="E76" s="15"/>
+      <c r="F76" s="17"/>
+      <c r="G76" s="29"/>
+      <c r="H76" s="17"/>
+      <c r="I76" s="26"/>
+    </row>
+    <row r="77" spans="2:9" ht="15.75" customHeight="1">
+      <c r="B77" s="15">
+        <v>75</v>
+      </c>
+      <c r="C77" s="22"/>
+      <c r="D77" s="15"/>
+      <c r="E77" s="15"/>
+      <c r="F77" s="17"/>
+      <c r="G77" s="26"/>
+      <c r="H77" s="25"/>
+      <c r="I77" s="26"/>
+    </row>
+    <row r="78" spans="2:9" ht="15.75" customHeight="1">
+      <c r="B78" s="15">
+        <v>76</v>
+      </c>
+      <c r="C78" s="22"/>
+      <c r="D78" s="15"/>
+      <c r="E78" s="15"/>
+      <c r="F78" s="17"/>
+      <c r="G78" s="26"/>
+      <c r="H78" s="25"/>
+      <c r="I78" s="26"/>
+    </row>
+    <row r="79" spans="2:9" ht="15.75" customHeight="1">
+      <c r="B79" s="15">
+        <v>77</v>
+      </c>
+      <c r="C79" s="22"/>
+      <c r="D79" s="15"/>
+      <c r="E79" s="15"/>
+      <c r="F79" s="17"/>
+      <c r="G79" s="26"/>
+      <c r="H79" s="25"/>
+      <c r="I79" s="26"/>
+    </row>
+    <row r="80" spans="2:9" ht="15.75" customHeight="1">
+      <c r="B80" s="15">
+        <v>78</v>
+      </c>
+      <c r="C80" s="22"/>
+      <c r="D80" s="15"/>
+      <c r="E80" s="15"/>
+      <c r="F80" s="17"/>
+      <c r="G80" s="26"/>
+      <c r="H80" s="25"/>
+      <c r="I80" s="26"/>
+    </row>
+    <row r="81" spans="2:9" ht="15.75" customHeight="1">
+      <c r="B81" s="15">
+        <v>79</v>
+      </c>
+      <c r="C81" s="30"/>
+      <c r="D81" s="31"/>
+      <c r="E81" s="31"/>
+      <c r="F81" s="17"/>
+      <c r="G81" s="26"/>
+      <c r="H81" s="25"/>
+      <c r="I81" s="26"/>
+    </row>
+    <row r="82" spans="2:9" ht="15.75" customHeight="1">
+      <c r="B82" s="15">
+        <v>80</v>
+      </c>
+      <c r="C82" s="30"/>
+      <c r="D82" s="31"/>
+      <c r="E82" s="31"/>
+      <c r="F82" s="17"/>
+      <c r="G82" s="26"/>
+      <c r="H82" s="25"/>
+      <c r="I82" s="26"/>
+    </row>
+    <row r="83" spans="2:9" ht="15.75" customHeight="1">
+      <c r="B83" s="15">
+        <v>81</v>
+      </c>
+      <c r="C83" s="30"/>
+      <c r="D83" s="31"/>
+      <c r="E83" s="31"/>
+      <c r="F83" s="17"/>
+      <c r="G83" s="26"/>
+      <c r="H83" s="25"/>
+      <c r="I83" s="26"/>
+    </row>
+    <row r="84" spans="2:9" ht="15.75" customHeight="1">
+      <c r="B84" s="15">
+        <v>82</v>
+      </c>
+      <c r="C84" s="30"/>
+      <c r="D84" s="31"/>
+      <c r="E84" s="31"/>
+      <c r="F84" s="17"/>
+      <c r="G84" s="26"/>
+      <c r="H84" s="25"/>
+      <c r="I84" s="26"/>
+    </row>
+    <row r="85" spans="2:9" ht="15.75" customHeight="1">
+      <c r="B85" s="15">
+        <v>83</v>
+      </c>
+      <c r="C85" s="30"/>
+      <c r="D85" s="31"/>
+      <c r="E85" s="31"/>
+      <c r="F85" s="17"/>
+      <c r="G85" s="26"/>
+      <c r="H85" s="25"/>
+      <c r="I85" s="26"/>
+    </row>
+    <row r="86" spans="2:9" ht="15.75" customHeight="1">
+      <c r="B86" s="15">
+        <v>84</v>
+      </c>
+      <c r="C86" s="30"/>
+      <c r="D86" s="31"/>
+      <c r="E86" s="31"/>
+      <c r="F86" s="17"/>
+      <c r="G86" s="26"/>
+      <c r="H86" s="25"/>
+      <c r="I86" s="26"/>
+    </row>
+    <row r="87" spans="2:9" ht="15.75" customHeight="1">
+      <c r="B87" s="15">
+        <v>85</v>
+      </c>
+      <c r="C87" s="30"/>
+      <c r="D87" s="31"/>
+      <c r="E87" s="31"/>
+      <c r="F87" s="17"/>
+      <c r="G87" s="26"/>
+      <c r="H87" s="25"/>
+      <c r="I87" s="26"/>
+    </row>
+    <row r="88" spans="2:9" ht="15.75" customHeight="1">
+      <c r="B88" s="15">
+        <v>86</v>
+      </c>
+      <c r="C88" s="30"/>
+      <c r="D88" s="31"/>
+      <c r="E88" s="31"/>
+      <c r="F88" s="17"/>
+      <c r="G88" s="26"/>
+      <c r="H88" s="25"/>
+      <c r="I88" s="26"/>
+    </row>
+    <row r="89" spans="2:9" ht="15.75" customHeight="1">
+      <c r="B89" s="15">
+        <v>87</v>
+      </c>
+      <c r="C89" s="30"/>
+      <c r="D89" s="31"/>
+      <c r="E89" s="31"/>
+      <c r="F89" s="17"/>
+      <c r="G89" s="26"/>
+      <c r="H89" s="25"/>
+      <c r="I89" s="26"/>
+    </row>
+    <row r="90" spans="2:9" ht="15.75" customHeight="1">
+      <c r="B90" s="15">
+        <v>88</v>
+      </c>
+      <c r="C90" s="30"/>
+      <c r="D90" s="31"/>
+      <c r="E90" s="31"/>
+      <c r="F90" s="17"/>
+      <c r="G90" s="26"/>
+      <c r="H90" s="25"/>
+      <c r="I90" s="26"/>
+    </row>
+    <row r="91" spans="2:9" ht="15.75" customHeight="1">
+      <c r="B91" s="15">
+        <v>89</v>
+      </c>
+      <c r="C91" s="30"/>
+      <c r="D91" s="31"/>
+      <c r="E91" s="31"/>
+      <c r="F91" s="17"/>
+      <c r="G91" s="26"/>
+      <c r="H91" s="25"/>
+      <c r="I91" s="26"/>
+    </row>
+    <row r="92" spans="2:9" ht="15.75" customHeight="1">
+      <c r="B92" s="15">
+        <v>90</v>
+      </c>
+      <c r="C92" s="30"/>
+      <c r="D92" s="31"/>
+      <c r="E92" s="31"/>
+      <c r="F92" s="17"/>
+      <c r="G92" s="26"/>
+      <c r="H92" s="25"/>
+      <c r="I92" s="26"/>
+    </row>
+    <row r="93" spans="2:9" ht="15.75" customHeight="1">
+      <c r="B93" s="15">
+        <v>91</v>
+      </c>
+      <c r="C93" s="30"/>
+      <c r="D93" s="31"/>
+      <c r="E93" s="31"/>
+      <c r="F93" s="17"/>
+      <c r="G93" s="26"/>
+      <c r="H93" s="25"/>
+      <c r="I93" s="26"/>
+    </row>
+    <row r="94" spans="2:9" ht="15.75" customHeight="1">
+      <c r="B94" s="15">
+        <v>92</v>
+      </c>
+      <c r="C94" s="30"/>
+      <c r="D94" s="31"/>
+      <c r="E94" s="31"/>
+      <c r="F94" s="17"/>
+      <c r="G94" s="26"/>
+      <c r="H94" s="25"/>
+      <c r="I94" s="26"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
